--- a/merged_results/complete_results.xlsx
+++ b/merged_results/complete_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Documents/Own/Papers_and_Projects/comparison_ArchRec_tools/GitHub_SARbenchmarks/merged_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EA89DC-35B6-A44C-86EF-4B7F4D4746D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0EEA3F-7E49-4C46-9D66-151C8E236125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26840" xr2:uid="{21E6DDBE-06EB-864D-8BE4-57F9A90E46C0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{21E6DDBE-06EB-864D-8BE4-57F9A90E46C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete Results" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="508">
   <si>
     <t xml:space="preserve"> RAD</t>
   </si>
@@ -1803,6 +1803,9 @@
   </si>
   <si>
     <t>RAS</t>
+  </si>
+  <si>
+    <t>This is done manually (checking each FP for overlaps)</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +1988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1993,6 +1996,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2032,6 +2036,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2432,11 +2437,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E181CEDB-9761-A944-9A62-062C9F034F3F}">
-  <dimension ref="A1:Y602"/>
+  <dimension ref="A1:Y600"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A549" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P595" sqref="P595"/>
+      <pane ySplit="2" topLeftCell="A573" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M597" sqref="M597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2450,26 +2455,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="L1" s="7"/>
+      <c r="L1" s="8"/>
       <c r="M1" s="2" t="s">
         <v>474</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7" t="s">
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7" t="s">
+      <c r="R1" s="8"/>
+      <c r="S1" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="T1" s="7"/>
+      <c r="T1" s="8"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
@@ -2479,55 +2484,55 @@
       <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>501</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>502</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>503</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="35" t="s">
         <v>505</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="36" t="s">
         <v>506</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="9" t="s">
         <v>471</v>
       </c>
     </row>
@@ -2711,20 +2716,20 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
         <v>TP</v>
@@ -3940,22 +3945,22 @@
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="12"/>
+      <c r="C30" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>TP</v>
@@ -4007,7 +4012,7 @@
       <c r="D31" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I31" s="5" t="s">
@@ -4064,7 +4069,7 @@
       <c r="D32" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="11" t="s">
         <v>4</v>
       </c>
       <c r="I32" s="5" t="s">
@@ -7211,24 +7216,24 @@
       </c>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H87" s="11"/>
-      <c r="I87" s="12"/>
+      <c r="C87" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H87" s="12"/>
+      <c r="I87" s="13"/>
       <c r="K87" t="str">
         <f t="shared" si="12"/>
         <v>TP</v>
@@ -7283,7 +7288,7 @@
       <c r="E88" t="s">
         <v>4</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="G88" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H88" t="s">
@@ -7346,7 +7351,7 @@
       <c r="E89" t="s">
         <v>2</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="G89" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H89" t="s">
@@ -9824,24 +9829,24 @@
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C129" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H129" s="11"/>
-      <c r="I129" s="12"/>
+      <c r="C129" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H129" s="12"/>
+      <c r="I129" s="13"/>
       <c r="K129" t="str">
         <f t="shared" si="12"/>
         <v>TP</v>
@@ -9896,7 +9901,7 @@
       <c r="E130" t="s">
         <v>2</v>
       </c>
-      <c r="G130" s="10" t="s">
+      <c r="G130" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H130" t="s">
@@ -9959,7 +9964,7 @@
       <c r="E131" t="s">
         <v>2</v>
       </c>
-      <c r="G131" s="10" t="s">
+      <c r="G131" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H131" t="s">
@@ -11011,26 +11016,26 @@
       </c>
     </row>
     <row r="148" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C148" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F148" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G148" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H148" s="11"/>
-      <c r="I148" s="12"/>
+      <c r="C148" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G148" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H148" s="12"/>
+      <c r="I148" s="13"/>
       <c r="K148" t="str">
         <f t="shared" si="22"/>
         <v>TP</v>
@@ -11085,7 +11090,7 @@
       <c r="E149" t="s">
         <v>2</v>
       </c>
-      <c r="G149" s="10" t="s">
+      <c r="G149" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H149" t="s">
@@ -11148,7 +11153,7 @@
       <c r="E150" t="s">
         <v>4</v>
       </c>
-      <c r="G150" s="10" t="s">
+      <c r="G150" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H150" t="s">
@@ -11211,7 +11216,7 @@
       <c r="E151" t="s">
         <v>4</v>
       </c>
-      <c r="G151" s="10" t="s">
+      <c r="G151" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H151" t="s">
@@ -11274,7 +11279,7 @@
       <c r="E152" t="s">
         <v>2</v>
       </c>
-      <c r="G152" s="10" t="s">
+      <c r="G152" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H152" t="s">
@@ -12568,26 +12573,26 @@
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B173" s="11" t="s">
+      <c r="B173" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C173" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D173" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E173" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F173" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G173" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H173" s="11"/>
-      <c r="I173" s="12"/>
+      <c r="C173" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F173" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G173" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H173" s="12"/>
+      <c r="I173" s="13"/>
       <c r="K173" t="str">
         <f t="shared" si="22"/>
         <v>TP</v>
@@ -15188,24 +15193,24 @@
       </c>
     </row>
     <row r="217" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B217" s="11" t="s">
+      <c r="B217" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C217" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D217" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E217" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F217" s="11"/>
-      <c r="G217" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H217" s="11"/>
-      <c r="I217" s="12"/>
+      <c r="C217" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E217" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F217" s="12"/>
+      <c r="G217" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H217" s="12"/>
+      <c r="I217" s="13"/>
       <c r="K217" t="str">
         <f t="shared" si="32"/>
         <v>TP</v>
@@ -18323,24 +18328,24 @@
       </c>
     </row>
     <row r="268" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B268" s="11" t="s">
+      <c r="B268" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C268" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D268" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E268" s="11"/>
-      <c r="F268" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G268" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H268" s="11"/>
-      <c r="I268" s="12"/>
+      <c r="C268" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D268" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E268" s="12"/>
+      <c r="F268" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G268" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H268" s="12"/>
+      <c r="I268" s="13"/>
       <c r="K268" t="str">
         <f t="shared" si="42"/>
         <v>TP</v>
@@ -20917,20 +20922,20 @@
       </c>
     </row>
     <row r="313" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B313" s="11" t="s">
+      <c r="B313" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="C313" s="11"/>
-      <c r="D313" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E313" s="11"/>
-      <c r="F313" s="11"/>
-      <c r="G313" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H313" s="11"/>
-      <c r="I313" s="12"/>
+      <c r="C313" s="12"/>
+      <c r="D313" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E313" s="12"/>
+      <c r="F313" s="12"/>
+      <c r="G313" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H313" s="12"/>
+      <c r="I313" s="13"/>
       <c r="K313" t="str">
         <f t="shared" si="42"/>
         <v>TP</v>
@@ -21785,20 +21790,20 @@
       </c>
     </row>
     <row r="331" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B331" s="11" t="s">
+      <c r="B331" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="C331" s="11"/>
-      <c r="D331" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E331" s="11"/>
-      <c r="F331" s="11"/>
-      <c r="G331" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H331" s="11"/>
-      <c r="I331" s="12"/>
+      <c r="C331" s="12"/>
+      <c r="D331" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E331" s="12"/>
+      <c r="F331" s="12"/>
+      <c r="G331" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H331" s="12"/>
+      <c r="I331" s="13"/>
       <c r="K331" t="str">
         <f t="shared" si="52"/>
         <v>TP</v>
@@ -22714,24 +22719,24 @@
       </c>
     </row>
     <row r="348" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B348" s="11" t="s">
+      <c r="B348" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C348" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D348" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E348" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F348" s="11"/>
-      <c r="G348" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H348" s="11"/>
-      <c r="I348" s="12"/>
+      <c r="C348" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D348" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E348" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F348" s="12"/>
+      <c r="G348" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H348" s="12"/>
+      <c r="I348" s="13"/>
       <c r="K348" t="str">
         <f t="shared" si="52"/>
         <v>TP</v>
@@ -24780,20 +24785,20 @@
       </c>
     </row>
     <row r="385" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B385" s="11" t="s">
+      <c r="B385" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C385" s="11"/>
-      <c r="D385" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E385" s="11"/>
-      <c r="F385" s="11"/>
-      <c r="G385" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H385" s="11"/>
-      <c r="I385" s="12"/>
+      <c r="C385" s="12"/>
+      <c r="D385" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E385" s="12"/>
+      <c r="F385" s="12"/>
+      <c r="G385" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H385" s="12"/>
+      <c r="I385" s="13"/>
       <c r="K385" t="str">
         <f t="shared" si="52"/>
         <v>TP</v>
@@ -26239,24 +26244,24 @@
       </c>
     </row>
     <row r="413" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B413" s="11" t="s">
+      <c r="B413" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="C413" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D413" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E413" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F413" s="11"/>
-      <c r="G413" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H413" s="11"/>
-      <c r="I413" s="12"/>
+      <c r="C413" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D413" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E413" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F413" s="12"/>
+      <c r="G413" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H413" s="12"/>
+      <c r="I413" s="13"/>
       <c r="K413" t="str">
         <f t="shared" si="62"/>
         <v>TP</v>
@@ -28625,24 +28630,24 @@
       </c>
     </row>
     <row r="453" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B453" s="11" t="s">
+      <c r="B453" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C453" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D453" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E453" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F453" s="11"/>
-      <c r="G453" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H453" s="11"/>
-      <c r="I453" s="12"/>
+      <c r="C453" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D453" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E453" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F453" s="12"/>
+      <c r="G453" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H453" s="12"/>
+      <c r="I453" s="13"/>
       <c r="K453" t="str">
         <f t="shared" si="72"/>
         <v>TP</v>
@@ -30873,26 +30878,26 @@
       </c>
     </row>
     <row r="489" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B489" s="11" t="s">
+      <c r="B489" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C489" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D489" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E489" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F489" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G489" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H489" s="11"/>
-      <c r="I489" s="12"/>
+      <c r="C489" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D489" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E489" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F489" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G489" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H489" s="12"/>
+      <c r="I489" s="13"/>
       <c r="K489" t="str">
         <f t="shared" si="72"/>
         <v>TP</v>
@@ -33080,22 +33085,22 @@
       </c>
     </row>
     <row r="526" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B526" s="11" t="s">
+      <c r="B526" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C526" s="11"/>
-      <c r="D526" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E526" s="11"/>
-      <c r="F526" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G526" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H526" s="11"/>
-      <c r="I526" s="12"/>
+      <c r="C526" s="12"/>
+      <c r="D526" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E526" s="12"/>
+      <c r="F526" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G526" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H526" s="12"/>
+      <c r="I526" s="13"/>
       <c r="K526" t="str">
         <f t="shared" si="82"/>
         <v>TP</v>
@@ -34491,24 +34496,24 @@
       </c>
     </row>
     <row r="553" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B553" s="11" t="s">
+      <c r="B553" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="C553" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D553" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E553" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F553" s="11"/>
-      <c r="G553" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H553" s="11"/>
-      <c r="I553" s="12"/>
+      <c r="C553" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D553" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E553" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F553" s="12"/>
+      <c r="G553" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H553" s="12"/>
+      <c r="I553" s="13"/>
       <c r="K553" t="str">
         <f t="shared" si="82"/>
         <v>TP</v>
@@ -34991,7 +34996,7 @@
         <v>TP</v>
       </c>
     </row>
-    <row r="561" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B561" t="s">
         <v>459</v>
       </c>
@@ -35054,7 +35059,7 @@
         <v>FN</v>
       </c>
     </row>
-    <row r="562" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B562" t="s">
         <v>460</v>
       </c>
@@ -35117,7 +35122,7 @@
         <v>FN</v>
       </c>
     </row>
-    <row r="563" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B563" t="s">
         <v>461</v>
       </c>
@@ -35180,7 +35185,7 @@
         <v>FN</v>
       </c>
     </row>
-    <row r="564" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B564" t="s">
         <v>462</v>
       </c>
@@ -35243,7 +35248,7 @@
         <v>TP</v>
       </c>
     </row>
-    <row r="565" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B565" t="s">
         <v>463</v>
       </c>
@@ -35306,7 +35311,7 @@
         <v>FN</v>
       </c>
     </row>
-    <row r="566" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B566" t="s">
         <v>464</v>
       </c>
@@ -35369,7 +35374,7 @@
         <v>FN</v>
       </c>
     </row>
-    <row r="567" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B567" t="s">
         <v>465</v>
       </c>
@@ -35432,7 +35437,7 @@
         <v>FN</v>
       </c>
     </row>
-    <row r="568" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B568" t="s">
         <v>466</v>
       </c>
@@ -35495,7 +35500,7 @@
         <v>FN</v>
       </c>
     </row>
-    <row r="569" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="B569" s="3" t="s">
         <v>467</v>
@@ -35560,246 +35565,461 @@
         <v>FN</v>
       </c>
     </row>
-    <row r="572" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B572" s="17" t="s">
+    <row r="572" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B572" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="C572" s="9">
-        <f>COUNTIF(C3:C569, " TP")</f>
+      <c r="C572" s="10">
+        <f>COUNTIF(C3:C569, " TP") + C593</f>
         <v>402</v>
       </c>
-      <c r="D572" s="9">
-        <f t="shared" ref="D572:I572" si="92">COUNTIF(D3:D569, " TP")</f>
-        <v>498</v>
-      </c>
-      <c r="E572" s="9">
+      <c r="D572" s="10">
+        <f t="shared" ref="D572:I572" si="92">COUNTIF(D3:D569, " TP") + D593</f>
+        <v>576</v>
+      </c>
+      <c r="E572" s="10">
         <f t="shared" si="92"/>
         <v>208</v>
       </c>
-      <c r="F572" s="9">
+      <c r="F572" s="10">
         <f t="shared" si="92"/>
         <v>32</v>
       </c>
-      <c r="G572" s="9">
+      <c r="G572" s="10">
         <f t="shared" si="92"/>
         <v>31</v>
       </c>
-      <c r="H572" s="9"/>
-      <c r="I572" s="23">
+      <c r="H572" s="10">
         <f t="shared" si="92"/>
-        <v>7</v>
-      </c>
-      <c r="K572">
-        <f>COUNTIF(K3:K569, "TP")</f>
-        <v>553</v>
-      </c>
-      <c r="L572">
-        <f t="shared" ref="L572:S572" si="93">COUNTIF(L3:L569, "TP")</f>
-        <v>24</v>
-      </c>
-      <c r="M572">
+        <v>90</v>
+      </c>
+      <c r="I572" s="24">
+        <f t="shared" si="92"/>
+        <v>92</v>
+      </c>
+      <c r="K572" s="11">
+        <f>COUNTIF(K3:K569, "TP") + K593</f>
+        <v>684</v>
+      </c>
+      <c r="L572" s="11">
+        <f>COUNTIF(L3:L569, "TP") + L593</f>
+        <v>76</v>
+      </c>
+      <c r="M572" s="11">
+        <f t="shared" ref="L572:S572" si="93">COUNTIF(M3:M569, "TP")</f>
+        <v>552</v>
+      </c>
+      <c r="N572" s="11">
+        <f t="shared" si="93"/>
+        <v>353</v>
+      </c>
+      <c r="O572" s="11">
         <f t="shared" si="93"/>
         <v>552</v>
       </c>
-      <c r="N572">
-        <f t="shared" si="93"/>
-        <v>353</v>
-      </c>
-      <c r="O572">
-        <f t="shared" si="93"/>
-        <v>552</v>
-      </c>
-      <c r="P572">
+      <c r="P572" s="11">
         <f t="shared" si="93"/>
         <v>437</v>
       </c>
-      <c r="Q572">
+      <c r="Q572" s="11">
         <f t="shared" si="93"/>
         <v>407</v>
       </c>
-      <c r="R572">
+      <c r="R572" s="11">
         <f t="shared" si="93"/>
         <v>203</v>
       </c>
-      <c r="S572">
+      <c r="S572" s="11">
         <f t="shared" si="93"/>
         <v>509</v>
       </c>
-      <c r="T572">
+      <c r="T572" s="11">
         <f>COUNTIF(T3:T569, "TP")</f>
         <v>372</v>
       </c>
     </row>
-    <row r="573" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B573" s="18" t="s">
+    <row r="573" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B573" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="C573" s="13">
-        <f>COUNTIF(C3:C569, " FN")</f>
+      <c r="C573" s="14">
+        <f>COUNTIF(C3:C569, " FN") + C594</f>
         <v>66</v>
       </c>
-      <c r="D573" s="13">
-        <f>COUNTIF(D3:D569, " FN")</f>
-        <v>69</v>
-      </c>
-      <c r="E573" s="13">
-        <f>COUNTIF(E3:E569, " FN")</f>
+      <c r="D573" s="14">
+        <f t="shared" ref="D573:I573" si="94">COUNTIF(D3:D569, " FN") + D594</f>
+        <v>141</v>
+      </c>
+      <c r="E573" s="14">
+        <f t="shared" si="94"/>
         <v>147</v>
       </c>
-      <c r="F573" s="13">
-        <f>COUNTIF(F3:F569, " FN")</f>
+      <c r="F573" s="14">
+        <f t="shared" si="94"/>
         <v>25</v>
       </c>
-      <c r="G573" s="13">
-        <f>COUNTIF(G3:G569, " FN")</f>
+      <c r="G573" s="14">
+        <f t="shared" si="94"/>
         <v>536</v>
       </c>
-      <c r="H573" s="13">
-        <f>COUNTIF(H3:H569, " FN")</f>
-        <v>259</v>
-      </c>
-      <c r="I573" s="24">
-        <f>COUNTIF(I3:I569, " FN")</f>
-        <v>378</v>
-      </c>
-    </row>
-    <row r="574" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B574" s="19" t="s">
+      <c r="H573" s="14">
+        <f t="shared" si="94"/>
+        <v>291</v>
+      </c>
+      <c r="I573" s="25">
+        <f t="shared" si="94"/>
+        <v>443</v>
+      </c>
+      <c r="K573" s="14">
+        <f>COUNTIF(K3:K569, "FN") + K594</f>
+        <v>32</v>
+      </c>
+      <c r="L573" s="14">
+        <f>COUNTIF(L3:L569, "FN") + L594</f>
+        <v>640</v>
+      </c>
+      <c r="M573" s="14">
+        <f t="shared" ref="L573:T573" si="95">COUNTIF(M3:M569, "FN")</f>
+        <v>15</v>
+      </c>
+      <c r="N573" s="14">
+        <f t="shared" si="95"/>
+        <v>214</v>
+      </c>
+      <c r="O573" s="14">
+        <f t="shared" si="95"/>
+        <v>15</v>
+      </c>
+      <c r="P573" s="14">
+        <f t="shared" si="95"/>
+        <v>130</v>
+      </c>
+      <c r="Q573" s="14">
+        <f t="shared" si="95"/>
+        <v>62</v>
+      </c>
+      <c r="R573" s="14">
+        <f t="shared" si="95"/>
+        <v>266</v>
+      </c>
+      <c r="S573" s="14">
+        <f>COUNTIF(S3:S569, "FN")</f>
+        <v>58</v>
+      </c>
+      <c r="T573" s="14">
+        <f t="shared" si="95"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="574" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B574" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="C574" s="14">
+      <c r="C574" s="15">
         <v>436</v>
       </c>
-      <c r="D574" s="14">
+      <c r="D574" s="15">
         <v>54</v>
       </c>
-      <c r="E574" s="14">
-        <v>2</v>
-      </c>
-      <c r="F574" s="14">
+      <c r="E574" s="15">
+        <v>2</v>
+      </c>
+      <c r="F574" s="15">
         <v>1</v>
       </c>
-      <c r="G574" s="14">
+      <c r="G574" s="15">
         <v>22</v>
       </c>
-      <c r="H574" s="14">
-        <v>2</v>
-      </c>
-      <c r="I574" s="25">
+      <c r="H574" s="15">
+        <v>2</v>
+      </c>
+      <c r="I574" s="26">
         <v>16</v>
       </c>
-    </row>
-    <row r="575" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B575" s="20" t="s">
+      <c r="J574" s="11"/>
+      <c r="K574" s="7">
+        <f>K581+K588+K595</f>
+        <v>517</v>
+      </c>
+      <c r="L574" s="7">
+        <v>2</v>
+      </c>
+      <c r="M574" s="7">
+        <f>M581+M588</f>
+        <v>458</v>
+      </c>
+      <c r="N574" s="7">
+        <v>0</v>
+      </c>
+      <c r="O574" s="7">
+        <f>O581+O588</f>
+        <v>458</v>
+      </c>
+      <c r="P574" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q574" s="7">
+        <f>Q581+Q588</f>
+        <v>437</v>
+      </c>
+      <c r="R574" s="7">
+        <v>0</v>
+      </c>
+      <c r="S574" s="7">
+        <f>S581+S588</f>
+        <v>34</v>
+      </c>
+      <c r="T574" s="11">
+        <v>0</v>
+      </c>
+      <c r="V574" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="575" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B575" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="C575" s="28">
+      <c r="C575" s="29">
         <f>C572/(C572+C574)</f>
         <v>0.47971360381861577</v>
       </c>
-      <c r="D575" s="28">
-        <f t="shared" ref="D575:I575" si="94">D572/(D572+D574)</f>
-        <v>0.90217391304347827</v>
-      </c>
-      <c r="E575" s="28">
-        <f t="shared" si="94"/>
+      <c r="D575" s="29">
+        <f t="shared" ref="D575:I575" si="96">D572/(D572+D574)</f>
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="E575" s="29">
+        <f t="shared" si="96"/>
         <v>0.99047619047619051</v>
       </c>
-      <c r="F575" s="28">
-        <f t="shared" si="94"/>
+      <c r="F575" s="29">
+        <f t="shared" si="96"/>
         <v>0.96969696969696972</v>
       </c>
-      <c r="G575" s="28">
-        <f t="shared" si="94"/>
+      <c r="G575" s="29">
+        <f t="shared" si="96"/>
         <v>0.58490566037735847</v>
       </c>
-      <c r="H575" s="28">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="I575" s="29">
-        <f t="shared" si="94"/>
-        <v>0.30434782608695654</v>
-      </c>
-    </row>
-    <row r="576" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B576" s="20" t="s">
+      <c r="H575" s="29">
+        <f t="shared" si="96"/>
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="I575" s="30">
+        <f t="shared" si="96"/>
+        <v>0.85185185185185186</v>
+      </c>
+      <c r="J575" s="37"/>
+      <c r="K575" s="37">
+        <f>K572/(K572+K574)</f>
+        <v>0.56952539550374692</v>
+      </c>
+      <c r="L575" s="37">
+        <f t="shared" ref="L575" si="97">L572/(L572+L574)</f>
+        <v>0.97435897435897434</v>
+      </c>
+      <c r="M575" s="37">
+        <f t="shared" ref="M575" si="98">M572/(M572+M574)</f>
+        <v>0.54653465346534658</v>
+      </c>
+      <c r="N575" s="37">
+        <f t="shared" ref="N575" si="99">N572/(N572+N574)</f>
+        <v>1</v>
+      </c>
+      <c r="O575" s="37">
+        <f t="shared" ref="O575" si="100">O572/(O572+O574)</f>
+        <v>0.54653465346534658</v>
+      </c>
+      <c r="P575" s="37">
+        <f t="shared" ref="P575" si="101">P572/(P572+P574)</f>
+        <v>1</v>
+      </c>
+      <c r="Q575" s="37">
+        <f t="shared" ref="Q575" si="102">Q572/(Q572+Q574)</f>
+        <v>0.48222748815165878</v>
+      </c>
+      <c r="R575" s="37">
+        <f t="shared" ref="R575" si="103">R572/(R572+R574)</f>
+        <v>1</v>
+      </c>
+      <c r="S575" s="37">
+        <f>S572/(S572+S574)</f>
+        <v>0.93738489871086561</v>
+      </c>
+      <c r="T575" s="37">
+        <f t="shared" ref="T575" si="104">T572/(T572+T574)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B576" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="C576" s="28">
+      <c r="C576" s="29">
         <f>C572/(C572+C573)</f>
         <v>0.85897435897435892</v>
       </c>
-      <c r="D576" s="28">
+      <c r="D576" s="29">
         <f>D572/(D572+D573)</f>
-        <v>0.87830687830687826</v>
-      </c>
-      <c r="E576" s="28">
+        <v>0.80334728033472802</v>
+      </c>
+      <c r="E576" s="29">
         <f>E572/(E572+E573)</f>
         <v>0.58591549295774648</v>
       </c>
-      <c r="F576" s="28">
+      <c r="F576" s="29">
         <f>F572/(F572+F573)</f>
         <v>0.56140350877192979</v>
       </c>
-      <c r="G576" s="28">
+      <c r="G576" s="29">
         <f>G572/(G572+G573)</f>
         <v>5.4673721340388004E-2</v>
       </c>
-      <c r="H576" s="28">
+      <c r="H576" s="29">
         <f>H572/(H572+H573)</f>
-        <v>0</v>
-      </c>
-      <c r="I576" s="30">
+        <v>0.23622047244094488</v>
+      </c>
+      <c r="I576" s="31">
         <f>I572/(I572+I573)</f>
-        <v>1.8181818181818181E-2</v>
-      </c>
-    </row>
-    <row r="577" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B577" s="21" t="s">
+        <v>0.17196261682242991</v>
+      </c>
+      <c r="J576" s="37"/>
+      <c r="K576" s="37">
+        <f t="shared" ref="J576:T576" si="105">K572/(K572+K573)</f>
+        <v>0.95530726256983245</v>
+      </c>
+      <c r="L576" s="37">
+        <f t="shared" si="105"/>
+        <v>0.10614525139664804</v>
+      </c>
+      <c r="M576" s="37">
+        <f t="shared" si="105"/>
+        <v>0.97354497354497349</v>
+      </c>
+      <c r="N576" s="37">
+        <f t="shared" si="105"/>
+        <v>0.62257495590828926</v>
+      </c>
+      <c r="O576" s="37">
+        <f t="shared" si="105"/>
+        <v>0.97354497354497349</v>
+      </c>
+      <c r="P576" s="37">
+        <f t="shared" si="105"/>
+        <v>0.7707231040564374</v>
+      </c>
+      <c r="Q576" s="37">
+        <f t="shared" si="105"/>
+        <v>0.86780383795309168</v>
+      </c>
+      <c r="R576" s="37">
+        <f t="shared" si="105"/>
+        <v>0.43283582089552236</v>
+      </c>
+      <c r="S576" s="37">
+        <f t="shared" si="105"/>
+        <v>0.89770723104056438</v>
+      </c>
+      <c r="T576" s="37">
+        <f t="shared" si="105"/>
+        <v>0.65608465608465605</v>
+      </c>
+    </row>
+    <row r="577" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B577" s="22" t="s">
         <v>491</v>
       </c>
-      <c r="C577" s="31">
+      <c r="C577" s="32">
         <f>(2*C572)/((2*C572)+C574+C573)</f>
         <v>0.61562021439509951</v>
       </c>
-      <c r="D577" s="31">
+      <c r="D577" s="32">
         <f>(2*D572)/((2*D572)+D574+D573)</f>
-        <v>0.89008042895442363</v>
-      </c>
-      <c r="E577" s="31">
-        <f t="shared" ref="D577:I577" si="95">(2*E572)/((2*E572)+E574+E573)</f>
+        <v>0.85523385300668153</v>
+      </c>
+      <c r="E577" s="32">
+        <f t="shared" ref="D577:I577" si="106">(2*E572)/((2*E572)+E574+E573)</f>
         <v>0.73628318584070795</v>
       </c>
-      <c r="F577" s="31">
-        <f t="shared" si="95"/>
+      <c r="F577" s="32">
+        <f t="shared" si="106"/>
         <v>0.71111111111111114</v>
       </c>
-      <c r="G577" s="31">
-        <f t="shared" si="95"/>
+      <c r="G577" s="32">
+        <f t="shared" si="106"/>
         <v>0.1</v>
       </c>
-      <c r="H577" s="31">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
-      <c r="I577" s="32">
-        <f t="shared" si="95"/>
-        <v>3.4313725490196081E-2</v>
-      </c>
-    </row>
-    <row r="578" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B578" s="16"/>
-      <c r="C578" s="16"/>
-      <c r="D578" s="16"/>
-      <c r="E578" s="16"/>
-      <c r="F578" s="16"/>
-      <c r="G578" s="16"/>
-      <c r="H578" s="16"/>
-      <c r="I578" s="16"/>
-    </row>
-    <row r="579" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B579" s="17" t="s">
+      <c r="H577" s="32">
+        <f t="shared" si="106"/>
+        <v>0.38054968287526425</v>
+      </c>
+      <c r="I577" s="33">
+        <f t="shared" si="106"/>
+        <v>0.28615863141524106</v>
+      </c>
+      <c r="J577" s="37"/>
+      <c r="K577" s="37">
+        <f t="shared" ref="J577:T577" si="107">(2*K572)/((2*K572)+K574+K573)</f>
+        <v>0.71361502347417838</v>
+      </c>
+      <c r="L577" s="37">
+        <f t="shared" si="107"/>
+        <v>0.19143576826196473</v>
+      </c>
+      <c r="M577" s="37">
+        <f t="shared" si="107"/>
+        <v>0.70006341154090046</v>
+      </c>
+      <c r="N577" s="37">
+        <f t="shared" si="107"/>
+        <v>0.7673913043478261</v>
+      </c>
+      <c r="O577" s="37">
+        <f t="shared" si="107"/>
+        <v>0.70006341154090046</v>
+      </c>
+      <c r="P577" s="37">
+        <f t="shared" si="107"/>
+        <v>0.87051792828685259</v>
+      </c>
+      <c r="Q577" s="37">
+        <f t="shared" si="107"/>
+        <v>0.61995430312262001</v>
+      </c>
+      <c r="R577" s="37">
+        <f t="shared" si="107"/>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="S577" s="37">
+        <f t="shared" si="107"/>
+        <v>0.91711711711711708</v>
+      </c>
+      <c r="T577" s="37">
+        <f t="shared" si="107"/>
+        <v>0.792332268370607</v>
+      </c>
+    </row>
+    <row r="578" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B578" s="17"/>
+      <c r="C578" s="17"/>
+      <c r="D578" s="17"/>
+      <c r="E578" s="17"/>
+      <c r="F578" s="17"/>
+      <c r="G578" s="17"/>
+      <c r="H578" s="17"/>
+      <c r="I578" s="17"/>
+      <c r="K578" s="11"/>
+      <c r="L578" s="11"/>
+      <c r="M578" s="11"/>
+      <c r="N578" s="11"/>
+      <c r="O578" s="11"/>
+      <c r="P578" s="11"/>
+      <c r="Q578" s="11"/>
+      <c r="R578" s="11"/>
+      <c r="S578" s="11"/>
+      <c r="T578" s="11"/>
+    </row>
+    <row r="579" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B579" s="18" t="s">
         <v>487</v>
       </c>
       <c r="C579" s="1">
@@ -35823,50 +36043,50 @@
         <v>27</v>
       </c>
       <c r="H579" s="1"/>
-      <c r="I579" s="23"/>
-      <c r="K579">
-        <f>COUNTIF(K3:K569, "FN")</f>
-        <v>14</v>
-      </c>
-      <c r="L579">
-        <f t="shared" ref="L579:S579" si="96">COUNTIF(L3:L569, "FN")</f>
-        <v>543</v>
-      </c>
-      <c r="M579">
-        <f t="shared" si="96"/>
-        <v>15</v>
-      </c>
-      <c r="N579">
-        <f t="shared" si="96"/>
-        <v>214</v>
-      </c>
-      <c r="O579">
-        <f t="shared" si="96"/>
-        <v>15</v>
-      </c>
-      <c r="P579">
-        <f t="shared" si="96"/>
-        <v>130</v>
-      </c>
-      <c r="Q579">
-        <f t="shared" si="96"/>
-        <v>62</v>
-      </c>
-      <c r="R579">
-        <f t="shared" si="96"/>
-        <v>266</v>
-      </c>
-      <c r="S579">
-        <f t="shared" si="96"/>
-        <v>58</v>
-      </c>
-      <c r="T579">
-        <f>COUNTIF(T3:T569, "FN")</f>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="580" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B580" s="18" t="s">
+      <c r="I579" s="24"/>
+      <c r="K579" s="14">
+        <f>COUNTIF(K3:K7, "TP") + COUNTIF(K14:K30, "TP") + COUNTIF(K73:K87, "TP") + COUNTIF(K122:K129, "TP") + COUNTIF(K142:K148, "TP") + COUNTIF(K162:K173, "TP") + COUNTIF(K203:K217, "TP") + COUNTIF(K252:K268, "TP") + COUNTIF(K306:K313, "TP") + COUNTIF(K327:K331, "TP") + COUNTIF(K338:K348, "TP") + COUNTIF(K375:K385, "TP") + COUNTIF(K404:K413, "TP") + COUNTIF(K443:K453, "TP") + COUNTIF(K478:K489, "TP") + COUNTIF(K518:K526, "TP") + COUNTIF(K545:K553, "TP")</f>
+        <v>179</v>
+      </c>
+      <c r="L579" s="14">
+        <f t="shared" ref="L579:T579" si="108">COUNTIF(L3:L7, "TP") + COUNTIF(L14:L30, "TP") + COUNTIF(L73:L87, "TP") + COUNTIF(L122:L129, "TP") + COUNTIF(L142:L148, "TP") + COUNTIF(L162:L173, "TP") + COUNTIF(L203:L217, "TP") + COUNTIF(L252:L268, "TP") + COUNTIF(L306:L313, "TP") + COUNTIF(L327:L331, "TP") + COUNTIF(L338:L348, "TP") + COUNTIF(L375:L385, "TP") + COUNTIF(L404:L413, "TP") + COUNTIF(L443:L453, "TP") + COUNTIF(L478:L489, "TP") + COUNTIF(L518:L526, "TP") + COUNTIF(L545:L553, "TP")</f>
+        <v>24</v>
+      </c>
+      <c r="M579" s="14">
+        <f t="shared" si="108"/>
+        <v>179</v>
+      </c>
+      <c r="N579" s="14">
+        <f t="shared" si="108"/>
+        <v>145</v>
+      </c>
+      <c r="O579" s="14">
+        <f t="shared" si="108"/>
+        <v>179</v>
+      </c>
+      <c r="P579" s="14">
+        <f t="shared" si="108"/>
+        <v>158</v>
+      </c>
+      <c r="Q579" s="14">
+        <f t="shared" si="108"/>
+        <v>125</v>
+      </c>
+      <c r="R579" s="14">
+        <f t="shared" si="108"/>
+        <v>82</v>
+      </c>
+      <c r="S579" s="14">
+        <f t="shared" si="108"/>
+        <v>178</v>
+      </c>
+      <c r="T579" s="14">
+        <f t="shared" si="108"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="580" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B580" s="19" t="s">
         <v>484</v>
       </c>
       <c r="C580" s="1">
@@ -35890,122 +36110,325 @@
         <v>155</v>
       </c>
       <c r="H580" s="1"/>
-      <c r="I580" s="24"/>
-    </row>
-    <row r="581" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B581" s="19" t="s">
+      <c r="I580" s="25"/>
+      <c r="K580" s="14">
+        <f>COUNTIF(K3:K7, "FN") + COUNTIF(K14:K30, "FN") + COUNTIF(K73:K87, "FN") + COUNTIF(K122:K129, "FN") + COUNTIF(K142:K148, "FN") + COUNTIF(K162:K173, "FN") + COUNTIF(K203:K217, "FN") + COUNTIF(K252:K268, "FN") + COUNTIF(K306:K313, "FN") + COUNTIF(K327:K331, "FN") + COUNTIF(K338:K348, "FN") + COUNTIF(K375:K385, "FN") + COUNTIF(K404:K413, "FN") + COUNTIF(K443:K453, "FN") + COUNTIF(K478:K489, "FN") + COUNTIF(K518:K526, "FN") + COUNTIF(K545:K553, "FN")</f>
+        <v>3</v>
+      </c>
+      <c r="L580" s="14">
+        <f t="shared" ref="L580:T580" si="109">COUNTIF(L3:L7, "FN") + COUNTIF(L14:L30, "FN") + COUNTIF(L73:L87, "FN") + COUNTIF(L122:L129, "FN") + COUNTIF(L142:L148, "FN") + COUNTIF(L162:L173, "FN") + COUNTIF(L203:L217, "FN") + COUNTIF(L252:L268, "FN") + COUNTIF(L306:L313, "FN") + COUNTIF(L327:L331, "FN") + COUNTIF(L338:L348, "FN") + COUNTIF(L375:L385, "FN") + COUNTIF(L404:L413, "FN") + COUNTIF(L443:L453, "FN") + COUNTIF(L478:L489, "FN") + COUNTIF(L518:L526, "FN") + COUNTIF(L545:L553, "FN")</f>
+        <v>158</v>
+      </c>
+      <c r="M580" s="14">
+        <f t="shared" si="109"/>
+        <v>3</v>
+      </c>
+      <c r="N580" s="14">
+        <f t="shared" si="109"/>
+        <v>37</v>
+      </c>
+      <c r="O580" s="14">
+        <f t="shared" si="109"/>
+        <v>3</v>
+      </c>
+      <c r="P580" s="14">
+        <f t="shared" si="109"/>
+        <v>24</v>
+      </c>
+      <c r="Q580" s="14">
+        <f t="shared" si="109"/>
+        <v>19</v>
+      </c>
+      <c r="R580" s="14">
+        <f t="shared" si="109"/>
+        <v>62</v>
+      </c>
+      <c r="S580" s="14">
+        <f t="shared" si="109"/>
+        <v>4</v>
+      </c>
+      <c r="T580" s="14">
+        <f t="shared" si="109"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="581" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B581" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="C581" s="14">
+      <c r="C581" s="15">
         <v>41</v>
       </c>
-      <c r="D581" s="14">
+      <c r="D581" s="15">
         <v>5</v>
       </c>
-      <c r="E581" s="14">
+      <c r="E581" s="15">
         <v>0</v>
       </c>
-      <c r="F581" s="14">
+      <c r="F581" s="15">
         <v>1</v>
       </c>
-      <c r="G581" s="14">
+      <c r="G581" s="15">
         <v>21</v>
       </c>
-      <c r="H581" s="14"/>
-      <c r="I581" s="25"/>
-    </row>
-    <row r="582" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B582" s="18" t="s">
+      <c r="H581" s="15"/>
+      <c r="I581" s="26"/>
+      <c r="K581" s="11">
+        <v>68</v>
+      </c>
+      <c r="L581" s="11">
+        <v>0</v>
+      </c>
+      <c r="M581" s="11">
+        <v>46</v>
+      </c>
+      <c r="N581" s="11">
+        <v>0</v>
+      </c>
+      <c r="O581" s="7">
+        <v>46</v>
+      </c>
+      <c r="P581" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q581" s="7">
+        <v>41</v>
+      </c>
+      <c r="R581" s="11">
+        <v>0</v>
+      </c>
+      <c r="S581" s="7">
+        <v>5</v>
+      </c>
+      <c r="T581" s="11">
+        <v>0</v>
+      </c>
+      <c r="V581" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="582" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B582" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="C582" s="28">
+      <c r="C582" s="29">
         <f>C579/(C579+C581)</f>
         <v>0.75</v>
       </c>
-      <c r="D582" s="28">
-        <f t="shared" ref="D582:G582" si="97">D579/(D579+D581)</f>
+      <c r="D582" s="29">
+        <f t="shared" ref="D582:G582" si="110">D579/(D579+D581)</f>
         <v>0.97267759562841527</v>
       </c>
-      <c r="E582" s="28">
-        <f t="shared" si="97"/>
+      <c r="E582" s="29">
+        <f t="shared" si="110"/>
         <v>1</v>
       </c>
-      <c r="F582" s="28">
-        <f t="shared" si="97"/>
+      <c r="F582" s="29">
+        <f t="shared" si="110"/>
         <v>0.96969696969696972</v>
       </c>
-      <c r="G582" s="28">
-        <f t="shared" si="97"/>
+      <c r="G582" s="29">
+        <f t="shared" si="110"/>
         <v>0.5625</v>
       </c>
-      <c r="H582" s="13"/>
-      <c r="I582" s="24"/>
-    </row>
-    <row r="583" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B583" s="18" t="s">
+      <c r="H582" s="14"/>
+      <c r="I582" s="25"/>
+      <c r="K582" s="37">
+        <f t="shared" ref="K582" si="111">K579/(K579+K581)</f>
+        <v>0.7246963562753036</v>
+      </c>
+      <c r="L582" s="37">
+        <f t="shared" ref="L582" si="112">L579/(L579+L581)</f>
+        <v>1</v>
+      </c>
+      <c r="M582" s="37">
+        <f t="shared" ref="M582" si="113">M579/(M579+M581)</f>
+        <v>0.79555555555555557</v>
+      </c>
+      <c r="N582" s="37">
+        <f t="shared" ref="N582" si="114">N579/(N579+N581)</f>
+        <v>1</v>
+      </c>
+      <c r="O582" s="37">
+        <f t="shared" ref="O582" si="115">O579/(O579+O581)</f>
+        <v>0.79555555555555557</v>
+      </c>
+      <c r="P582" s="37">
+        <f t="shared" ref="P582" si="116">P579/(P579+P581)</f>
+        <v>1</v>
+      </c>
+      <c r="Q582" s="37">
+        <f t="shared" ref="Q582" si="117">Q579/(Q579+Q581)</f>
+        <v>0.75301204819277112</v>
+      </c>
+      <c r="R582" s="37">
+        <f t="shared" ref="R582" si="118">R579/(R579+R581)</f>
+        <v>1</v>
+      </c>
+      <c r="S582" s="37">
+        <f t="shared" ref="S582" si="119">S579/(S579+S581)</f>
+        <v>0.97267759562841527</v>
+      </c>
+      <c r="T582" s="37">
+        <f t="shared" ref="T582" si="120">T579/(T579+T581)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B583" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="C583" s="28">
+      <c r="C583" s="29">
         <f>C579/(C579+C580)</f>
         <v>0.85416666666666663</v>
       </c>
-      <c r="D583" s="28">
-        <f t="shared" ref="D583:I583" si="98">D579/(D579+D580)</f>
+      <c r="D583" s="29">
+        <f t="shared" ref="D583:I583" si="121">D579/(D579+D580)</f>
         <v>0.97802197802197799</v>
       </c>
-      <c r="E583" s="28">
-        <f t="shared" si="98"/>
+      <c r="E583" s="29">
+        <f t="shared" si="121"/>
         <v>0.76363636363636367</v>
       </c>
-      <c r="F583" s="28">
-        <f t="shared" si="98"/>
+      <c r="F583" s="29">
+        <f t="shared" si="121"/>
         <v>0.56140350877192979</v>
       </c>
-      <c r="G583" s="28">
+      <c r="G583" s="29">
         <f>G579/(G579+G580)</f>
         <v>0.14835164835164835</v>
       </c>
       <c r="I583" s="5"/>
-    </row>
-    <row r="584" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B584" s="22" t="s">
+      <c r="K583" s="37">
+        <f>K579/(K579+K580)</f>
+        <v>0.98351648351648346</v>
+      </c>
+      <c r="L583" s="37">
+        <f>L579/(L579+L580)</f>
+        <v>0.13186813186813187</v>
+      </c>
+      <c r="M583" s="37">
+        <f t="shared" ref="L583:T583" si="122">M579/(M579+M580)</f>
+        <v>0.98351648351648346</v>
+      </c>
+      <c r="N583" s="37">
+        <f t="shared" si="122"/>
+        <v>0.79670329670329665</v>
+      </c>
+      <c r="O583" s="37">
+        <f t="shared" si="122"/>
+        <v>0.98351648351648346</v>
+      </c>
+      <c r="P583" s="37">
+        <f t="shared" si="122"/>
+        <v>0.86813186813186816</v>
+      </c>
+      <c r="Q583" s="37">
+        <f t="shared" si="122"/>
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="R583" s="37">
+        <f t="shared" si="122"/>
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="S583" s="37">
+        <f t="shared" si="122"/>
+        <v>0.97802197802197799</v>
+      </c>
+      <c r="T583" s="37">
+        <f t="shared" si="122"/>
+        <v>0.84065934065934067</v>
+      </c>
+    </row>
+    <row r="584" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B584" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="C584" s="31">
+      <c r="C584" s="32">
         <f>(2*C579)/((2*C579)+C581+C580)</f>
         <v>0.79870129870129869</v>
       </c>
-      <c r="D584" s="31">
-        <f t="shared" ref="D584:G584" si="99">(2*D579)/((2*D579)+D581+D580)</f>
+      <c r="D584" s="32">
+        <f t="shared" ref="D584:G584" si="123">(2*D579)/((2*D579)+D581+D580)</f>
         <v>0.97534246575342465</v>
       </c>
-      <c r="E584" s="31">
-        <f t="shared" si="99"/>
+      <c r="E584" s="32">
+        <f t="shared" si="123"/>
         <v>0.865979381443299</v>
       </c>
-      <c r="F584" s="31">
-        <f t="shared" si="99"/>
+      <c r="F584" s="32">
+        <f t="shared" si="123"/>
         <v>0.71111111111111114</v>
       </c>
-      <c r="G584" s="31">
-        <f t="shared" si="99"/>
+      <c r="G584" s="32">
+        <f t="shared" si="123"/>
         <v>0.23478260869565218</v>
       </c>
-      <c r="H584" s="15"/>
-      <c r="I584" s="26"/>
-    </row>
-    <row r="585" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B585" s="16"/>
-      <c r="C585" s="16"/>
-      <c r="D585" s="16"/>
-      <c r="E585" s="16"/>
-      <c r="F585" s="16"/>
-      <c r="G585" s="16"/>
-      <c r="H585" s="16"/>
-      <c r="I585" s="16"/>
-    </row>
-    <row r="586" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B586" s="17" t="s">
+      <c r="H584" s="16"/>
+      <c r="I584" s="27"/>
+      <c r="K584" s="37">
+        <f t="shared" ref="K584:T584" si="124">(2*K579)/((2*K579)+K581+K580)</f>
+        <v>0.83449883449883455</v>
+      </c>
+      <c r="L584" s="37">
+        <f t="shared" si="124"/>
+        <v>0.23300970873786409</v>
+      </c>
+      <c r="M584" s="37">
+        <f>(2*M579)/((2*M579)+M581+M580)</f>
+        <v>0.87960687960687955</v>
+      </c>
+      <c r="N584" s="37">
+        <f t="shared" si="124"/>
+        <v>0.88685015290519875</v>
+      </c>
+      <c r="O584" s="37">
+        <f t="shared" si="124"/>
+        <v>0.87960687960687955</v>
+      </c>
+      <c r="P584" s="37">
+        <f t="shared" si="124"/>
+        <v>0.92941176470588238</v>
+      </c>
+      <c r="Q584" s="37">
+        <f t="shared" si="124"/>
+        <v>0.80645161290322576</v>
+      </c>
+      <c r="R584" s="37">
+        <f t="shared" si="124"/>
+        <v>0.72566371681415931</v>
+      </c>
+      <c r="S584" s="37">
+        <f t="shared" si="124"/>
+        <v>0.97534246575342465</v>
+      </c>
+      <c r="T584" s="37">
+        <f t="shared" si="124"/>
+        <v>0.91343283582089552</v>
+      </c>
+    </row>
+    <row r="585" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B585" s="17"/>
+      <c r="C585" s="17"/>
+      <c r="D585" s="17"/>
+      <c r="E585" s="17"/>
+      <c r="F585" s="17"/>
+      <c r="G585" s="17"/>
+      <c r="H585" s="17"/>
+      <c r="I585" s="17"/>
+      <c r="K585" s="11"/>
+      <c r="L585" s="11"/>
+      <c r="M585" s="11"/>
+      <c r="N585" s="11"/>
+      <c r="O585" s="11"/>
+      <c r="P585" s="11"/>
+      <c r="Q585" s="11"/>
+      <c r="R585" s="11"/>
+      <c r="S585" s="11"/>
+      <c r="T585" s="11"/>
+    </row>
+    <row r="586" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B586" s="18" t="s">
         <v>488</v>
       </c>
       <c r="C586" s="1">
@@ -36026,13 +36449,53 @@
         <v>4</v>
       </c>
       <c r="H586" s="1"/>
-      <c r="I586" s="23">
+      <c r="I586" s="24">
         <f>COUNTIF(I554:I569, " TP") + COUNTIF(I527:I544, " TP") + COUNTIF(I490:I517, " TP") + COUNTIF(I454:I477, " TP") + COUNTIF(I414:I442, " TP") + COUNTIF(I386:I403, " TP") + COUNTIF(I349:I374, " TP") + COUNTIF(I332:I337, " TP") + COUNTIF(I314:I326, " TP") + COUNTIF(I269:I305, " TP") + COUNTIF(I218:I251, " TP") + COUNTIF(I174:I202, " TP") + COUNTIF(I149:I161, " TP") + COUNTIF(I130:I141, " TP") + COUNTIF(I88:I121, " TP") + COUNTIF(I31:I72, " TP") + COUNTIF(I8:I13, " TP")</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="587" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B587" s="18" t="s">
+      <c r="K586" s="1">
+        <f>COUNTIF(K554:K569, "TP") + COUNTIF(K527:K544, "TP") + COUNTIF(K490:K517, "TP") + COUNTIF(K454:K477, "TP") + COUNTIF(K414:K442, "TP") + COUNTIF(K386:K403, "TP") + COUNTIF(K349:K374, "TP") + COUNTIF(K332:K337, "TP") + COUNTIF(K314:K326, "TP") + COUNTIF(K269:K305, "TP") + COUNTIF(K218:K251, "TP") + COUNTIF(K174:K202, "TP") + COUNTIF(K149:K161, "TP") + COUNTIF(K130:K141, "TP") + COUNTIF(K88:K121, "TP") + COUNTIF(K31:K72, "TP") + COUNTIF(K8:K13, "TP")</f>
+        <v>374</v>
+      </c>
+      <c r="L586" s="1">
+        <f t="shared" ref="L586:T586" si="125">COUNTIF(L554:L569, "TP") + COUNTIF(L527:L544, "TP") + COUNTIF(L490:L517, "TP") + COUNTIF(L454:L477, "TP") + COUNTIF(L414:L442, "TP") + COUNTIF(L386:L403, "TP") + COUNTIF(L349:L374, "TP") + COUNTIF(L332:L337, "TP") + COUNTIF(L314:L326, "TP") + COUNTIF(L269:L305, "TP") + COUNTIF(L218:L251, "TP") + COUNTIF(L174:L202, "TP") + COUNTIF(L149:L161, "TP") + COUNTIF(L130:L141, "TP") + COUNTIF(L88:L121, "TP") + COUNTIF(L31:L72, "TP") + COUNTIF(L8:L13, "TP")</f>
+        <v>0</v>
+      </c>
+      <c r="M586" s="1">
+        <f t="shared" si="125"/>
+        <v>373</v>
+      </c>
+      <c r="N586" s="1">
+        <f t="shared" si="125"/>
+        <v>208</v>
+      </c>
+      <c r="O586" s="1">
+        <f t="shared" si="125"/>
+        <v>373</v>
+      </c>
+      <c r="P586" s="1">
+        <f t="shared" si="125"/>
+        <v>279</v>
+      </c>
+      <c r="Q586" s="1">
+        <f t="shared" si="125"/>
+        <v>282</v>
+      </c>
+      <c r="R586" s="1">
+        <f t="shared" si="125"/>
+        <v>121</v>
+      </c>
+      <c r="S586" s="1">
+        <f t="shared" si="125"/>
+        <v>331</v>
+      </c>
+      <c r="T586" s="1">
+        <f t="shared" si="125"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="587" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B587" s="19" t="s">
         <v>485</v>
       </c>
       <c r="C587" s="1">
@@ -36056,121 +36519,324 @@
         <f>COUNTIF(H554:H569, " FN") + COUNTIF(H527:H544, " FN") + COUNTIF(H490:H517, " FN") + COUNTIF(H454:H477, " FN") + COUNTIF(H414:H442, " FN") + COUNTIF(H386:H403, " FN") + COUNTIF(H349:H374, " FN") + COUNTIF(H332:H337, " FN") + COUNTIF(H314:H326, " FN") + COUNTIF(H269:H305, " FN") + COUNTIF(H218:H251, " FN") + COUNTIF(H174:H202, " FN") + COUNTIF(H149:H161, " FN") + COUNTIF(H130:H141, " FN") + COUNTIF(H88:H121, " FN") + COUNTIF(H31:H72, " FN") + COUNTIF(H8:H13, " FN")</f>
         <v>259</v>
       </c>
-      <c r="I587" s="24">
+      <c r="I587" s="25">
         <f>COUNTIF(I554:I569, " FN") + COUNTIF(I527:I544, " FN") + COUNTIF(I490:I517, " FN") + COUNTIF(I454:I477, " FN") + COUNTIF(I414:I442, " FN") + COUNTIF(I386:I403, " FN") + COUNTIF(I349:I374, " FN") + COUNTIF(I332:I337, " FN") + COUNTIF(I314:I326, " FN") + COUNTIF(I269:I305, " FN") + COUNTIF(I218:I251, " FN") + COUNTIF(I174:I202, " FN") + COUNTIF(I149:I161, " FN") + COUNTIF(I130:I141, " FN") + COUNTIF(I88:I121, " FN") + COUNTIF(I31:I72, " FN") + COUNTIF(I8:I13, " FN")</f>
         <v>378</v>
       </c>
-    </row>
-    <row r="588" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B588" s="19" t="s">
+      <c r="K587" s="1">
+        <f>COUNTIF(K554:K569, "FN") + COUNTIF(K527:K544, "FN") + COUNTIF(K490:K517, "FN") + COUNTIF(K454:K477, "FN") + COUNTIF(K414:K442, "FN") + COUNTIF(K386:K403, "FN") + COUNTIF(K349:K374, "FN") + COUNTIF(K332:K337, "FN") + COUNTIF(K314:K326, "FN") + COUNTIF(K269:K305, "FN") + COUNTIF(K218:K251, "FN") + COUNTIF(K174:K202, "FN") + COUNTIF(K149:K161, "FN") + COUNTIF(K130:K141, "FN") + COUNTIF(K88:K121, "FN") + COUNTIF(K31:K72, "FN") + COUNTIF(K8:K13, "FN")</f>
+        <v>11</v>
+      </c>
+      <c r="L587" s="1">
+        <f t="shared" ref="L587:T587" si="126">COUNTIF(L554:L569, "FN") + COUNTIF(L527:L544, "FN") + COUNTIF(L490:L517, "FN") + COUNTIF(L454:L477, "FN") + COUNTIF(L414:L442, "FN") + COUNTIF(L386:L403, "FN") + COUNTIF(L349:L374, "FN") + COUNTIF(L332:L337, "FN") + COUNTIF(L314:L326, "FN") + COUNTIF(L269:L305, "FN") + COUNTIF(L218:L251, "FN") + COUNTIF(L174:L202, "FN") + COUNTIF(L149:L161, "FN") + COUNTIF(L130:L141, "FN") + COUNTIF(L88:L121, "FN") + COUNTIF(L31:L72, "FN") + COUNTIF(L8:L13, "FN")</f>
+        <v>385</v>
+      </c>
+      <c r="M587" s="1">
+        <f t="shared" si="126"/>
+        <v>12</v>
+      </c>
+      <c r="N587" s="1">
+        <f t="shared" si="126"/>
+        <v>177</v>
+      </c>
+      <c r="O587" s="1">
+        <f t="shared" si="126"/>
+        <v>12</v>
+      </c>
+      <c r="P587" s="1">
+        <f t="shared" si="126"/>
+        <v>106</v>
+      </c>
+      <c r="Q587" s="1">
+        <f t="shared" si="126"/>
+        <v>43</v>
+      </c>
+      <c r="R587" s="1">
+        <f t="shared" si="126"/>
+        <v>204</v>
+      </c>
+      <c r="S587" s="1">
+        <f t="shared" si="126"/>
+        <v>54</v>
+      </c>
+      <c r="T587" s="1">
+        <f t="shared" si="126"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="588" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B588" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="C588" s="14">
+      <c r="C588" s="15">
         <v>395</v>
       </c>
-      <c r="D588" s="14">
+      <c r="D588" s="15">
         <v>27</v>
       </c>
-      <c r="E588" s="14">
-        <v>2</v>
-      </c>
-      <c r="F588" s="14"/>
-      <c r="G588" s="14">
+      <c r="E588" s="15">
+        <v>2</v>
+      </c>
+      <c r="F588" s="15"/>
+      <c r="G588" s="15">
         <v>1</v>
       </c>
-      <c r="H588" s="14"/>
-      <c r="I588" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="589" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B589" s="20" t="s">
+      <c r="H588" s="15"/>
+      <c r="I588" s="26">
+        <v>2</v>
+      </c>
+      <c r="K588" s="11">
+        <v>415</v>
+      </c>
+      <c r="L588" s="11">
+        <v>0</v>
+      </c>
+      <c r="M588" s="7">
+        <v>412</v>
+      </c>
+      <c r="N588" s="11">
+        <v>0</v>
+      </c>
+      <c r="O588" s="7">
+        <v>412</v>
+      </c>
+      <c r="P588" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q588" s="7">
+        <v>396</v>
+      </c>
+      <c r="R588" s="11">
+        <v>0</v>
+      </c>
+      <c r="S588" s="7">
+        <v>29</v>
+      </c>
+      <c r="T588" s="11">
+        <v>0</v>
+      </c>
+      <c r="V588" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="589" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B589" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="C589" s="28">
+      <c r="C589" s="29">
         <f>C586/(C586+C588)</f>
         <v>0.41394658753709201</v>
       </c>
-      <c r="D589" s="28">
-        <f t="shared" ref="D589:I589" si="100">D586/(D586+D588)</f>
+      <c r="D589" s="29">
+        <f t="shared" ref="D589:K589" si="127">D586/(D586+D588)</f>
         <v>0.9221902017291066</v>
       </c>
-      <c r="E589" s="28">
-        <f t="shared" si="100"/>
+      <c r="E589" s="29">
+        <f t="shared" si="127"/>
         <v>0.98412698412698407</v>
       </c>
-      <c r="F589" s="28">
+      <c r="F589" s="29">
         <v>0</v>
       </c>
-      <c r="G589" s="28">
-        <f t="shared" si="100"/>
+      <c r="G589" s="29">
+        <f t="shared" si="127"/>
         <v>0.8</v>
       </c>
-      <c r="I589" s="27"/>
-    </row>
-    <row r="590" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B590" s="20" t="s">
+      <c r="I589" s="28"/>
+      <c r="K589" s="37">
+        <f t="shared" si="127"/>
+        <v>0.47401774397972118</v>
+      </c>
+      <c r="L589" s="37" t="e">
+        <f t="shared" ref="L589" si="128">L586/(L586+L588)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M589" s="37">
+        <f t="shared" ref="M589" si="129">M586/(M586+M588)</f>
+        <v>0.47515923566878981</v>
+      </c>
+      <c r="N589" s="37">
+        <f t="shared" ref="N589" si="130">N586/(N586+N588)</f>
+        <v>1</v>
+      </c>
+      <c r="O589" s="37">
+        <f t="shared" ref="O589" si="131">O586/(O586+O588)</f>
+        <v>0.47515923566878981</v>
+      </c>
+      <c r="P589" s="37">
+        <f t="shared" ref="P589" si="132">P586/(P586+P588)</f>
+        <v>1</v>
+      </c>
+      <c r="Q589" s="37">
+        <f t="shared" ref="Q589" si="133">Q586/(Q586+Q588)</f>
+        <v>0.41592920353982299</v>
+      </c>
+      <c r="R589" s="37">
+        <f t="shared" ref="R589" si="134">R586/(R586+R588)</f>
+        <v>1</v>
+      </c>
+      <c r="S589" s="37">
+        <f t="shared" ref="S589" si="135">S586/(S586+S588)</f>
+        <v>0.9194444444444444</v>
+      </c>
+      <c r="T589" s="37">
+        <f t="shared" ref="T589" si="136">T586/(T586+T588)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B590" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="C590" s="28">
+      <c r="C590" s="29">
         <f>C586/(C586+C587)</f>
         <v>0.86111111111111116</v>
       </c>
-      <c r="D590" s="28">
-        <f t="shared" ref="D590:I590" si="101">D586/(D586+D587)</f>
+      <c r="D590" s="29">
+        <f t="shared" ref="D590:K590" si="137">D586/(D586+D587)</f>
         <v>0.83116883116883122</v>
       </c>
-      <c r="E590" s="28">
-        <f t="shared" si="101"/>
+      <c r="E590" s="29">
+        <f t="shared" si="137"/>
         <v>0.5061224489795918</v>
       </c>
-      <c r="F590" s="28">
+      <c r="F590" s="29">
         <v>0</v>
       </c>
-      <c r="G590" s="28">
-        <f t="shared" si="101"/>
+      <c r="G590" s="29">
+        <f t="shared" si="137"/>
         <v>1.038961038961039E-2</v>
       </c>
       <c r="I590" s="5"/>
-    </row>
-    <row r="591" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B591" s="21" t="s">
+      <c r="K590" s="37">
+        <f t="shared" si="137"/>
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="L590" s="37">
+        <f t="shared" ref="L590:T590" si="138">L586/(L586+L587)</f>
+        <v>0</v>
+      </c>
+      <c r="M590" s="37">
+        <f t="shared" si="138"/>
+        <v>0.96883116883116882</v>
+      </c>
+      <c r="N590" s="37">
+        <f t="shared" si="138"/>
+        <v>0.54025974025974022</v>
+      </c>
+      <c r="O590" s="37">
+        <f t="shared" si="138"/>
+        <v>0.96883116883116882</v>
+      </c>
+      <c r="P590" s="37">
+        <f t="shared" si="138"/>
+        <v>0.72467532467532469</v>
+      </c>
+      <c r="Q590" s="37">
+        <f t="shared" si="138"/>
+        <v>0.86769230769230765</v>
+      </c>
+      <c r="R590" s="37">
+        <f t="shared" si="138"/>
+        <v>0.37230769230769228</v>
+      </c>
+      <c r="S590" s="37">
+        <f t="shared" si="138"/>
+        <v>0.85974025974025969</v>
+      </c>
+      <c r="T590" s="37">
+        <f t="shared" si="138"/>
+        <v>0.5688311688311688</v>
+      </c>
+    </row>
+    <row r="591" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B591" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="C591" s="31">
+      <c r="C591" s="32">
         <f>(2*C586)/((2*C586)+C588+C587)</f>
         <v>0.5591182364729459</v>
       </c>
-      <c r="D591" s="31">
-        <f t="shared" ref="D591:I591" si="102">(2*D586)/((2*D586)+D588+D587)</f>
+      <c r="D591" s="32">
+        <f t="shared" ref="D591:K591" si="139">(2*D586)/((2*D586)+D588+D587)</f>
         <v>0.87431693989071035</v>
       </c>
-      <c r="E591" s="31">
-        <f t="shared" si="102"/>
+      <c r="E591" s="32">
+        <f t="shared" si="139"/>
         <v>0.66846361185983827</v>
       </c>
-      <c r="F591" s="31">
+      <c r="F591" s="32">
         <v>0</v>
       </c>
-      <c r="G591" s="31">
-        <f t="shared" si="102"/>
+      <c r="G591" s="32">
+        <f t="shared" si="139"/>
         <v>2.0512820512820513E-2</v>
       </c>
       <c r="H591" s="3"/>
       <c r="I591" s="6"/>
-    </row>
-    <row r="592" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B592" s="16"/>
-      <c r="C592" s="16"/>
-      <c r="D592" s="16"/>
-      <c r="E592" s="16"/>
-      <c r="F592" s="16"/>
-      <c r="G592" s="16"/>
-      <c r="H592" s="16"/>
-      <c r="I592" s="16"/>
+      <c r="K591" s="37">
+        <f t="shared" si="139"/>
+        <v>0.63713798977853497</v>
+      </c>
+      <c r="L591" s="37">
+        <f t="shared" ref="L591:T591" si="140">(2*L586)/((2*L586)+L588+L587)</f>
+        <v>0</v>
+      </c>
+      <c r="M591" s="37">
+        <f t="shared" si="140"/>
+        <v>0.63760683760683756</v>
+      </c>
+      <c r="N591" s="37">
+        <f t="shared" si="140"/>
+        <v>0.70151770657672852</v>
+      </c>
+      <c r="O591" s="37">
+        <f t="shared" si="140"/>
+        <v>0.63760683760683756</v>
+      </c>
+      <c r="P591" s="37">
+        <f t="shared" si="140"/>
+        <v>0.84036144578313254</v>
+      </c>
+      <c r="Q591" s="37">
+        <f t="shared" si="140"/>
+        <v>0.56231306081754739</v>
+      </c>
+      <c r="R591" s="37">
+        <f t="shared" si="140"/>
+        <v>0.54260089686098656</v>
+      </c>
+      <c r="S591" s="37">
+        <f t="shared" si="140"/>
+        <v>0.88859060402684564</v>
+      </c>
+      <c r="T591" s="37">
+        <f t="shared" si="140"/>
+        <v>0.72516556291390732</v>
+      </c>
+    </row>
+    <row r="592" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B592" s="17"/>
+      <c r="C592" s="17"/>
+      <c r="D592" s="17"/>
+      <c r="E592" s="17"/>
+      <c r="F592" s="17"/>
+      <c r="G592" s="17"/>
+      <c r="H592" s="17"/>
+      <c r="I592" s="17"/>
+      <c r="K592" s="11"/>
+      <c r="L592" s="11"/>
+      <c r="M592" s="11"/>
+      <c r="N592" s="11"/>
+      <c r="O592" s="11"/>
+      <c r="P592" s="11"/>
+      <c r="Q592" s="11"/>
+      <c r="R592" s="11"/>
+      <c r="S592" s="11"/>
+      <c r="T592" s="11"/>
     </row>
     <row r="593" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B593" s="17" t="s">
+      <c r="B593" s="18" t="s">
         <v>489</v>
       </c>
       <c r="C593" s="1"/>
@@ -36183,12 +36849,26 @@
       <c r="H593" s="1">
         <v>90</v>
       </c>
-      <c r="I593" s="23">
-        <v>14</v>
-      </c>
+      <c r="I593" s="24">
+        <v>85</v>
+      </c>
+      <c r="K593" s="7">
+        <v>131</v>
+      </c>
+      <c r="L593" s="7">
+        <v>52</v>
+      </c>
+      <c r="M593" s="11"/>
+      <c r="N593" s="11"/>
+      <c r="O593" s="11"/>
+      <c r="P593" s="11"/>
+      <c r="Q593" s="11"/>
+      <c r="R593" s="11"/>
+      <c r="S593" s="11"/>
+      <c r="T593" s="11"/>
     </row>
     <row r="594" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B594" s="18" t="s">
+      <c r="B594" s="19" t="s">
         <v>486</v>
       </c>
       <c r="C594" s="1"/>
@@ -36201,152 +36881,186 @@
       <c r="H594" s="1">
         <v>32</v>
       </c>
-      <c r="I594" s="24">
-        <v>64</v>
-      </c>
+      <c r="I594" s="25">
+        <v>65</v>
+      </c>
+      <c r="K594" s="7">
+        <v>18</v>
+      </c>
+      <c r="L594" s="7">
+        <v>97</v>
+      </c>
+      <c r="M594" s="11"/>
+      <c r="N594" s="11"/>
+      <c r="O594" s="11"/>
+      <c r="P594" s="11"/>
+      <c r="Q594" s="11"/>
+      <c r="R594" s="11"/>
+      <c r="S594" s="11"/>
+      <c r="T594" s="11"/>
     </row>
     <row r="595" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B595" s="19" t="s">
+      <c r="B595" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="C595" s="14"/>
-      <c r="D595" s="14">
+      <c r="C595" s="15"/>
+      <c r="D595" s="15">
         <v>22</v>
       </c>
-      <c r="E595" s="14"/>
-      <c r="F595" s="14"/>
-      <c r="G595" s="14"/>
-      <c r="H595" s="14">
-        <v>2</v>
-      </c>
-      <c r="I595" s="25">
+      <c r="E595" s="15"/>
+      <c r="F595" s="15"/>
+      <c r="G595" s="15"/>
+      <c r="H595" s="15">
+        <v>2</v>
+      </c>
+      <c r="I595" s="26">
         <v>14</v>
       </c>
+      <c r="K595" s="11">
+        <v>34</v>
+      </c>
+      <c r="L595" s="7">
+        <v>2</v>
+      </c>
+      <c r="M595" s="7"/>
+      <c r="N595" s="7"/>
+      <c r="O595" s="11"/>
+      <c r="P595" s="7"/>
+      <c r="Q595" s="11"/>
+      <c r="R595" s="11"/>
+      <c r="S595" s="11"/>
+      <c r="T595" s="11"/>
     </row>
     <row r="596" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B596" s="18" t="s">
+      <c r="B596" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="C596" s="13"/>
-      <c r="D596" s="28">
+      <c r="C596" s="14"/>
+      <c r="D596" s="29">
         <f>D593/(D593+D595)</f>
         <v>0.78</v>
       </c>
-      <c r="E596" s="28"/>
-      <c r="F596" s="28"/>
-      <c r="G596" s="28"/>
-      <c r="H596" s="28">
-        <f t="shared" ref="E596:I596" si="103">H593/(H593+H595)</f>
+      <c r="E596" s="29"/>
+      <c r="F596" s="29"/>
+      <c r="G596" s="29"/>
+      <c r="H596" s="29">
+        <f t="shared" ref="E596:K596" si="141">H593/(H593+H595)</f>
         <v>0.97826086956521741</v>
       </c>
-      <c r="I596" s="29">
-        <f t="shared" si="103"/>
-        <v>0.5</v>
-      </c>
+      <c r="I596" s="30">
+        <f t="shared" si="141"/>
+        <v>0.85858585858585856</v>
+      </c>
+      <c r="K596" s="37">
+        <f t="shared" si="141"/>
+        <v>0.79393939393939394</v>
+      </c>
+      <c r="L596" s="37">
+        <f t="shared" ref="L596" si="142">L593/(L593+L595)</f>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="M596" s="37"/>
+      <c r="N596" s="37"/>
+      <c r="O596" s="37"/>
+      <c r="P596" s="37"/>
+      <c r="Q596" s="37"/>
+      <c r="R596" s="37"/>
+      <c r="S596" s="37"/>
+      <c r="T596" s="37"/>
     </row>
     <row r="597" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B597" s="18" t="s">
+      <c r="B597" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="C597" s="13"/>
-      <c r="D597" s="28">
+      <c r="C597" s="14"/>
+      <c r="D597" s="29">
         <f>D593/(D593+D594)</f>
         <v>0.52</v>
       </c>
-      <c r="E597" s="28"/>
-      <c r="F597" s="28"/>
-      <c r="G597" s="28"/>
-      <c r="H597" s="28">
-        <f t="shared" ref="E597:I597" si="104">H593/(H593+H594)</f>
+      <c r="E597" s="29"/>
+      <c r="F597" s="29"/>
+      <c r="G597" s="29"/>
+      <c r="H597" s="29">
+        <f t="shared" ref="E597:K597" si="143">H593/(H593+H594)</f>
         <v>0.73770491803278693</v>
       </c>
-      <c r="I597" s="30">
-        <f t="shared" si="104"/>
-        <v>0.17948717948717949</v>
-      </c>
+      <c r="I597" s="31">
+        <f t="shared" si="143"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="K597" s="37">
+        <f t="shared" si="143"/>
+        <v>0.87919463087248317</v>
+      </c>
+      <c r="L597" s="37">
+        <f t="shared" ref="L597:T597" si="144">L593/(L593+L594)</f>
+        <v>0.34899328859060402</v>
+      </c>
+      <c r="M597" s="37"/>
+      <c r="N597" s="37"/>
+      <c r="O597" s="37"/>
+      <c r="P597" s="37"/>
+      <c r="Q597" s="37"/>
+      <c r="R597" s="37"/>
+      <c r="S597" s="37"/>
+      <c r="T597" s="37"/>
     </row>
     <row r="598" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B598" s="22" t="s">
+      <c r="B598" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="C598" s="15"/>
-      <c r="D598" s="31">
+      <c r="C598" s="16"/>
+      <c r="D598" s="32">
         <f>(2*D593)/((2*D593)+D595+D594)</f>
         <v>0.624</v>
       </c>
-      <c r="E598" s="31"/>
-      <c r="F598" s="31"/>
-      <c r="G598" s="31"/>
-      <c r="H598" s="31">
-        <f t="shared" ref="E598:I598" si="105">(2*H593)/((2*H593)+H595+H594)</f>
+      <c r="E598" s="32"/>
+      <c r="F598" s="32"/>
+      <c r="G598" s="32"/>
+      <c r="H598" s="32">
+        <f t="shared" ref="E598:K598" si="145">(2*H593)/((2*H593)+H595+H594)</f>
         <v>0.84112149532710279</v>
       </c>
-      <c r="I598" s="32">
-        <f t="shared" si="105"/>
-        <v>0.26415094339622641</v>
-      </c>
+      <c r="I598" s="33">
+        <f t="shared" si="145"/>
+        <v>0.68273092369477917</v>
+      </c>
+      <c r="K598" s="37">
+        <f t="shared" si="145"/>
+        <v>0.83439490445859876</v>
+      </c>
+      <c r="L598" s="37">
+        <f t="shared" ref="L598:T598" si="146">(2*L593)/((2*L593)+L595+L594)</f>
+        <v>0.51231527093596063</v>
+      </c>
+      <c r="M598" s="37"/>
+      <c r="N598" s="37"/>
+      <c r="O598" s="37"/>
+      <c r="P598" s="37"/>
+      <c r="Q598" s="37"/>
+      <c r="R598" s="37"/>
+      <c r="S598" s="37"/>
+      <c r="T598" s="37"/>
     </row>
     <row r="599" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B599" s="10"/>
-      <c r="C599" s="10"/>
-      <c r="D599" s="10"/>
-      <c r="E599" s="10"/>
-      <c r="F599" s="10"/>
-      <c r="G599" s="10"/>
-      <c r="H599" s="10"/>
-      <c r="I599" s="10"/>
+      <c r="B599" s="11"/>
+      <c r="C599" s="11"/>
+      <c r="D599" s="11"/>
+      <c r="E599" s="11"/>
+      <c r="F599" s="11"/>
+      <c r="G599" s="11"/>
+      <c r="H599" s="11"/>
+      <c r="I599" s="11"/>
     </row>
     <row r="600" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B600" s="10"/>
-      <c r="C600" s="10"/>
-      <c r="D600" s="10"/>
-      <c r="E600" s="10"/>
-      <c r="F600" s="10"/>
-      <c r="G600" s="10"/>
-      <c r="H600" s="10"/>
-      <c r="I600" s="10"/>
-    </row>
-    <row r="602" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="K602">
-        <f>K572/(K572+K579)</f>
-        <v>0.97530864197530864</v>
-      </c>
-      <c r="L602">
-        <f t="shared" ref="L602:T602" si="106">L572/(L572+L579)</f>
-        <v>4.2328042328042326E-2</v>
-      </c>
-      <c r="M602">
-        <f t="shared" si="106"/>
-        <v>0.97354497354497349</v>
-      </c>
-      <c r="N602">
-        <f t="shared" si="106"/>
-        <v>0.62257495590828926</v>
-      </c>
-      <c r="O602">
-        <f t="shared" si="106"/>
-        <v>0.97354497354497349</v>
-      </c>
-      <c r="P602">
-        <f t="shared" si="106"/>
-        <v>0.7707231040564374</v>
-      </c>
-      <c r="Q602">
-        <f t="shared" si="106"/>
-        <v>0.86780383795309168</v>
-      </c>
-      <c r="R602">
-        <f t="shared" si="106"/>
-        <v>0.43283582089552236</v>
-      </c>
-      <c r="S602">
-        <f t="shared" si="106"/>
-        <v>0.89770723104056438</v>
-      </c>
-      <c r="T602">
-        <f t="shared" si="106"/>
-        <v>0.65608465608465605</v>
-      </c>
+      <c r="B600" s="11"/>
+      <c r="C600" s="11"/>
+      <c r="D600" s="11"/>
+      <c r="E600" s="11"/>
+      <c r="F600" s="11"/>
+      <c r="G600" s="11"/>
+      <c r="H600" s="11"/>
+      <c r="I600" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/merged_results/complete_results.xlsx
+++ b/merged_results/complete_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Documents/Own/Papers_and_Projects/comparison_ArchRec_tools/GitHub_SARbenchmarks/merged_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0EEA3F-7E49-4C46-9D66-151C8E236125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C205A821-5FE2-094D-BC68-5835C8899DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{21E6DDBE-06EB-864D-8BE4-57F9A90E46C0}"/>
   </bookViews>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="512">
   <si>
     <t xml:space="preserve"> RAD</t>
   </si>
@@ -1805,7 +1805,19 @@
     <t>RAS</t>
   </si>
   <si>
-    <t>This is done manually (checking each FP for overlaps)</t>
+    <t>RAD</t>
+  </si>
+  <si>
+    <t>All three</t>
+  </si>
+  <si>
+    <t>C2D + RAD</t>
+  </si>
+  <si>
+    <t>C2D + RAS</t>
+  </si>
+  <si>
+    <t>RAD + RAS</t>
   </si>
 </sst>
 </file>
@@ -1843,7 +1855,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1984,11 +1996,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2000,9 +2021,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -2037,6 +2062,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2437,11 +2486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E181CEDB-9761-A944-9A62-062C9F034F3F}">
-  <dimension ref="A1:Y600"/>
+  <dimension ref="A1:Y603"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A573" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M597" sqref="M597"/>
+      <pane ySplit="2" topLeftCell="A580" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J601" sqref="J601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2455,26 +2504,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="L1" s="8"/>
+      <c r="L1" s="9"/>
       <c r="M1" s="2" t="s">
         <v>474</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8" t="s">
+      <c r="R1" s="9"/>
+      <c r="S1" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="T1" s="8"/>
+      <c r="T1" s="9"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
@@ -2484,55 +2533,55 @@
       <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="36" t="s">
         <v>502</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>503</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="36" t="s">
         <v>504</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="37" t="s">
         <v>505</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="38" t="s">
         <v>506</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="10" t="s">
         <v>471</v>
       </c>
     </row>
@@ -2716,20 +2765,20 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
         <v>TP</v>
@@ -3945,22 +3994,22 @@
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13"/>
+      <c r="C30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>TP</v>
@@ -4012,7 +4061,7 @@
       <c r="D31" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="13" t="s">
         <v>4</v>
       </c>
       <c r="I31" s="5" t="s">
@@ -4069,7 +4118,7 @@
       <c r="D32" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="13" t="s">
         <v>4</v>
       </c>
       <c r="I32" s="5" t="s">
@@ -7216,24 +7265,24 @@
       </c>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H87" s="12"/>
-      <c r="I87" s="13"/>
+      <c r="C87" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H87" s="14"/>
+      <c r="I87" s="15"/>
       <c r="K87" t="str">
         <f t="shared" si="12"/>
         <v>TP</v>
@@ -7288,7 +7337,7 @@
       <c r="E88" t="s">
         <v>4</v>
       </c>
-      <c r="G88" s="11" t="s">
+      <c r="G88" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H88" t="s">
@@ -7351,7 +7400,7 @@
       <c r="E89" t="s">
         <v>2</v>
       </c>
-      <c r="G89" s="11" t="s">
+      <c r="G89" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H89" t="s">
@@ -9829,24 +9878,24 @@
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C129" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D129" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E129" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H129" s="12"/>
-      <c r="I129" s="13"/>
+      <c r="C129" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H129" s="14"/>
+      <c r="I129" s="15"/>
       <c r="K129" t="str">
         <f t="shared" si="12"/>
         <v>TP</v>
@@ -9901,7 +9950,7 @@
       <c r="E130" t="s">
         <v>2</v>
       </c>
-      <c r="G130" s="11" t="s">
+      <c r="G130" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H130" t="s">
@@ -9964,7 +10013,7 @@
       <c r="E131" t="s">
         <v>2</v>
       </c>
-      <c r="G131" s="11" t="s">
+      <c r="G131" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H131" t="s">
@@ -11016,26 +11065,26 @@
       </c>
     </row>
     <row r="148" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B148" s="12" t="s">
+      <c r="B148" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C148" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D148" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E148" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F148" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G148" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H148" s="12"/>
-      <c r="I148" s="13"/>
+      <c r="C148" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H148" s="14"/>
+      <c r="I148" s="15"/>
       <c r="K148" t="str">
         <f t="shared" si="22"/>
         <v>TP</v>
@@ -11090,7 +11139,7 @@
       <c r="E149" t="s">
         <v>2</v>
       </c>
-      <c r="G149" s="11" t="s">
+      <c r="G149" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H149" t="s">
@@ -11153,7 +11202,7 @@
       <c r="E150" t="s">
         <v>4</v>
       </c>
-      <c r="G150" s="11" t="s">
+      <c r="G150" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H150" t="s">
@@ -11216,7 +11265,7 @@
       <c r="E151" t="s">
         <v>4</v>
       </c>
-      <c r="G151" s="11" t="s">
+      <c r="G151" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H151" t="s">
@@ -11279,7 +11328,7 @@
       <c r="E152" t="s">
         <v>2</v>
       </c>
-      <c r="G152" s="11" t="s">
+      <c r="G152" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H152" t="s">
@@ -12573,26 +12622,26 @@
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B173" s="12" t="s">
+      <c r="B173" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C173" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D173" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E173" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F173" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G173" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H173" s="12"/>
-      <c r="I173" s="13"/>
+      <c r="C173" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G173" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H173" s="14"/>
+      <c r="I173" s="15"/>
       <c r="K173" t="str">
         <f t="shared" si="22"/>
         <v>TP</v>
@@ -15193,24 +15242,24 @@
       </c>
     </row>
     <row r="217" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B217" s="12" t="s">
+      <c r="B217" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C217" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D217" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E217" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F217" s="12"/>
-      <c r="G217" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H217" s="12"/>
-      <c r="I217" s="13"/>
+      <c r="C217" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E217" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F217" s="14"/>
+      <c r="G217" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H217" s="14"/>
+      <c r="I217" s="15"/>
       <c r="K217" t="str">
         <f t="shared" si="32"/>
         <v>TP</v>
@@ -18328,24 +18377,24 @@
       </c>
     </row>
     <row r="268" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B268" s="12" t="s">
+      <c r="B268" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C268" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D268" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E268" s="12"/>
-      <c r="F268" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G268" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H268" s="12"/>
-      <c r="I268" s="13"/>
+      <c r="C268" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D268" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E268" s="14"/>
+      <c r="F268" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G268" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H268" s="14"/>
+      <c r="I268" s="15"/>
       <c r="K268" t="str">
         <f t="shared" si="42"/>
         <v>TP</v>
@@ -20922,20 +20971,20 @@
       </c>
     </row>
     <row r="313" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B313" s="12" t="s">
+      <c r="B313" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="C313" s="12"/>
-      <c r="D313" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E313" s="12"/>
-      <c r="F313" s="12"/>
-      <c r="G313" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H313" s="12"/>
-      <c r="I313" s="13"/>
+      <c r="C313" s="14"/>
+      <c r="D313" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E313" s="14"/>
+      <c r="F313" s="14"/>
+      <c r="G313" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H313" s="14"/>
+      <c r="I313" s="15"/>
       <c r="K313" t="str">
         <f t="shared" si="42"/>
         <v>TP</v>
@@ -21790,20 +21839,20 @@
       </c>
     </row>
     <row r="331" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B331" s="12" t="s">
+      <c r="B331" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C331" s="12"/>
-      <c r="D331" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E331" s="12"/>
-      <c r="F331" s="12"/>
-      <c r="G331" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H331" s="12"/>
-      <c r="I331" s="13"/>
+      <c r="C331" s="14"/>
+      <c r="D331" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E331" s="14"/>
+      <c r="F331" s="14"/>
+      <c r="G331" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H331" s="14"/>
+      <c r="I331" s="15"/>
       <c r="K331" t="str">
         <f t="shared" si="52"/>
         <v>TP</v>
@@ -22719,24 +22768,24 @@
       </c>
     </row>
     <row r="348" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B348" s="12" t="s">
+      <c r="B348" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C348" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D348" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E348" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F348" s="12"/>
-      <c r="G348" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H348" s="12"/>
-      <c r="I348" s="13"/>
+      <c r="C348" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D348" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E348" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F348" s="14"/>
+      <c r="G348" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H348" s="14"/>
+      <c r="I348" s="15"/>
       <c r="K348" t="str">
         <f t="shared" si="52"/>
         <v>TP</v>
@@ -24785,20 +24834,20 @@
       </c>
     </row>
     <row r="385" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B385" s="12" t="s">
+      <c r="B385" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C385" s="12"/>
-      <c r="D385" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E385" s="12"/>
-      <c r="F385" s="12"/>
-      <c r="G385" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H385" s="12"/>
-      <c r="I385" s="13"/>
+      <c r="C385" s="14"/>
+      <c r="D385" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E385" s="14"/>
+      <c r="F385" s="14"/>
+      <c r="G385" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H385" s="14"/>
+      <c r="I385" s="15"/>
       <c r="K385" t="str">
         <f t="shared" si="52"/>
         <v>TP</v>
@@ -26244,24 +26293,24 @@
       </c>
     </row>
     <row r="413" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B413" s="12" t="s">
+      <c r="B413" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C413" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D413" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E413" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F413" s="12"/>
-      <c r="G413" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H413" s="12"/>
-      <c r="I413" s="13"/>
+      <c r="C413" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D413" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E413" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F413" s="14"/>
+      <c r="G413" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H413" s="14"/>
+      <c r="I413" s="15"/>
       <c r="K413" t="str">
         <f t="shared" si="62"/>
         <v>TP</v>
@@ -28630,24 +28679,24 @@
       </c>
     </row>
     <row r="453" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B453" s="12" t="s">
+      <c r="B453" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C453" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D453" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E453" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F453" s="12"/>
-      <c r="G453" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H453" s="12"/>
-      <c r="I453" s="13"/>
+      <c r="C453" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D453" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E453" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F453" s="14"/>
+      <c r="G453" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H453" s="14"/>
+      <c r="I453" s="15"/>
       <c r="K453" t="str">
         <f t="shared" si="72"/>
         <v>TP</v>
@@ -30878,26 +30927,26 @@
       </c>
     </row>
     <row r="489" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B489" s="12" t="s">
+      <c r="B489" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C489" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D489" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E489" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F489" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G489" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H489" s="12"/>
-      <c r="I489" s="13"/>
+      <c r="C489" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D489" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E489" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F489" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G489" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H489" s="14"/>
+      <c r="I489" s="15"/>
       <c r="K489" t="str">
         <f t="shared" si="72"/>
         <v>TP</v>
@@ -33085,22 +33134,22 @@
       </c>
     </row>
     <row r="526" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B526" s="12" t="s">
+      <c r="B526" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C526" s="12"/>
-      <c r="D526" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E526" s="12"/>
-      <c r="F526" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G526" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H526" s="12"/>
-      <c r="I526" s="13"/>
+      <c r="C526" s="14"/>
+      <c r="D526" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E526" s="14"/>
+      <c r="F526" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G526" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H526" s="14"/>
+      <c r="I526" s="15"/>
       <c r="K526" t="str">
         <f t="shared" si="82"/>
         <v>TP</v>
@@ -34496,24 +34545,24 @@
       </c>
     </row>
     <row r="553" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B553" s="12" t="s">
+      <c r="B553" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="C553" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D553" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E553" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F553" s="12"/>
-      <c r="G553" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H553" s="12"/>
-      <c r="I553" s="13"/>
+      <c r="C553" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D553" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E553" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F553" s="14"/>
+      <c r="G553" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H553" s="14"/>
+      <c r="I553" s="15"/>
       <c r="K553" t="str">
         <f t="shared" si="82"/>
         <v>TP</v>
@@ -34996,7 +35045,7 @@
         <v>TP</v>
       </c>
     </row>
-    <row r="561" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B561" t="s">
         <v>459</v>
       </c>
@@ -35059,7 +35108,7 @@
         <v>FN</v>
       </c>
     </row>
-    <row r="562" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B562" t="s">
         <v>460</v>
       </c>
@@ -35122,7 +35171,7 @@
         <v>FN</v>
       </c>
     </row>
-    <row r="563" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B563" t="s">
         <v>461</v>
       </c>
@@ -35185,7 +35234,7 @@
         <v>FN</v>
       </c>
     </row>
-    <row r="564" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B564" t="s">
         <v>462</v>
       </c>
@@ -35248,7 +35297,7 @@
         <v>TP</v>
       </c>
     </row>
-    <row r="565" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B565" t="s">
         <v>463</v>
       </c>
@@ -35311,7 +35360,7 @@
         <v>FN</v>
       </c>
     </row>
-    <row r="566" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B566" t="s">
         <v>464</v>
       </c>
@@ -35374,7 +35423,7 @@
         <v>FN</v>
       </c>
     </row>
-    <row r="567" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B567" t="s">
         <v>465</v>
       </c>
@@ -35437,7 +35486,7 @@
         <v>FN</v>
       </c>
     </row>
-    <row r="568" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B568" t="s">
         <v>466</v>
       </c>
@@ -35500,7 +35549,7 @@
         <v>FN</v>
       </c>
     </row>
-    <row r="569" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="B569" s="3" t="s">
         <v>467</v>
@@ -35565,44 +35614,44 @@
         <v>FN</v>
       </c>
     </row>
-    <row r="572" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B572" s="18" t="s">
+    <row r="572" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B572" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="C572" s="10">
-        <f>COUNTIF(C3:C569, " TP") + C593</f>
+      <c r="C572" s="12">
+        <f>COUNTIF(C3:C569, " TP") + C596</f>
         <v>402</v>
       </c>
-      <c r="D572" s="10">
-        <f t="shared" ref="D572:I572" si="92">COUNTIF(D3:D569, " TP") + D593</f>
-        <v>576</v>
-      </c>
-      <c r="E572" s="10">
+      <c r="D572" s="12">
+        <f t="shared" ref="D572:I572" si="92">COUNTIF(D3:D569, " TP") + D596</f>
+        <v>575</v>
+      </c>
+      <c r="E572" s="12">
         <f t="shared" si="92"/>
         <v>208</v>
       </c>
-      <c r="F572" s="10">
+      <c r="F572" s="12">
         <f t="shared" si="92"/>
         <v>32</v>
       </c>
-      <c r="G572" s="10">
+      <c r="G572" s="12">
         <f t="shared" si="92"/>
         <v>31</v>
       </c>
-      <c r="H572" s="10">
+      <c r="H572" s="12">
         <f t="shared" si="92"/>
         <v>90</v>
       </c>
-      <c r="I572" s="24">
+      <c r="I572" s="26">
         <f t="shared" si="92"/>
-        <v>92</v>
-      </c>
-      <c r="K572" s="11">
-        <f>COUNTIF(K3:K569, "TP") + K593</f>
+        <v>93</v>
+      </c>
+      <c r="K572" s="47">
+        <f>COUNTIF(K3:K569, "TP") + K596</f>
         <v>684</v>
       </c>
       <c r="L572" s="11">
-        <f>COUNTIF(L3:L569, "TP") + L593</f>
+        <f>COUNTIF(L3:L569, "TP") + L596</f>
         <v>76</v>
       </c>
       <c r="M572" s="11">
@@ -35633,393 +35682,390 @@
         <f t="shared" si="93"/>
         <v>509</v>
       </c>
-      <c r="T572" s="11">
+      <c r="T572" s="48">
         <f>COUNTIF(T3:T569, "TP")</f>
         <v>372</v>
       </c>
     </row>
-    <row r="573" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B573" s="19" t="s">
+    <row r="573" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B573" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="C573" s="14">
-        <f>COUNTIF(C3:C569, " FN") + C594</f>
+      <c r="C573" s="16">
+        <f>COUNTIF(C3:C569, " FN") + C597</f>
         <v>66</v>
       </c>
-      <c r="D573" s="14">
-        <f t="shared" ref="D573:I573" si="94">COUNTIF(D3:D569, " FN") + D594</f>
+      <c r="D573" s="16">
+        <f t="shared" ref="D573:I573" si="94">COUNTIF(D3:D569, " FN") + D597</f>
         <v>141</v>
       </c>
-      <c r="E573" s="14">
+      <c r="E573" s="16">
         <f t="shared" si="94"/>
         <v>147</v>
       </c>
-      <c r="F573" s="14">
+      <c r="F573" s="16">
         <f t="shared" si="94"/>
         <v>25</v>
       </c>
-      <c r="G573" s="14">
+      <c r="G573" s="16">
         <f t="shared" si="94"/>
         <v>536</v>
       </c>
-      <c r="H573" s="14">
+      <c r="H573" s="16">
         <f t="shared" si="94"/>
-        <v>291</v>
-      </c>
-      <c r="I573" s="25">
+        <v>290</v>
+      </c>
+      <c r="I573" s="27">
         <f t="shared" si="94"/>
-        <v>443</v>
-      </c>
-      <c r="K573" s="14">
-        <f>COUNTIF(K3:K569, "FN") + K594</f>
+        <v>441</v>
+      </c>
+      <c r="K573" s="21">
+        <f>COUNTIF(K3:K569, "FN") + K597</f>
         <v>32</v>
       </c>
-      <c r="L573" s="14">
-        <f>COUNTIF(L3:L569, "FN") + L594</f>
+      <c r="L573" s="16">
+        <f>COUNTIF(L3:L569, "FN") + L597</f>
         <v>640</v>
       </c>
-      <c r="M573" s="14">
+      <c r="M573" s="16">
         <f t="shared" ref="L573:T573" si="95">COUNTIF(M3:M569, "FN")</f>
         <v>15</v>
       </c>
-      <c r="N573" s="14">
+      <c r="N573" s="16">
         <f t="shared" si="95"/>
         <v>214</v>
       </c>
-      <c r="O573" s="14">
+      <c r="O573" s="16">
         <f t="shared" si="95"/>
         <v>15</v>
       </c>
-      <c r="P573" s="14">
+      <c r="P573" s="16">
         <f t="shared" si="95"/>
         <v>130</v>
       </c>
-      <c r="Q573" s="14">
+      <c r="Q573" s="16">
         <f t="shared" si="95"/>
         <v>62</v>
       </c>
-      <c r="R573" s="14">
+      <c r="R573" s="16">
         <f t="shared" si="95"/>
         <v>266</v>
       </c>
-      <c r="S573" s="14">
+      <c r="S573" s="16">
         <f>COUNTIF(S3:S569, "FN")</f>
         <v>58</v>
       </c>
-      <c r="T573" s="14">
+      <c r="T573" s="27">
         <f t="shared" si="95"/>
         <v>195</v>
       </c>
     </row>
-    <row r="574" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B574" s="20" t="s">
+    <row r="574" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B574" s="22" t="s">
         <v>480</v>
       </c>
-      <c r="C574" s="15">
+      <c r="C574" s="17">
         <v>436</v>
       </c>
-      <c r="D574" s="15">
+      <c r="D574" s="17">
         <v>54</v>
       </c>
-      <c r="E574" s="15">
-        <v>2</v>
-      </c>
-      <c r="F574" s="15">
+      <c r="E574" s="17">
+        <v>2</v>
+      </c>
+      <c r="F574" s="17">
         <v>1</v>
       </c>
-      <c r="G574" s="15">
+      <c r="G574" s="17">
         <v>22</v>
       </c>
-      <c r="H574" s="15">
-        <v>2</v>
-      </c>
-      <c r="I574" s="26">
+      <c r="H574" s="17">
+        <v>2</v>
+      </c>
+      <c r="I574" s="28">
         <v>16</v>
       </c>
-      <c r="J574" s="11"/>
-      <c r="K574" s="7">
-        <f>K581+K588+K595</f>
+      <c r="J574" s="13"/>
+      <c r="K574" s="55">
+        <f>K581+K588+K598</f>
         <v>517</v>
       </c>
-      <c r="L574" s="7">
-        <v>2</v>
-      </c>
-      <c r="M574" s="7">
+      <c r="L574" s="54">
+        <v>2</v>
+      </c>
+      <c r="M574" s="54">
         <f>M581+M588</f>
         <v>458</v>
       </c>
-      <c r="N574" s="7">
+      <c r="N574" s="54">
         <v>0</v>
       </c>
-      <c r="O574" s="7">
+      <c r="O574" s="54">
         <f>O581+O588</f>
         <v>458</v>
       </c>
-      <c r="P574" s="7">
+      <c r="P574" s="54">
         <v>0</v>
       </c>
-      <c r="Q574" s="7">
+      <c r="Q574" s="54">
         <f>Q581+Q588</f>
         <v>437</v>
       </c>
-      <c r="R574" s="7">
+      <c r="R574" s="54">
         <v>0</v>
       </c>
-      <c r="S574" s="7">
+      <c r="S574" s="54">
         <f>S581+S588</f>
         <v>34</v>
       </c>
-      <c r="T574" s="11">
+      <c r="T574" s="15">
         <v>0</v>
       </c>
-      <c r="V574" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="575" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B575" s="21" t="s">
+    </row>
+    <row r="575" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B575" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="C575" s="29">
+      <c r="C575" s="31">
         <f>C572/(C572+C574)</f>
         <v>0.47971360381861577</v>
       </c>
-      <c r="D575" s="29">
+      <c r="D575" s="31">
         <f t="shared" ref="D575:I575" si="96">D572/(D572+D574)</f>
-        <v>0.91428571428571426</v>
-      </c>
-      <c r="E575" s="29">
+        <v>0.91414944356120831</v>
+      </c>
+      <c r="E575" s="31">
         <f t="shared" si="96"/>
         <v>0.99047619047619051</v>
       </c>
-      <c r="F575" s="29">
+      <c r="F575" s="31">
         <f t="shared" si="96"/>
         <v>0.96969696969696972</v>
       </c>
-      <c r="G575" s="29">
+      <c r="G575" s="31">
         <f t="shared" si="96"/>
         <v>0.58490566037735847</v>
       </c>
-      <c r="H575" s="29">
+      <c r="H575" s="31">
         <f t="shared" si="96"/>
         <v>0.97826086956521741</v>
       </c>
-      <c r="I575" s="30">
+      <c r="I575" s="32">
         <f t="shared" si="96"/>
-        <v>0.85185185185185186</v>
-      </c>
-      <c r="J575" s="37"/>
-      <c r="K575" s="37">
+        <v>0.85321100917431192</v>
+      </c>
+      <c r="J575" s="39"/>
+      <c r="K575" s="50">
         <f>K572/(K572+K574)</f>
         <v>0.56952539550374692</v>
       </c>
-      <c r="L575" s="37">
+      <c r="L575" s="39">
         <f t="shared" ref="L575" si="97">L572/(L572+L574)</f>
         <v>0.97435897435897434</v>
       </c>
-      <c r="M575" s="37">
+      <c r="M575" s="39">
         <f t="shared" ref="M575" si="98">M572/(M572+M574)</f>
         <v>0.54653465346534658</v>
       </c>
-      <c r="N575" s="37">
+      <c r="N575" s="39">
         <f t="shared" ref="N575" si="99">N572/(N572+N574)</f>
         <v>1</v>
       </c>
-      <c r="O575" s="37">
+      <c r="O575" s="39">
         <f t="shared" ref="O575" si="100">O572/(O572+O574)</f>
         <v>0.54653465346534658</v>
       </c>
-      <c r="P575" s="37">
+      <c r="P575" s="39">
         <f t="shared" ref="P575" si="101">P572/(P572+P574)</f>
         <v>1</v>
       </c>
-      <c r="Q575" s="37">
+      <c r="Q575" s="39">
         <f t="shared" ref="Q575" si="102">Q572/(Q572+Q574)</f>
         <v>0.48222748815165878</v>
       </c>
-      <c r="R575" s="37">
+      <c r="R575" s="39">
         <f t="shared" ref="R575" si="103">R572/(R572+R574)</f>
         <v>1</v>
       </c>
-      <c r="S575" s="37">
+      <c r="S575" s="39">
         <f>S572/(S572+S574)</f>
         <v>0.93738489871086561</v>
       </c>
-      <c r="T575" s="37">
+      <c r="T575" s="33">
         <f t="shared" ref="T575" si="104">T572/(T572+T574)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B576" s="21" t="s">
+    <row r="576" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B576" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="C576" s="29">
+      <c r="C576" s="31">
         <f>C572/(C572+C573)</f>
         <v>0.85897435897435892</v>
       </c>
-      <c r="D576" s="29">
+      <c r="D576" s="31">
         <f>D572/(D572+D573)</f>
-        <v>0.80334728033472802</v>
-      </c>
-      <c r="E576" s="29">
+        <v>0.80307262569832405</v>
+      </c>
+      <c r="E576" s="31">
         <f>E572/(E572+E573)</f>
         <v>0.58591549295774648</v>
       </c>
-      <c r="F576" s="29">
+      <c r="F576" s="31">
         <f>F572/(F572+F573)</f>
         <v>0.56140350877192979</v>
       </c>
-      <c r="G576" s="29">
+      <c r="G576" s="31">
         <f>G572/(G572+G573)</f>
         <v>5.4673721340388004E-2</v>
       </c>
-      <c r="H576" s="29">
+      <c r="H576" s="31">
         <f>H572/(H572+H573)</f>
-        <v>0.23622047244094488</v>
-      </c>
-      <c r="I576" s="31">
+        <v>0.23684210526315788</v>
+      </c>
+      <c r="I576" s="33">
         <f>I572/(I572+I573)</f>
-        <v>0.17196261682242991</v>
-      </c>
-      <c r="J576" s="37"/>
-      <c r="K576" s="37">
+        <v>0.17415730337078653</v>
+      </c>
+      <c r="J576" s="39"/>
+      <c r="K576" s="50">
         <f t="shared" ref="J576:T576" si="105">K572/(K572+K573)</f>
         <v>0.95530726256983245</v>
       </c>
-      <c r="L576" s="37">
+      <c r="L576" s="39">
         <f t="shared" si="105"/>
         <v>0.10614525139664804</v>
       </c>
-      <c r="M576" s="37">
+      <c r="M576" s="39">
         <f t="shared" si="105"/>
         <v>0.97354497354497349</v>
       </c>
-      <c r="N576" s="37">
+      <c r="N576" s="39">
         <f t="shared" si="105"/>
         <v>0.62257495590828926</v>
       </c>
-      <c r="O576" s="37">
+      <c r="O576" s="39">
         <f t="shared" si="105"/>
         <v>0.97354497354497349</v>
       </c>
-      <c r="P576" s="37">
+      <c r="P576" s="39">
         <f t="shared" si="105"/>
         <v>0.7707231040564374</v>
       </c>
-      <c r="Q576" s="37">
+      <c r="Q576" s="39">
         <f t="shared" si="105"/>
         <v>0.86780383795309168</v>
       </c>
-      <c r="R576" s="37">
+      <c r="R576" s="39">
         <f t="shared" si="105"/>
         <v>0.43283582089552236</v>
       </c>
-      <c r="S576" s="37">
+      <c r="S576" s="39">
         <f t="shared" si="105"/>
         <v>0.89770723104056438</v>
       </c>
-      <c r="T576" s="37">
+      <c r="T576" s="33">
         <f t="shared" si="105"/>
         <v>0.65608465608465605</v>
       </c>
     </row>
-    <row r="577" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B577" s="22" t="s">
+    <row r="577" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B577" s="24" t="s">
         <v>491</v>
       </c>
-      <c r="C577" s="32">
+      <c r="C577" s="34">
         <f>(2*C572)/((2*C572)+C574+C573)</f>
         <v>0.61562021439509951</v>
       </c>
-      <c r="D577" s="32">
+      <c r="D577" s="34">
         <f>(2*D572)/((2*D572)+D574+D573)</f>
-        <v>0.85523385300668153</v>
-      </c>
-      <c r="E577" s="32">
+        <v>0.85501858736059477</v>
+      </c>
+      <c r="E577" s="34">
         <f t="shared" ref="D577:I577" si="106">(2*E572)/((2*E572)+E574+E573)</f>
         <v>0.73628318584070795</v>
       </c>
-      <c r="F577" s="32">
+      <c r="F577" s="34">
         <f t="shared" si="106"/>
         <v>0.71111111111111114</v>
       </c>
-      <c r="G577" s="32">
+      <c r="G577" s="34">
         <f t="shared" si="106"/>
         <v>0.1</v>
       </c>
-      <c r="H577" s="32">
+      <c r="H577" s="34">
         <f t="shared" si="106"/>
-        <v>0.38054968287526425</v>
-      </c>
-      <c r="I577" s="33">
+        <v>0.38135593220338981</v>
+      </c>
+      <c r="I577" s="35">
         <f t="shared" si="106"/>
-        <v>0.28615863141524106</v>
-      </c>
-      <c r="J577" s="37"/>
-      <c r="K577" s="37">
+        <v>0.28926905132192848</v>
+      </c>
+      <c r="J577" s="39"/>
+      <c r="K577" s="51">
         <f t="shared" ref="J577:T577" si="107">(2*K572)/((2*K572)+K574+K573)</f>
         <v>0.71361502347417838</v>
       </c>
-      <c r="L577" s="37">
+      <c r="L577" s="34">
         <f t="shared" si="107"/>
         <v>0.19143576826196473</v>
       </c>
-      <c r="M577" s="37">
+      <c r="M577" s="34">
         <f t="shared" si="107"/>
         <v>0.70006341154090046</v>
       </c>
-      <c r="N577" s="37">
+      <c r="N577" s="34">
         <f t="shared" si="107"/>
         <v>0.7673913043478261</v>
       </c>
-      <c r="O577" s="37">
+      <c r="O577" s="34">
         <f t="shared" si="107"/>
         <v>0.70006341154090046</v>
       </c>
-      <c r="P577" s="37">
+      <c r="P577" s="34">
         <f t="shared" si="107"/>
         <v>0.87051792828685259</v>
       </c>
-      <c r="Q577" s="37">
+      <c r="Q577" s="34">
         <f t="shared" si="107"/>
         <v>0.61995430312262001</v>
       </c>
-      <c r="R577" s="37">
+      <c r="R577" s="34">
         <f t="shared" si="107"/>
         <v>0.60416666666666663</v>
       </c>
-      <c r="S577" s="37">
+      <c r="S577" s="34">
         <f t="shared" si="107"/>
         <v>0.91711711711711708</v>
       </c>
-      <c r="T577" s="37">
+      <c r="T577" s="35">
         <f t="shared" si="107"/>
         <v>0.792332268370607</v>
       </c>
     </row>
-    <row r="578" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B578" s="17"/>
-      <c r="C578" s="17"/>
-      <c r="D578" s="17"/>
-      <c r="E578" s="17"/>
-      <c r="F578" s="17"/>
-      <c r="G578" s="17"/>
-      <c r="H578" s="17"/>
-      <c r="I578" s="17"/>
-      <c r="K578" s="11"/>
-      <c r="L578" s="11"/>
-      <c r="M578" s="11"/>
-      <c r="N578" s="11"/>
-      <c r="O578" s="11"/>
-      <c r="P578" s="11"/>
-      <c r="Q578" s="11"/>
-      <c r="R578" s="11"/>
-      <c r="S578" s="11"/>
-      <c r="T578" s="11"/>
-    </row>
-    <row r="579" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B579" s="18" t="s">
+    <row r="578" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B578" s="19"/>
+      <c r="C578" s="19"/>
+      <c r="D578" s="19"/>
+      <c r="E578" s="19"/>
+      <c r="F578" s="19"/>
+      <c r="G578" s="19"/>
+      <c r="H578" s="19"/>
+      <c r="I578" s="19"/>
+      <c r="K578" s="19"/>
+      <c r="L578" s="19"/>
+      <c r="M578" s="19"/>
+      <c r="N578" s="19"/>
+      <c r="O578" s="19"/>
+      <c r="P578" s="19"/>
+      <c r="Q578" s="19"/>
+      <c r="R578" s="19"/>
+      <c r="S578" s="19"/>
+      <c r="T578" s="19"/>
+    </row>
+    <row r="579" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B579" s="20" t="s">
         <v>487</v>
       </c>
       <c r="C579" s="1">
@@ -36043,50 +36089,50 @@
         <v>27</v>
       </c>
       <c r="H579" s="1"/>
-      <c r="I579" s="24"/>
-      <c r="K579" s="14">
+      <c r="I579" s="26"/>
+      <c r="K579" s="21">
         <f>COUNTIF(K3:K7, "TP") + COUNTIF(K14:K30, "TP") + COUNTIF(K73:K87, "TP") + COUNTIF(K122:K129, "TP") + COUNTIF(K142:K148, "TP") + COUNTIF(K162:K173, "TP") + COUNTIF(K203:K217, "TP") + COUNTIF(K252:K268, "TP") + COUNTIF(K306:K313, "TP") + COUNTIF(K327:K331, "TP") + COUNTIF(K338:K348, "TP") + COUNTIF(K375:K385, "TP") + COUNTIF(K404:K413, "TP") + COUNTIF(K443:K453, "TP") + COUNTIF(K478:K489, "TP") + COUNTIF(K518:K526, "TP") + COUNTIF(K545:K553, "TP")</f>
         <v>179</v>
       </c>
-      <c r="L579" s="14">
+      <c r="L579" s="16">
         <f t="shared" ref="L579:T579" si="108">COUNTIF(L3:L7, "TP") + COUNTIF(L14:L30, "TP") + COUNTIF(L73:L87, "TP") + COUNTIF(L122:L129, "TP") + COUNTIF(L142:L148, "TP") + COUNTIF(L162:L173, "TP") + COUNTIF(L203:L217, "TP") + COUNTIF(L252:L268, "TP") + COUNTIF(L306:L313, "TP") + COUNTIF(L327:L331, "TP") + COUNTIF(L338:L348, "TP") + COUNTIF(L375:L385, "TP") + COUNTIF(L404:L413, "TP") + COUNTIF(L443:L453, "TP") + COUNTIF(L478:L489, "TP") + COUNTIF(L518:L526, "TP") + COUNTIF(L545:L553, "TP")</f>
         <v>24</v>
       </c>
-      <c r="M579" s="14">
+      <c r="M579" s="16">
         <f t="shared" si="108"/>
         <v>179</v>
       </c>
-      <c r="N579" s="14">
+      <c r="N579" s="16">
         <f t="shared" si="108"/>
         <v>145</v>
       </c>
-      <c r="O579" s="14">
+      <c r="O579" s="16">
         <f t="shared" si="108"/>
         <v>179</v>
       </c>
-      <c r="P579" s="14">
+      <c r="P579" s="16">
         <f t="shared" si="108"/>
         <v>158</v>
       </c>
-      <c r="Q579" s="14">
+      <c r="Q579" s="16">
         <f t="shared" si="108"/>
         <v>125</v>
       </c>
-      <c r="R579" s="14">
+      <c r="R579" s="16">
         <f t="shared" si="108"/>
         <v>82</v>
       </c>
-      <c r="S579" s="14">
+      <c r="S579" s="16">
         <f t="shared" si="108"/>
         <v>178</v>
       </c>
-      <c r="T579" s="14">
+      <c r="T579" s="27">
         <f t="shared" si="108"/>
         <v>153</v>
       </c>
     </row>
-    <row r="580" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B580" s="19" t="s">
+    <row r="580" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B580" s="21" t="s">
         <v>484</v>
       </c>
       <c r="C580" s="1">
@@ -36110,325 +36156,322 @@
         <v>155</v>
       </c>
       <c r="H580" s="1"/>
-      <c r="I580" s="25"/>
-      <c r="K580" s="14">
+      <c r="I580" s="27"/>
+      <c r="K580" s="21">
         <f>COUNTIF(K3:K7, "FN") + COUNTIF(K14:K30, "FN") + COUNTIF(K73:K87, "FN") + COUNTIF(K122:K129, "FN") + COUNTIF(K142:K148, "FN") + COUNTIF(K162:K173, "FN") + COUNTIF(K203:K217, "FN") + COUNTIF(K252:K268, "FN") + COUNTIF(K306:K313, "FN") + COUNTIF(K327:K331, "FN") + COUNTIF(K338:K348, "FN") + COUNTIF(K375:K385, "FN") + COUNTIF(K404:K413, "FN") + COUNTIF(K443:K453, "FN") + COUNTIF(K478:K489, "FN") + COUNTIF(K518:K526, "FN") + COUNTIF(K545:K553, "FN")</f>
         <v>3</v>
       </c>
-      <c r="L580" s="14">
+      <c r="L580" s="16">
         <f t="shared" ref="L580:T580" si="109">COUNTIF(L3:L7, "FN") + COUNTIF(L14:L30, "FN") + COUNTIF(L73:L87, "FN") + COUNTIF(L122:L129, "FN") + COUNTIF(L142:L148, "FN") + COUNTIF(L162:L173, "FN") + COUNTIF(L203:L217, "FN") + COUNTIF(L252:L268, "FN") + COUNTIF(L306:L313, "FN") + COUNTIF(L327:L331, "FN") + COUNTIF(L338:L348, "FN") + COUNTIF(L375:L385, "FN") + COUNTIF(L404:L413, "FN") + COUNTIF(L443:L453, "FN") + COUNTIF(L478:L489, "FN") + COUNTIF(L518:L526, "FN") + COUNTIF(L545:L553, "FN")</f>
         <v>158</v>
       </c>
-      <c r="M580" s="14">
+      <c r="M580" s="16">
         <f t="shared" si="109"/>
         <v>3</v>
       </c>
-      <c r="N580" s="14">
+      <c r="N580" s="16">
         <f t="shared" si="109"/>
         <v>37</v>
       </c>
-      <c r="O580" s="14">
+      <c r="O580" s="16">
         <f t="shared" si="109"/>
         <v>3</v>
       </c>
-      <c r="P580" s="14">
+      <c r="P580" s="16">
         <f t="shared" si="109"/>
         <v>24</v>
       </c>
-      <c r="Q580" s="14">
+      <c r="Q580" s="16">
         <f t="shared" si="109"/>
         <v>19</v>
       </c>
-      <c r="R580" s="14">
+      <c r="R580" s="16">
         <f t="shared" si="109"/>
         <v>62</v>
       </c>
-      <c r="S580" s="14">
+      <c r="S580" s="16">
         <f t="shared" si="109"/>
         <v>4</v>
       </c>
-      <c r="T580" s="14">
+      <c r="T580" s="27">
         <f t="shared" si="109"/>
         <v>29</v>
       </c>
     </row>
-    <row r="581" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B581" s="20" t="s">
+    <row r="581" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B581" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="C581" s="15">
+      <c r="C581" s="17">
         <v>41</v>
       </c>
-      <c r="D581" s="15">
+      <c r="D581" s="17">
         <v>5</v>
       </c>
-      <c r="E581" s="15">
+      <c r="E581" s="17">
         <v>0</v>
       </c>
-      <c r="F581" s="15">
+      <c r="F581" s="17">
         <v>1</v>
       </c>
-      <c r="G581" s="15">
+      <c r="G581" s="17">
         <v>21</v>
       </c>
-      <c r="H581" s="15"/>
-      <c r="I581" s="26"/>
-      <c r="K581" s="11">
+      <c r="H581" s="17"/>
+      <c r="I581" s="28"/>
+      <c r="K581" s="53">
         <v>68</v>
       </c>
-      <c r="L581" s="11">
+      <c r="L581" s="14">
         <v>0</v>
       </c>
-      <c r="M581" s="11">
+      <c r="M581" s="14">
         <v>46</v>
       </c>
-      <c r="N581" s="11">
+      <c r="N581" s="14">
         <v>0</v>
       </c>
-      <c r="O581" s="7">
+      <c r="O581" s="54">
         <v>46</v>
       </c>
-      <c r="P581" s="7">
+      <c r="P581" s="54">
         <v>0</v>
       </c>
-      <c r="Q581" s="7">
+      <c r="Q581" s="54">
         <v>41</v>
       </c>
-      <c r="R581" s="11">
+      <c r="R581" s="14">
         <v>0</v>
       </c>
-      <c r="S581" s="7">
+      <c r="S581" s="54">
         <v>5</v>
       </c>
-      <c r="T581" s="11">
+      <c r="T581" s="15">
         <v>0</v>
       </c>
-      <c r="V581" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="582" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B582" s="19" t="s">
+    </row>
+    <row r="582" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B582" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="C582" s="29">
+      <c r="C582" s="31">
         <f>C579/(C579+C581)</f>
         <v>0.75</v>
       </c>
-      <c r="D582" s="29">
+      <c r="D582" s="31">
         <f t="shared" ref="D582:G582" si="110">D579/(D579+D581)</f>
         <v>0.97267759562841527</v>
       </c>
-      <c r="E582" s="29">
+      <c r="E582" s="31">
         <f t="shared" si="110"/>
         <v>1</v>
       </c>
-      <c r="F582" s="29">
+      <c r="F582" s="31">
         <f t="shared" si="110"/>
         <v>0.96969696969696972</v>
       </c>
-      <c r="G582" s="29">
+      <c r="G582" s="31">
         <f t="shared" si="110"/>
         <v>0.5625</v>
       </c>
-      <c r="H582" s="14"/>
-      <c r="I582" s="25"/>
-      <c r="K582" s="37">
+      <c r="H582" s="16"/>
+      <c r="I582" s="27"/>
+      <c r="K582" s="50">
         <f t="shared" ref="K582" si="111">K579/(K579+K581)</f>
         <v>0.7246963562753036</v>
       </c>
-      <c r="L582" s="37">
+      <c r="L582" s="39">
         <f t="shared" ref="L582" si="112">L579/(L579+L581)</f>
         <v>1</v>
       </c>
-      <c r="M582" s="37">
+      <c r="M582" s="39">
         <f t="shared" ref="M582" si="113">M579/(M579+M581)</f>
         <v>0.79555555555555557</v>
       </c>
-      <c r="N582" s="37">
+      <c r="N582" s="39">
         <f t="shared" ref="N582" si="114">N579/(N579+N581)</f>
         <v>1</v>
       </c>
-      <c r="O582" s="37">
+      <c r="O582" s="39">
         <f t="shared" ref="O582" si="115">O579/(O579+O581)</f>
         <v>0.79555555555555557</v>
       </c>
-      <c r="P582" s="37">
+      <c r="P582" s="39">
         <f t="shared" ref="P582" si="116">P579/(P579+P581)</f>
         <v>1</v>
       </c>
-      <c r="Q582" s="37">
+      <c r="Q582" s="39">
         <f t="shared" ref="Q582" si="117">Q579/(Q579+Q581)</f>
         <v>0.75301204819277112</v>
       </c>
-      <c r="R582" s="37">
+      <c r="R582" s="39">
         <f t="shared" ref="R582" si="118">R579/(R579+R581)</f>
         <v>1</v>
       </c>
-      <c r="S582" s="37">
+      <c r="S582" s="39">
         <f t="shared" ref="S582" si="119">S579/(S579+S581)</f>
         <v>0.97267759562841527</v>
       </c>
-      <c r="T582" s="37">
+      <c r="T582" s="33">
         <f t="shared" ref="T582" si="120">T579/(T579+T581)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B583" s="19" t="s">
+    <row r="583" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B583" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="C583" s="29">
+      <c r="C583" s="31">
         <f>C579/(C579+C580)</f>
         <v>0.85416666666666663</v>
       </c>
-      <c r="D583" s="29">
+      <c r="D583" s="31">
         <f t="shared" ref="D583:I583" si="121">D579/(D579+D580)</f>
         <v>0.97802197802197799</v>
       </c>
-      <c r="E583" s="29">
+      <c r="E583" s="31">
         <f t="shared" si="121"/>
         <v>0.76363636363636367</v>
       </c>
-      <c r="F583" s="29">
+      <c r="F583" s="31">
         <f t="shared" si="121"/>
         <v>0.56140350877192979</v>
       </c>
-      <c r="G583" s="29">
+      <c r="G583" s="31">
         <f>G579/(G579+G580)</f>
         <v>0.14835164835164835</v>
       </c>
       <c r="I583" s="5"/>
-      <c r="K583" s="37">
+      <c r="K583" s="50">
         <f>K579/(K579+K580)</f>
         <v>0.98351648351648346</v>
       </c>
-      <c r="L583" s="37">
+      <c r="L583" s="39">
         <f>L579/(L579+L580)</f>
         <v>0.13186813186813187</v>
       </c>
-      <c r="M583" s="37">
+      <c r="M583" s="39">
         <f t="shared" ref="L583:T583" si="122">M579/(M579+M580)</f>
         <v>0.98351648351648346</v>
       </c>
-      <c r="N583" s="37">
+      <c r="N583" s="39">
         <f t="shared" si="122"/>
         <v>0.79670329670329665</v>
       </c>
-      <c r="O583" s="37">
+      <c r="O583" s="39">
         <f t="shared" si="122"/>
         <v>0.98351648351648346</v>
       </c>
-      <c r="P583" s="37">
+      <c r="P583" s="39">
         <f t="shared" si="122"/>
         <v>0.86813186813186816</v>
       </c>
-      <c r="Q583" s="37">
+      <c r="Q583" s="39">
         <f t="shared" si="122"/>
         <v>0.86805555555555558</v>
       </c>
-      <c r="R583" s="37">
+      <c r="R583" s="39">
         <f t="shared" si="122"/>
         <v>0.56944444444444442</v>
       </c>
-      <c r="S583" s="37">
+      <c r="S583" s="39">
         <f t="shared" si="122"/>
         <v>0.97802197802197799</v>
       </c>
-      <c r="T583" s="37">
+      <c r="T583" s="33">
         <f t="shared" si="122"/>
         <v>0.84065934065934067</v>
       </c>
     </row>
-    <row r="584" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B584" s="23" t="s">
+    <row r="584" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B584" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="C584" s="32">
+      <c r="C584" s="34">
         <f>(2*C579)/((2*C579)+C581+C580)</f>
         <v>0.79870129870129869</v>
       </c>
-      <c r="D584" s="32">
+      <c r="D584" s="34">
         <f t="shared" ref="D584:G584" si="123">(2*D579)/((2*D579)+D581+D580)</f>
         <v>0.97534246575342465</v>
       </c>
-      <c r="E584" s="32">
+      <c r="E584" s="34">
         <f t="shared" si="123"/>
         <v>0.865979381443299</v>
       </c>
-      <c r="F584" s="32">
+      <c r="F584" s="34">
         <f t="shared" si="123"/>
         <v>0.71111111111111114</v>
       </c>
-      <c r="G584" s="32">
+      <c r="G584" s="34">
         <f t="shared" si="123"/>
         <v>0.23478260869565218</v>
       </c>
-      <c r="H584" s="16"/>
-      <c r="I584" s="27"/>
-      <c r="K584" s="37">
+      <c r="H584" s="18"/>
+      <c r="I584" s="29"/>
+      <c r="K584" s="51">
         <f t="shared" ref="K584:T584" si="124">(2*K579)/((2*K579)+K581+K580)</f>
         <v>0.83449883449883455</v>
       </c>
-      <c r="L584" s="37">
+      <c r="L584" s="34">
         <f t="shared" si="124"/>
         <v>0.23300970873786409</v>
       </c>
-      <c r="M584" s="37">
+      <c r="M584" s="34">
         <f>(2*M579)/((2*M579)+M581+M580)</f>
         <v>0.87960687960687955</v>
       </c>
-      <c r="N584" s="37">
+      <c r="N584" s="34">
         <f t="shared" si="124"/>
         <v>0.88685015290519875</v>
       </c>
-      <c r="O584" s="37">
+      <c r="O584" s="34">
         <f t="shared" si="124"/>
         <v>0.87960687960687955</v>
       </c>
-      <c r="P584" s="37">
+      <c r="P584" s="34">
         <f t="shared" si="124"/>
         <v>0.92941176470588238</v>
       </c>
-      <c r="Q584" s="37">
+      <c r="Q584" s="34">
         <f t="shared" si="124"/>
         <v>0.80645161290322576</v>
       </c>
-      <c r="R584" s="37">
+      <c r="R584" s="34">
         <f t="shared" si="124"/>
         <v>0.72566371681415931</v>
       </c>
-      <c r="S584" s="37">
+      <c r="S584" s="34">
         <f t="shared" si="124"/>
         <v>0.97534246575342465</v>
       </c>
-      <c r="T584" s="37">
+      <c r="T584" s="35">
         <f t="shared" si="124"/>
         <v>0.91343283582089552</v>
       </c>
     </row>
-    <row r="585" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B585" s="17"/>
-      <c r="C585" s="17"/>
-      <c r="D585" s="17"/>
-      <c r="E585" s="17"/>
-      <c r="F585" s="17"/>
-      <c r="G585" s="17"/>
-      <c r="H585" s="17"/>
-      <c r="I585" s="17"/>
-      <c r="K585" s="11"/>
-      <c r="L585" s="11"/>
-      <c r="M585" s="11"/>
-      <c r="N585" s="11"/>
-      <c r="O585" s="11"/>
-      <c r="P585" s="11"/>
-      <c r="Q585" s="11"/>
-      <c r="R585" s="11"/>
-      <c r="S585" s="11"/>
-      <c r="T585" s="11"/>
-    </row>
-    <row r="586" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B586" s="18" t="s">
+    <row r="585" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B585" s="19"/>
+      <c r="C585" s="19"/>
+      <c r="D585" s="19"/>
+      <c r="E585" s="19"/>
+      <c r="F585" s="19"/>
+      <c r="G585" s="19"/>
+      <c r="H585" s="19"/>
+      <c r="I585" s="19"/>
+      <c r="K585" s="19"/>
+      <c r="L585" s="19"/>
+      <c r="M585" s="19"/>
+      <c r="N585" s="19"/>
+      <c r="O585" s="19"/>
+      <c r="P585" s="19"/>
+      <c r="Q585" s="19"/>
+      <c r="R585" s="19"/>
+      <c r="S585" s="19"/>
+      <c r="T585" s="19"/>
+    </row>
+    <row r="586" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B586" s="20" t="s">
         <v>488</v>
       </c>
       <c r="C586" s="1">
@@ -36449,53 +36492,53 @@
         <v>4</v>
       </c>
       <c r="H586" s="1"/>
-      <c r="I586" s="24">
+      <c r="I586" s="26">
         <f>COUNTIF(I554:I569, " TP") + COUNTIF(I527:I544, " TP") + COUNTIF(I490:I517, " TP") + COUNTIF(I454:I477, " TP") + COUNTIF(I414:I442, " TP") + COUNTIF(I386:I403, " TP") + COUNTIF(I349:I374, " TP") + COUNTIF(I332:I337, " TP") + COUNTIF(I314:I326, " TP") + COUNTIF(I269:I305, " TP") + COUNTIF(I218:I251, " TP") + COUNTIF(I174:I202, " TP") + COUNTIF(I149:I161, " TP") + COUNTIF(I130:I141, " TP") + COUNTIF(I88:I121, " TP") + COUNTIF(I31:I72, " TP") + COUNTIF(I8:I13, " TP")</f>
         <v>7</v>
       </c>
-      <c r="K586" s="1">
+      <c r="K586" s="21">
         <f>COUNTIF(K554:K569, "TP") + COUNTIF(K527:K544, "TP") + COUNTIF(K490:K517, "TP") + COUNTIF(K454:K477, "TP") + COUNTIF(K414:K442, "TP") + COUNTIF(K386:K403, "TP") + COUNTIF(K349:K374, "TP") + COUNTIF(K332:K337, "TP") + COUNTIF(K314:K326, "TP") + COUNTIF(K269:K305, "TP") + COUNTIF(K218:K251, "TP") + COUNTIF(K174:K202, "TP") + COUNTIF(K149:K161, "TP") + COUNTIF(K130:K141, "TP") + COUNTIF(K88:K121, "TP") + COUNTIF(K31:K72, "TP") + COUNTIF(K8:K13, "TP")</f>
         <v>374</v>
       </c>
-      <c r="L586" s="1">
+      <c r="L586" s="16">
         <f t="shared" ref="L586:T586" si="125">COUNTIF(L554:L569, "TP") + COUNTIF(L527:L544, "TP") + COUNTIF(L490:L517, "TP") + COUNTIF(L454:L477, "TP") + COUNTIF(L414:L442, "TP") + COUNTIF(L386:L403, "TP") + COUNTIF(L349:L374, "TP") + COUNTIF(L332:L337, "TP") + COUNTIF(L314:L326, "TP") + COUNTIF(L269:L305, "TP") + COUNTIF(L218:L251, "TP") + COUNTIF(L174:L202, "TP") + COUNTIF(L149:L161, "TP") + COUNTIF(L130:L141, "TP") + COUNTIF(L88:L121, "TP") + COUNTIF(L31:L72, "TP") + COUNTIF(L8:L13, "TP")</f>
         <v>0</v>
       </c>
-      <c r="M586" s="1">
+      <c r="M586" s="16">
         <f t="shared" si="125"/>
         <v>373</v>
       </c>
-      <c r="N586" s="1">
+      <c r="N586" s="16">
         <f t="shared" si="125"/>
         <v>208</v>
       </c>
-      <c r="O586" s="1">
+      <c r="O586" s="16">
         <f t="shared" si="125"/>
         <v>373</v>
       </c>
-      <c r="P586" s="1">
+      <c r="P586" s="16">
         <f t="shared" si="125"/>
         <v>279</v>
       </c>
-      <c r="Q586" s="1">
+      <c r="Q586" s="16">
         <f t="shared" si="125"/>
         <v>282</v>
       </c>
-      <c r="R586" s="1">
+      <c r="R586" s="16">
         <f t="shared" si="125"/>
         <v>121</v>
       </c>
-      <c r="S586" s="1">
+      <c r="S586" s="16">
         <f t="shared" si="125"/>
         <v>331</v>
       </c>
-      <c r="T586" s="1">
+      <c r="T586" s="27">
         <f t="shared" si="125"/>
         <v>219</v>
       </c>
     </row>
-    <row r="587" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B587" s="19" t="s">
+    <row r="587" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B587" s="21" t="s">
         <v>485</v>
       </c>
       <c r="C587" s="1">
@@ -36519,555 +36562,741 @@
         <f>COUNTIF(H554:H569, " FN") + COUNTIF(H527:H544, " FN") + COUNTIF(H490:H517, " FN") + COUNTIF(H454:H477, " FN") + COUNTIF(H414:H442, " FN") + COUNTIF(H386:H403, " FN") + COUNTIF(H349:H374, " FN") + COUNTIF(H332:H337, " FN") + COUNTIF(H314:H326, " FN") + COUNTIF(H269:H305, " FN") + COUNTIF(H218:H251, " FN") + COUNTIF(H174:H202, " FN") + COUNTIF(H149:H161, " FN") + COUNTIF(H130:H141, " FN") + COUNTIF(H88:H121, " FN") + COUNTIF(H31:H72, " FN") + COUNTIF(H8:H13, " FN")</f>
         <v>259</v>
       </c>
-      <c r="I587" s="25">
+      <c r="I587" s="27">
         <f>COUNTIF(I554:I569, " FN") + COUNTIF(I527:I544, " FN") + COUNTIF(I490:I517, " FN") + COUNTIF(I454:I477, " FN") + COUNTIF(I414:I442, " FN") + COUNTIF(I386:I403, " FN") + COUNTIF(I349:I374, " FN") + COUNTIF(I332:I337, " FN") + COUNTIF(I314:I326, " FN") + COUNTIF(I269:I305, " FN") + COUNTIF(I218:I251, " FN") + COUNTIF(I174:I202, " FN") + COUNTIF(I149:I161, " FN") + COUNTIF(I130:I141, " FN") + COUNTIF(I88:I121, " FN") + COUNTIF(I31:I72, " FN") + COUNTIF(I8:I13, " FN")</f>
         <v>378</v>
       </c>
-      <c r="K587" s="1">
+      <c r="K587" s="21">
         <f>COUNTIF(K554:K569, "FN") + COUNTIF(K527:K544, "FN") + COUNTIF(K490:K517, "FN") + COUNTIF(K454:K477, "FN") + COUNTIF(K414:K442, "FN") + COUNTIF(K386:K403, "FN") + COUNTIF(K349:K374, "FN") + COUNTIF(K332:K337, "FN") + COUNTIF(K314:K326, "FN") + COUNTIF(K269:K305, "FN") + COUNTIF(K218:K251, "FN") + COUNTIF(K174:K202, "FN") + COUNTIF(K149:K161, "FN") + COUNTIF(K130:K141, "FN") + COUNTIF(K88:K121, "FN") + COUNTIF(K31:K72, "FN") + COUNTIF(K8:K13, "FN")</f>
         <v>11</v>
       </c>
-      <c r="L587" s="1">
+      <c r="L587" s="16">
         <f t="shared" ref="L587:T587" si="126">COUNTIF(L554:L569, "FN") + COUNTIF(L527:L544, "FN") + COUNTIF(L490:L517, "FN") + COUNTIF(L454:L477, "FN") + COUNTIF(L414:L442, "FN") + COUNTIF(L386:L403, "FN") + COUNTIF(L349:L374, "FN") + COUNTIF(L332:L337, "FN") + COUNTIF(L314:L326, "FN") + COUNTIF(L269:L305, "FN") + COUNTIF(L218:L251, "FN") + COUNTIF(L174:L202, "FN") + COUNTIF(L149:L161, "FN") + COUNTIF(L130:L141, "FN") + COUNTIF(L88:L121, "FN") + COUNTIF(L31:L72, "FN") + COUNTIF(L8:L13, "FN")</f>
         <v>385</v>
       </c>
-      <c r="M587" s="1">
+      <c r="M587" s="16">
         <f t="shared" si="126"/>
         <v>12</v>
       </c>
-      <c r="N587" s="1">
+      <c r="N587" s="16">
         <f t="shared" si="126"/>
         <v>177</v>
       </c>
-      <c r="O587" s="1">
+      <c r="O587" s="16">
         <f t="shared" si="126"/>
         <v>12</v>
       </c>
-      <c r="P587" s="1">
+      <c r="P587" s="16">
         <f t="shared" si="126"/>
         <v>106</v>
       </c>
-      <c r="Q587" s="1">
+      <c r="Q587" s="16">
         <f t="shared" si="126"/>
         <v>43</v>
       </c>
-      <c r="R587" s="1">
+      <c r="R587" s="16">
         <f t="shared" si="126"/>
         <v>204</v>
       </c>
-      <c r="S587" s="1">
+      <c r="S587" s="16">
         <f t="shared" si="126"/>
         <v>54</v>
       </c>
-      <c r="T587" s="1">
+      <c r="T587" s="27">
         <f t="shared" si="126"/>
         <v>166</v>
       </c>
     </row>
-    <row r="588" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B588" s="20" t="s">
+    <row r="588" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B588" s="22" t="s">
         <v>483</v>
       </c>
-      <c r="C588" s="15">
+      <c r="C588" s="17">
         <v>395</v>
       </c>
-      <c r="D588" s="15">
+      <c r="D588" s="17">
         <v>27</v>
       </c>
-      <c r="E588" s="15">
-        <v>2</v>
-      </c>
-      <c r="F588" s="15"/>
-      <c r="G588" s="15">
+      <c r="E588" s="17">
+        <v>2</v>
+      </c>
+      <c r="F588" s="17"/>
+      <c r="G588" s="17">
         <v>1</v>
       </c>
-      <c r="H588" s="15"/>
-      <c r="I588" s="26">
-        <v>2</v>
-      </c>
-      <c r="K588" s="11">
+      <c r="H588" s="17"/>
+      <c r="I588" s="28">
+        <v>2</v>
+      </c>
+      <c r="K588" s="53">
         <v>415</v>
       </c>
-      <c r="L588" s="11">
+      <c r="L588" s="14">
         <v>0</v>
       </c>
-      <c r="M588" s="7">
+      <c r="M588" s="54">
         <v>412</v>
       </c>
-      <c r="N588" s="11">
+      <c r="N588" s="14">
         <v>0</v>
       </c>
-      <c r="O588" s="7">
+      <c r="O588" s="54">
         <v>412</v>
       </c>
-      <c r="P588" s="11">
+      <c r="P588" s="14">
         <v>0</v>
       </c>
-      <c r="Q588" s="7">
+      <c r="Q588" s="54">
         <v>396</v>
       </c>
-      <c r="R588" s="11">
+      <c r="R588" s="14">
         <v>0</v>
       </c>
-      <c r="S588" s="7">
+      <c r="S588" s="54">
         <v>29</v>
       </c>
-      <c r="T588" s="11">
+      <c r="T588" s="15">
         <v>0</v>
       </c>
-      <c r="V588" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="589" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B589" s="21" t="s">
+    </row>
+    <row r="589" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B589" s="23" t="s">
         <v>495</v>
       </c>
-      <c r="C589" s="29">
+      <c r="C589" s="31">
         <f>C586/(C586+C588)</f>
         <v>0.41394658753709201</v>
       </c>
-      <c r="D589" s="29">
+      <c r="D589" s="31">
         <f t="shared" ref="D589:K589" si="127">D586/(D586+D588)</f>
         <v>0.9221902017291066</v>
       </c>
-      <c r="E589" s="29">
+      <c r="E589" s="31">
         <f t="shared" si="127"/>
         <v>0.98412698412698407</v>
       </c>
-      <c r="F589" s="29">
+      <c r="F589" s="31">
         <v>0</v>
       </c>
-      <c r="G589" s="29">
+      <c r="G589" s="31">
         <f t="shared" si="127"/>
         <v>0.8</v>
       </c>
-      <c r="I589" s="28"/>
-      <c r="K589" s="37">
+      <c r="I589" s="30"/>
+      <c r="K589" s="50">
         <f t="shared" si="127"/>
         <v>0.47401774397972118</v>
       </c>
-      <c r="L589" s="37" t="e">
+      <c r="L589" s="39" t="e">
         <f t="shared" ref="L589" si="128">L586/(L586+L588)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M589" s="37">
+      <c r="M589" s="39">
         <f t="shared" ref="M589" si="129">M586/(M586+M588)</f>
         <v>0.47515923566878981</v>
       </c>
-      <c r="N589" s="37">
+      <c r="N589" s="39">
         <f t="shared" ref="N589" si="130">N586/(N586+N588)</f>
         <v>1</v>
       </c>
-      <c r="O589" s="37">
+      <c r="O589" s="39">
         <f t="shared" ref="O589" si="131">O586/(O586+O588)</f>
         <v>0.47515923566878981</v>
       </c>
-      <c r="P589" s="37">
+      <c r="P589" s="39">
         <f t="shared" ref="P589" si="132">P586/(P586+P588)</f>
         <v>1</v>
       </c>
-      <c r="Q589" s="37">
+      <c r="Q589" s="39">
         <f t="shared" ref="Q589" si="133">Q586/(Q586+Q588)</f>
         <v>0.41592920353982299</v>
       </c>
-      <c r="R589" s="37">
+      <c r="R589" s="39">
         <f t="shared" ref="R589" si="134">R586/(R586+R588)</f>
         <v>1</v>
       </c>
-      <c r="S589" s="37">
+      <c r="S589" s="39">
         <f t="shared" ref="S589" si="135">S586/(S586+S588)</f>
         <v>0.9194444444444444</v>
       </c>
-      <c r="T589" s="37">
+      <c r="T589" s="33">
         <f t="shared" ref="T589" si="136">T586/(T586+T588)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B590" s="21" t="s">
+    <row r="590" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B590" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="C590" s="29">
+      <c r="C590" s="31">
         <f>C586/(C586+C587)</f>
         <v>0.86111111111111116</v>
       </c>
-      <c r="D590" s="29">
+      <c r="D590" s="31">
         <f t="shared" ref="D590:K590" si="137">D586/(D586+D587)</f>
         <v>0.83116883116883122</v>
       </c>
-      <c r="E590" s="29">
+      <c r="E590" s="31">
         <f t="shared" si="137"/>
         <v>0.5061224489795918</v>
       </c>
-      <c r="F590" s="29">
+      <c r="F590" s="31">
         <v>0</v>
       </c>
-      <c r="G590" s="29">
+      <c r="G590" s="31">
         <f t="shared" si="137"/>
         <v>1.038961038961039E-2</v>
       </c>
       <c r="I590" s="5"/>
-      <c r="K590" s="37">
+      <c r="K590" s="50">
         <f t="shared" si="137"/>
         <v>0.97142857142857142</v>
       </c>
-      <c r="L590" s="37">
+      <c r="L590" s="39">
         <f t="shared" ref="L590:T590" si="138">L586/(L586+L587)</f>
         <v>0</v>
       </c>
-      <c r="M590" s="37">
+      <c r="M590" s="39">
         <f t="shared" si="138"/>
         <v>0.96883116883116882</v>
       </c>
-      <c r="N590" s="37">
+      <c r="N590" s="39">
         <f t="shared" si="138"/>
         <v>0.54025974025974022</v>
       </c>
-      <c r="O590" s="37">
+      <c r="O590" s="39">
         <f t="shared" si="138"/>
         <v>0.96883116883116882</v>
       </c>
-      <c r="P590" s="37">
+      <c r="P590" s="39">
         <f t="shared" si="138"/>
         <v>0.72467532467532469</v>
       </c>
-      <c r="Q590" s="37">
+      <c r="Q590" s="39">
         <f t="shared" si="138"/>
         <v>0.86769230769230765</v>
       </c>
-      <c r="R590" s="37">
+      <c r="R590" s="39">
         <f t="shared" si="138"/>
         <v>0.37230769230769228</v>
       </c>
-      <c r="S590" s="37">
+      <c r="S590" s="39">
         <f t="shared" si="138"/>
         <v>0.85974025974025969</v>
       </c>
-      <c r="T590" s="37">
+      <c r="T590" s="33">
         <f t="shared" si="138"/>
         <v>0.5688311688311688</v>
       </c>
     </row>
-    <row r="591" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B591" s="22" t="s">
+    <row r="591" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B591" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="C591" s="32">
+      <c r="C591" s="34">
         <f>(2*C586)/((2*C586)+C588+C587)</f>
         <v>0.5591182364729459</v>
       </c>
-      <c r="D591" s="32">
+      <c r="D591" s="34">
         <f t="shared" ref="D591:K591" si="139">(2*D586)/((2*D586)+D588+D587)</f>
         <v>0.87431693989071035</v>
       </c>
-      <c r="E591" s="32">
+      <c r="E591" s="34">
         <f t="shared" si="139"/>
         <v>0.66846361185983827</v>
       </c>
-      <c r="F591" s="32">
+      <c r="F591" s="34">
         <v>0</v>
       </c>
-      <c r="G591" s="32">
+      <c r="G591" s="34">
         <f t="shared" si="139"/>
         <v>2.0512820512820513E-2</v>
       </c>
       <c r="H591" s="3"/>
       <c r="I591" s="6"/>
-      <c r="K591" s="37">
+      <c r="K591" s="51">
         <f t="shared" si="139"/>
         <v>0.63713798977853497</v>
       </c>
-      <c r="L591" s="37">
+      <c r="L591" s="34">
         <f t="shared" ref="L591:T591" si="140">(2*L586)/((2*L586)+L588+L587)</f>
         <v>0</v>
       </c>
-      <c r="M591" s="37">
+      <c r="M591" s="34">
         <f t="shared" si="140"/>
         <v>0.63760683760683756</v>
       </c>
-      <c r="N591" s="37">
+      <c r="N591" s="34">
         <f t="shared" si="140"/>
         <v>0.70151770657672852</v>
       </c>
-      <c r="O591" s="37">
+      <c r="O591" s="34">
         <f t="shared" si="140"/>
         <v>0.63760683760683756</v>
       </c>
-      <c r="P591" s="37">
+      <c r="P591" s="34">
         <f t="shared" si="140"/>
         <v>0.84036144578313254</v>
       </c>
-      <c r="Q591" s="37">
+      <c r="Q591" s="34">
         <f t="shared" si="140"/>
         <v>0.56231306081754739</v>
       </c>
-      <c r="R591" s="37">
+      <c r="R591" s="34">
         <f t="shared" si="140"/>
         <v>0.54260089686098656</v>
       </c>
-      <c r="S591" s="37">
+      <c r="S591" s="34">
         <f t="shared" si="140"/>
         <v>0.88859060402684564</v>
       </c>
-      <c r="T591" s="37">
+      <c r="T591" s="35">
         <f t="shared" si="140"/>
         <v>0.72516556291390732</v>
       </c>
     </row>
-    <row r="592" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B592" s="17"/>
-      <c r="C592" s="17"/>
-      <c r="D592" s="17"/>
-      <c r="E592" s="17"/>
-      <c r="F592" s="17"/>
-      <c r="G592" s="17"/>
-      <c r="H592" s="17"/>
-      <c r="I592" s="17"/>
-      <c r="K592" s="11"/>
-      <c r="L592" s="11"/>
-      <c r="M592" s="11"/>
-      <c r="N592" s="11"/>
-      <c r="O592" s="11"/>
-      <c r="P592" s="11"/>
-      <c r="Q592" s="11"/>
-      <c r="R592" s="11"/>
-      <c r="S592" s="11"/>
-      <c r="T592" s="11"/>
-    </row>
-    <row r="593" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B593" s="18" t="s">
+    <row r="592" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B592" s="11"/>
+      <c r="C592" s="11"/>
+      <c r="D592" s="11"/>
+      <c r="E592" s="11"/>
+      <c r="F592" s="11"/>
+      <c r="G592" s="11"/>
+      <c r="H592" s="11"/>
+      <c r="I592" s="11"/>
+      <c r="K592" s="13"/>
+      <c r="L592" s="13"/>
+      <c r="M592" s="13"/>
+      <c r="N592" s="13"/>
+      <c r="O592" s="13"/>
+      <c r="P592" s="13"/>
+      <c r="Q592" s="13"/>
+      <c r="R592" s="13"/>
+      <c r="S592" s="13"/>
+      <c r="T592" s="13"/>
+    </row>
+    <row r="593" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A593" s="41"/>
+      <c r="B593" s="42"/>
+      <c r="C593" s="42"/>
+      <c r="D593" s="42"/>
+      <c r="E593" s="42"/>
+      <c r="F593" s="42"/>
+      <c r="G593" s="42"/>
+      <c r="H593" s="42"/>
+      <c r="I593" s="42"/>
+      <c r="J593" s="42"/>
+      <c r="K593" s="42"/>
+      <c r="L593" s="42"/>
+      <c r="M593" s="42"/>
+      <c r="N593" s="42"/>
+      <c r="O593" s="42"/>
+      <c r="P593" s="42"/>
+      <c r="Q593" s="42"/>
+      <c r="R593" s="42"/>
+      <c r="S593" s="42"/>
+      <c r="T593" s="42"/>
+    </row>
+    <row r="594" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B594" s="13"/>
+      <c r="C594" s="13"/>
+      <c r="D594" s="43"/>
+      <c r="E594" s="43"/>
+      <c r="F594" s="43"/>
+      <c r="G594" s="43"/>
+      <c r="H594" s="43"/>
+      <c r="I594" s="43"/>
+      <c r="J594" s="2"/>
+      <c r="K594" s="44" t="s">
+        <v>508</v>
+      </c>
+      <c r="L594" s="44"/>
+      <c r="M594" s="44" t="s">
+        <v>509</v>
+      </c>
+      <c r="N594" s="44"/>
+      <c r="O594" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="P594" s="44"/>
+      <c r="Q594" s="44" t="s">
+        <v>511</v>
+      </c>
+      <c r="R594" s="44"/>
+      <c r="S594" s="13"/>
+      <c r="T594" s="13"/>
+    </row>
+    <row r="595" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A595" s="8"/>
+      <c r="B595" s="40"/>
+      <c r="C595" s="45"/>
+      <c r="D595" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="E595" s="37"/>
+      <c r="F595" s="37"/>
+      <c r="G595" s="37"/>
+      <c r="H595" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="I595" s="46" t="s">
+        <v>506</v>
+      </c>
+      <c r="J595" s="8"/>
+      <c r="K595" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="L595" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="M595" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="N595" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="O595" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="P595" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q595" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="R595" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="S595" s="13"/>
+      <c r="T595" s="13"/>
+    </row>
+    <row r="596" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B596" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="C593" s="1"/>
-      <c r="D593" s="1">
-        <v>78</v>
-      </c>
-      <c r="E593" s="1"/>
-      <c r="F593" s="1"/>
-      <c r="G593" s="1"/>
-      <c r="H593" s="1">
+      <c r="C596" s="1"/>
+      <c r="D596" s="1">
+        <v>77</v>
+      </c>
+      <c r="E596" s="1"/>
+      <c r="F596" s="1"/>
+      <c r="G596" s="1"/>
+      <c r="H596" s="1">
         <v>90</v>
       </c>
-      <c r="I593" s="24">
-        <v>85</v>
-      </c>
-      <c r="K593" s="7">
+      <c r="I596" s="26">
+        <v>86</v>
+      </c>
+      <c r="K596" s="52">
         <v>131</v>
       </c>
-      <c r="L593" s="7">
+      <c r="L596" s="7">
         <v>52</v>
       </c>
-      <c r="M593" s="11"/>
-      <c r="N593" s="11"/>
-      <c r="O593" s="11"/>
-      <c r="P593" s="11"/>
-      <c r="Q593" s="11"/>
-      <c r="R593" s="11"/>
-      <c r="S593" s="11"/>
-      <c r="T593" s="11"/>
-    </row>
-    <row r="594" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B594" s="19" t="s">
+      <c r="M596" s="7">
+        <v>123</v>
+      </c>
+      <c r="N596" s="7">
+        <v>71</v>
+      </c>
+      <c r="O596" s="7">
+        <v>111</v>
+      </c>
+      <c r="P596" s="7">
+        <v>52</v>
+      </c>
+      <c r="Q596" s="7">
+        <v>123</v>
+      </c>
+      <c r="R596" s="7">
+        <v>79</v>
+      </c>
+      <c r="S596" s="23"/>
+      <c r="T596" s="13"/>
+    </row>
+    <row r="597" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B597" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="C594" s="1"/>
-      <c r="D594" s="1">
+      <c r="C597" s="1"/>
+      <c r="D597" s="1">
         <v>72</v>
       </c>
-      <c r="E594" s="1"/>
-      <c r="F594" s="1"/>
-      <c r="G594" s="1"/>
-      <c r="H594" s="1">
-        <v>32</v>
-      </c>
-      <c r="I594" s="25">
-        <v>65</v>
-      </c>
-      <c r="K594" s="7">
+      <c r="E597" s="1"/>
+      <c r="F597" s="1"/>
+      <c r="G597" s="1"/>
+      <c r="H597" s="1">
+        <v>31</v>
+      </c>
+      <c r="I597" s="27">
+        <v>63</v>
+      </c>
+      <c r="K597" s="49">
         <v>18</v>
       </c>
-      <c r="L594" s="7">
+      <c r="L597" s="7">
         <v>97</v>
       </c>
-      <c r="M594" s="11"/>
-      <c r="N594" s="11"/>
-      <c r="O594" s="11"/>
-      <c r="P594" s="11"/>
-      <c r="Q594" s="11"/>
-      <c r="R594" s="11"/>
-      <c r="S594" s="11"/>
-      <c r="T594" s="11"/>
-    </row>
-    <row r="595" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B595" s="20" t="s">
+      <c r="M597" s="7">
+        <v>27</v>
+      </c>
+      <c r="N597" s="7">
+        <v>79</v>
+      </c>
+      <c r="O597" s="7">
+        <v>38</v>
+      </c>
+      <c r="P597" s="7">
+        <v>97</v>
+      </c>
+      <c r="Q597" s="7">
+        <v>26</v>
+      </c>
+      <c r="R597" s="7">
+        <v>70</v>
+      </c>
+      <c r="S597" s="23"/>
+      <c r="T597" s="13"/>
+    </row>
+    <row r="598" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B598" s="22" t="s">
         <v>482</v>
       </c>
-      <c r="C595" s="15"/>
-      <c r="D595" s="15">
+      <c r="C598" s="17"/>
+      <c r="D598" s="17">
         <v>22</v>
       </c>
-      <c r="E595" s="15"/>
-      <c r="F595" s="15"/>
-      <c r="G595" s="15"/>
-      <c r="H595" s="15">
-        <v>2</v>
-      </c>
-      <c r="I595" s="26">
+      <c r="E598" s="17"/>
+      <c r="F598" s="17"/>
+      <c r="G598" s="17"/>
+      <c r="H598" s="17">
+        <v>6</v>
+      </c>
+      <c r="I598" s="28">
+        <v>11</v>
+      </c>
+      <c r="K598" s="53">
+        <v>34</v>
+      </c>
+      <c r="L598" s="54">
+        <v>2</v>
+      </c>
+      <c r="M598" s="54">
+        <v>26</v>
+      </c>
+      <c r="N598" s="54">
+        <v>3</v>
+      </c>
+      <c r="O598" s="14">
+        <v>31</v>
+      </c>
+      <c r="P598" s="54">
+        <v>2</v>
+      </c>
+      <c r="Q598" s="14">
         <v>14</v>
       </c>
-      <c r="K595" s="11">
-        <v>34</v>
-      </c>
-      <c r="L595" s="7">
-        <v>2</v>
-      </c>
-      <c r="M595" s="7"/>
-      <c r="N595" s="7"/>
-      <c r="O595" s="11"/>
-      <c r="P595" s="7"/>
-      <c r="Q595" s="11"/>
-      <c r="R595" s="11"/>
-      <c r="S595" s="11"/>
-      <c r="T595" s="11"/>
-    </row>
-    <row r="596" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B596" s="19" t="s">
+      <c r="R598" s="15">
+        <v>3</v>
+      </c>
+      <c r="S598" s="23"/>
+      <c r="T598" s="13"/>
+    </row>
+    <row r="599" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B599" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="C596" s="14"/>
-      <c r="D596" s="29">
-        <f>D593/(D593+D595)</f>
-        <v>0.78</v>
-      </c>
-      <c r="E596" s="29"/>
-      <c r="F596" s="29"/>
-      <c r="G596" s="29"/>
-      <c r="H596" s="29">
-        <f t="shared" ref="E596:K596" si="141">H593/(H593+H595)</f>
-        <v>0.97826086956521741</v>
-      </c>
-      <c r="I596" s="30">
+      <c r="C599" s="16"/>
+      <c r="D599" s="31">
+        <f>D596/(D596+D598)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E599" s="31"/>
+      <c r="F599" s="31"/>
+      <c r="G599" s="31"/>
+      <c r="H599" s="31">
+        <f t="shared" ref="E599:K599" si="141">H596/(H596+H598)</f>
+        <v>0.9375</v>
+      </c>
+      <c r="I599" s="32">
         <f t="shared" si="141"/>
-        <v>0.85858585858585856</v>
-      </c>
-      <c r="K596" s="37">
+        <v>0.88659793814432986</v>
+      </c>
+      <c r="K599" s="50">
         <f t="shared" si="141"/>
         <v>0.79393939393939394</v>
       </c>
-      <c r="L596" s="37">
-        <f t="shared" ref="L596" si="142">L593/(L593+L595)</f>
+      <c r="L599" s="39">
+        <f t="shared" ref="L599" si="142">L596/(L596+L598)</f>
         <v>0.96296296296296291</v>
       </c>
-      <c r="M596" s="37"/>
-      <c r="N596" s="37"/>
-      <c r="O596" s="37"/>
-      <c r="P596" s="37"/>
-      <c r="Q596" s="37"/>
-      <c r="R596" s="37"/>
-      <c r="S596" s="37"/>
-      <c r="T596" s="37"/>
-    </row>
-    <row r="597" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B597" s="19" t="s">
+      <c r="M599" s="39">
+        <f t="shared" ref="M599" si="143">M596/(M596+M598)</f>
+        <v>0.82550335570469802</v>
+      </c>
+      <c r="N599" s="39">
+        <f t="shared" ref="N599" si="144">N596/(N596+N598)</f>
+        <v>0.95945945945945943</v>
+      </c>
+      <c r="O599" s="39">
+        <f t="shared" ref="O599" si="145">O596/(O596+O598)</f>
+        <v>0.78169014084507038</v>
+      </c>
+      <c r="P599" s="39">
+        <f t="shared" ref="P599" si="146">P596/(P596+P598)</f>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="Q599" s="39">
+        <f t="shared" ref="Q599" si="147">Q596/(Q596+Q598)</f>
+        <v>0.8978102189781022</v>
+      </c>
+      <c r="R599" s="39">
+        <f t="shared" ref="R599" si="148">R596/(R596+R598)</f>
+        <v>0.96341463414634143</v>
+      </c>
+      <c r="S599" s="50"/>
+      <c r="T599" s="39"/>
+    </row>
+    <row r="600" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B600" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="C597" s="14"/>
-      <c r="D597" s="29">
-        <f>D593/(D593+D594)</f>
-        <v>0.52</v>
-      </c>
-      <c r="E597" s="29"/>
-      <c r="F597" s="29"/>
-      <c r="G597" s="29"/>
-      <c r="H597" s="29">
-        <f t="shared" ref="E597:K597" si="143">H593/(H593+H594)</f>
-        <v>0.73770491803278693</v>
-      </c>
-      <c r="I597" s="31">
-        <f t="shared" si="143"/>
-        <v>0.56666666666666665</v>
-      </c>
-      <c r="K597" s="37">
-        <f t="shared" si="143"/>
+      <c r="C600" s="16"/>
+      <c r="D600" s="31">
+        <f>D596/(D596+D597)</f>
+        <v>0.51677852348993292</v>
+      </c>
+      <c r="E600" s="31"/>
+      <c r="F600" s="31"/>
+      <c r="G600" s="31"/>
+      <c r="H600" s="31">
+        <f t="shared" ref="E600:K600" si="149">H596/(H596+H597)</f>
+        <v>0.74380165289256195</v>
+      </c>
+      <c r="I600" s="33">
+        <f t="shared" si="149"/>
+        <v>0.57718120805369133</v>
+      </c>
+      <c r="K600" s="50">
+        <f t="shared" si="149"/>
         <v>0.87919463087248317</v>
       </c>
-      <c r="L597" s="37">
-        <f t="shared" ref="L597:T597" si="144">L593/(L593+L594)</f>
+      <c r="L600" s="39">
+        <f t="shared" ref="L600:T600" si="150">L596/(L596+L597)</f>
         <v>0.34899328859060402</v>
       </c>
-      <c r="M597" s="37"/>
-      <c r="N597" s="37"/>
-      <c r="O597" s="37"/>
-      <c r="P597" s="37"/>
-      <c r="Q597" s="37"/>
-      <c r="R597" s="37"/>
-      <c r="S597" s="37"/>
-      <c r="T597" s="37"/>
-    </row>
-    <row r="598" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B598" s="23" t="s">
+      <c r="M600" s="39">
+        <f t="shared" ref="M600:R600" si="151">M596/(M596+M597)</f>
+        <v>0.82</v>
+      </c>
+      <c r="N600" s="39">
+        <f t="shared" si="151"/>
+        <v>0.47333333333333333</v>
+      </c>
+      <c r="O600" s="39">
+        <f t="shared" si="151"/>
+        <v>0.74496644295302017</v>
+      </c>
+      <c r="P600" s="39">
+        <f t="shared" si="151"/>
+        <v>0.34899328859060402</v>
+      </c>
+      <c r="Q600" s="39">
+        <f t="shared" si="151"/>
+        <v>0.82550335570469802</v>
+      </c>
+      <c r="R600" s="39">
+        <f t="shared" si="151"/>
+        <v>0.53020134228187921</v>
+      </c>
+      <c r="S600" s="50"/>
+      <c r="T600" s="39"/>
+    </row>
+    <row r="601" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B601" s="25" t="s">
         <v>500</v>
       </c>
-      <c r="C598" s="16"/>
-      <c r="D598" s="32">
-        <f>(2*D593)/((2*D593)+D595+D594)</f>
-        <v>0.624</v>
-      </c>
-      <c r="E598" s="32"/>
-      <c r="F598" s="32"/>
-      <c r="G598" s="32"/>
-      <c r="H598" s="32">
-        <f t="shared" ref="E598:K598" si="145">(2*H593)/((2*H593)+H595+H594)</f>
-        <v>0.84112149532710279</v>
-      </c>
-      <c r="I598" s="33">
-        <f t="shared" si="145"/>
-        <v>0.68273092369477917</v>
-      </c>
-      <c r="K598" s="37">
-        <f t="shared" si="145"/>
+      <c r="C601" s="18"/>
+      <c r="D601" s="34">
+        <f>(2*D596)/((2*D596)+D598+D597)</f>
+        <v>0.62096774193548387</v>
+      </c>
+      <c r="E601" s="34"/>
+      <c r="F601" s="34"/>
+      <c r="G601" s="34"/>
+      <c r="H601" s="34">
+        <f t="shared" ref="E601:K601" si="152">(2*H596)/((2*H596)+H598+H597)</f>
+        <v>0.82949308755760365</v>
+      </c>
+      <c r="I601" s="35">
+        <f t="shared" si="152"/>
+        <v>0.69918699186991873</v>
+      </c>
+      <c r="K601" s="51">
+        <f t="shared" si="152"/>
         <v>0.83439490445859876</v>
       </c>
-      <c r="L598" s="37">
-        <f t="shared" ref="L598:T598" si="146">(2*L593)/((2*L593)+L595+L594)</f>
+      <c r="L601" s="34">
+        <f t="shared" ref="L601:T601" si="153">(2*L596)/((2*L596)+L598+L597)</f>
         <v>0.51231527093596063</v>
       </c>
-      <c r="M598" s="37"/>
-      <c r="N598" s="37"/>
-      <c r="O598" s="37"/>
-      <c r="P598" s="37"/>
-      <c r="Q598" s="37"/>
-      <c r="R598" s="37"/>
-      <c r="S598" s="37"/>
-      <c r="T598" s="37"/>
-    </row>
-    <row r="599" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B599" s="11"/>
-      <c r="C599" s="11"/>
-      <c r="D599" s="11"/>
-      <c r="E599" s="11"/>
-      <c r="F599" s="11"/>
-      <c r="G599" s="11"/>
-      <c r="H599" s="11"/>
-      <c r="I599" s="11"/>
-    </row>
-    <row r="600" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B600" s="11"/>
-      <c r="C600" s="11"/>
-      <c r="D600" s="11"/>
-      <c r="E600" s="11"/>
-      <c r="F600" s="11"/>
-      <c r="G600" s="11"/>
-      <c r="H600" s="11"/>
-      <c r="I600" s="11"/>
+      <c r="M601" s="34">
+        <f t="shared" ref="M601:R601" si="154">(2*M596)/((2*M596)+M598+M597)</f>
+        <v>0.82274247491638797</v>
+      </c>
+      <c r="N601" s="34">
+        <f t="shared" si="154"/>
+        <v>0.6339285714285714</v>
+      </c>
+      <c r="O601" s="34">
+        <f t="shared" si="154"/>
+        <v>0.76288659793814428</v>
+      </c>
+      <c r="P601" s="34">
+        <f t="shared" si="154"/>
+        <v>0.51231527093596063</v>
+      </c>
+      <c r="Q601" s="34">
+        <f t="shared" si="154"/>
+        <v>0.8601398601398601</v>
+      </c>
+      <c r="R601" s="34">
+        <f t="shared" si="154"/>
+        <v>0.68398268398268403</v>
+      </c>
+      <c r="S601" s="50"/>
+      <c r="T601" s="39"/>
+    </row>
+    <row r="602" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B602" s="13"/>
+      <c r="C602" s="13"/>
+      <c r="D602" s="13"/>
+      <c r="E602" s="13"/>
+      <c r="F602" s="13"/>
+      <c r="G602" s="13"/>
+      <c r="H602" s="13"/>
+      <c r="I602" s="13"/>
+    </row>
+    <row r="603" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B603" s="13"/>
+      <c r="C603" s="13"/>
+      <c r="D603" s="13"/>
+      <c r="E603" s="13"/>
+      <c r="F603" s="13"/>
+      <c r="G603" s="13"/>
+      <c r="H603" s="13"/>
+      <c r="I603" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
+    <mergeCell ref="K594:L594"/>
+    <mergeCell ref="M594:N594"/>
+    <mergeCell ref="O594:P594"/>
+    <mergeCell ref="Q594:R594"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:I569">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="FP">

--- a/merged_results/complete_results.xlsx
+++ b/merged_results/complete_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Documents/Own/Papers_and_Projects/comparison_ArchRec_tools/GitHub_SARbenchmarks/merged_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C205A821-5FE2-094D-BC68-5835C8899DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAAF6E2-2B25-7D46-BBA2-C4D1CA873FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{21E6DDBE-06EB-864D-8BE4-57F9A90E46C0}"/>
   </bookViews>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3315" uniqueCount="517">
   <si>
     <t xml:space="preserve"> RAD</t>
   </si>
@@ -1818,6 +1818,21 @@
   </si>
   <si>
     <t>RAD + RAS</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Components: C2D</t>
+  </si>
+  <si>
+    <t>Connections: C2D + MDG OR</t>
+  </si>
+  <si>
+    <t>Endpoints: RAD + RAS OR</t>
+  </si>
+  <si>
+    <t>Sum</t>
   </si>
 </sst>
 </file>
@@ -1841,12 +1856,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2009,7 +2030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2017,6 +2038,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2052,7 +2074,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2086,6 +2108,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2486,11 +2515,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E181CEDB-9761-A944-9A62-062C9F034F3F}">
-  <dimension ref="A1:Y603"/>
+  <dimension ref="A1:Y617"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A580" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J601" sqref="J601"/>
+      <pane ySplit="2" topLeftCell="A590" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G610" sqref="G610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2504,26 +2533,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="L1" s="9"/>
+      <c r="L1" s="10"/>
       <c r="M1" s="2" t="s">
         <v>474</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9" t="s">
+      <c r="R1" s="10"/>
+      <c r="S1" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="T1" s="9"/>
+      <c r="T1" s="10"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
@@ -2533,55 +2562,55 @@
       <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>501</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>502</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="37" t="s">
         <v>503</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="38" t="s">
         <v>505</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="11" t="s">
         <v>471</v>
       </c>
     </row>
@@ -2765,20 +2794,20 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
         <v>TP</v>
@@ -3994,22 +4023,22 @@
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="C30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>TP</v>
@@ -4061,7 +4090,7 @@
       <c r="D31" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="14" t="s">
         <v>4</v>
       </c>
       <c r="I31" s="5" t="s">
@@ -4118,7 +4147,7 @@
       <c r="D32" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="14" t="s">
         <v>4</v>
       </c>
       <c r="I32" s="5" t="s">
@@ -7265,24 +7294,24 @@
       </c>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H87" s="14"/>
-      <c r="I87" s="15"/>
+      <c r="C87" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="16"/>
       <c r="K87" t="str">
         <f t="shared" si="12"/>
         <v>TP</v>
@@ -7337,7 +7366,7 @@
       <c r="E88" t="s">
         <v>4</v>
       </c>
-      <c r="G88" s="13" t="s">
+      <c r="G88" s="14" t="s">
         <v>4</v>
       </c>
       <c r="H88" t="s">
@@ -7400,7 +7429,7 @@
       <c r="E89" t="s">
         <v>2</v>
       </c>
-      <c r="G89" s="13" t="s">
+      <c r="G89" s="14" t="s">
         <v>4</v>
       </c>
       <c r="H89" t="s">
@@ -9878,24 +9907,24 @@
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C129" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D129" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E129" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H129" s="14"/>
-      <c r="I129" s="15"/>
+      <c r="C129" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E129" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="16"/>
       <c r="K129" t="str">
         <f t="shared" si="12"/>
         <v>TP</v>
@@ -9950,7 +9979,7 @@
       <c r="E130" t="s">
         <v>2</v>
       </c>
-      <c r="G130" s="13" t="s">
+      <c r="G130" s="14" t="s">
         <v>4</v>
       </c>
       <c r="H130" t="s">
@@ -10013,7 +10042,7 @@
       <c r="E131" t="s">
         <v>2</v>
       </c>
-      <c r="G131" s="13" t="s">
+      <c r="G131" s="14" t="s">
         <v>4</v>
       </c>
       <c r="H131" t="s">
@@ -11065,26 +11094,26 @@
       </c>
     </row>
     <row r="148" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C148" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D148" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E148" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F148" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G148" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H148" s="14"/>
-      <c r="I148" s="15"/>
+      <c r="C148" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E148" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G148" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H148" s="15"/>
+      <c r="I148" s="16"/>
       <c r="K148" t="str">
         <f t="shared" si="22"/>
         <v>TP</v>
@@ -11139,7 +11168,7 @@
       <c r="E149" t="s">
         <v>2</v>
       </c>
-      <c r="G149" s="13" t="s">
+      <c r="G149" s="14" t="s">
         <v>4</v>
       </c>
       <c r="H149" t="s">
@@ -11202,7 +11231,7 @@
       <c r="E150" t="s">
         <v>4</v>
       </c>
-      <c r="G150" s="13" t="s">
+      <c r="G150" s="14" t="s">
         <v>4</v>
       </c>
       <c r="H150" t="s">
@@ -11265,7 +11294,7 @@
       <c r="E151" t="s">
         <v>4</v>
       </c>
-      <c r="G151" s="13" t="s">
+      <c r="G151" s="14" t="s">
         <v>4</v>
       </c>
       <c r="H151" t="s">
@@ -11328,7 +11357,7 @@
       <c r="E152" t="s">
         <v>2</v>
       </c>
-      <c r="G152" s="13" t="s">
+      <c r="G152" s="14" t="s">
         <v>4</v>
       </c>
       <c r="H152" t="s">
@@ -12622,26 +12651,26 @@
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B173" s="14" t="s">
+      <c r="B173" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C173" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D173" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E173" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F173" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G173" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H173" s="14"/>
-      <c r="I173" s="15"/>
+      <c r="C173" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E173" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F173" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G173" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H173" s="15"/>
+      <c r="I173" s="16"/>
       <c r="K173" t="str">
         <f t="shared" si="22"/>
         <v>TP</v>
@@ -15242,24 +15271,24 @@
       </c>
     </row>
     <row r="217" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B217" s="14" t="s">
+      <c r="B217" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C217" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D217" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E217" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F217" s="14"/>
-      <c r="G217" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H217" s="14"/>
-      <c r="I217" s="15"/>
+      <c r="C217" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E217" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F217" s="15"/>
+      <c r="G217" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H217" s="15"/>
+      <c r="I217" s="16"/>
       <c r="K217" t="str">
         <f t="shared" si="32"/>
         <v>TP</v>
@@ -18377,24 +18406,24 @@
       </c>
     </row>
     <row r="268" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B268" s="14" t="s">
+      <c r="B268" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C268" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D268" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E268" s="14"/>
-      <c r="F268" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G268" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H268" s="14"/>
-      <c r="I268" s="15"/>
+      <c r="C268" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D268" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E268" s="15"/>
+      <c r="F268" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G268" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H268" s="15"/>
+      <c r="I268" s="16"/>
       <c r="K268" t="str">
         <f t="shared" si="42"/>
         <v>TP</v>
@@ -20971,20 +21000,20 @@
       </c>
     </row>
     <row r="313" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B313" s="14" t="s">
+      <c r="B313" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="C313" s="14"/>
-      <c r="D313" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E313" s="14"/>
-      <c r="F313" s="14"/>
-      <c r="G313" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H313" s="14"/>
-      <c r="I313" s="15"/>
+      <c r="C313" s="15"/>
+      <c r="D313" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E313" s="15"/>
+      <c r="F313" s="15"/>
+      <c r="G313" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H313" s="15"/>
+      <c r="I313" s="16"/>
       <c r="K313" t="str">
         <f t="shared" si="42"/>
         <v>TP</v>
@@ -21839,20 +21868,20 @@
       </c>
     </row>
     <row r="331" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B331" s="14" t="s">
+      <c r="B331" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="C331" s="14"/>
-      <c r="D331" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E331" s="14"/>
-      <c r="F331" s="14"/>
-      <c r="G331" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H331" s="14"/>
-      <c r="I331" s="15"/>
+      <c r="C331" s="15"/>
+      <c r="D331" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E331" s="15"/>
+      <c r="F331" s="15"/>
+      <c r="G331" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H331" s="15"/>
+      <c r="I331" s="16"/>
       <c r="K331" t="str">
         <f t="shared" si="52"/>
         <v>TP</v>
@@ -22768,24 +22797,24 @@
       </c>
     </row>
     <row r="348" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B348" s="14" t="s">
+      <c r="B348" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C348" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D348" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E348" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F348" s="14"/>
-      <c r="G348" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H348" s="14"/>
-      <c r="I348" s="15"/>
+      <c r="C348" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D348" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E348" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F348" s="15"/>
+      <c r="G348" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H348" s="15"/>
+      <c r="I348" s="16"/>
       <c r="K348" t="str">
         <f t="shared" si="52"/>
         <v>TP</v>
@@ -24834,20 +24863,20 @@
       </c>
     </row>
     <row r="385" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B385" s="14" t="s">
+      <c r="B385" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C385" s="14"/>
-      <c r="D385" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E385" s="14"/>
-      <c r="F385" s="14"/>
-      <c r="G385" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H385" s="14"/>
-      <c r="I385" s="15"/>
+      <c r="C385" s="15"/>
+      <c r="D385" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E385" s="15"/>
+      <c r="F385" s="15"/>
+      <c r="G385" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H385" s="15"/>
+      <c r="I385" s="16"/>
       <c r="K385" t="str">
         <f t="shared" si="52"/>
         <v>TP</v>
@@ -26293,24 +26322,24 @@
       </c>
     </row>
     <row r="413" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B413" s="14" t="s">
+      <c r="B413" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C413" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D413" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E413" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F413" s="14"/>
-      <c r="G413" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H413" s="14"/>
-      <c r="I413" s="15"/>
+      <c r="C413" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D413" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E413" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F413" s="15"/>
+      <c r="G413" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H413" s="15"/>
+      <c r="I413" s="16"/>
       <c r="K413" t="str">
         <f t="shared" si="62"/>
         <v>TP</v>
@@ -28679,24 +28708,24 @@
       </c>
     </row>
     <row r="453" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B453" s="14" t="s">
+      <c r="B453" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C453" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D453" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E453" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F453" s="14"/>
-      <c r="G453" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H453" s="14"/>
-      <c r="I453" s="15"/>
+      <c r="C453" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D453" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E453" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F453" s="15"/>
+      <c r="G453" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H453" s="15"/>
+      <c r="I453" s="16"/>
       <c r="K453" t="str">
         <f t="shared" si="72"/>
         <v>TP</v>
@@ -30927,26 +30956,26 @@
       </c>
     </row>
     <row r="489" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B489" s="14" t="s">
+      <c r="B489" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C489" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D489" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E489" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F489" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G489" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H489" s="14"/>
-      <c r="I489" s="15"/>
+      <c r="C489" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D489" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E489" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F489" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G489" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H489" s="15"/>
+      <c r="I489" s="16"/>
       <c r="K489" t="str">
         <f t="shared" si="72"/>
         <v>TP</v>
@@ -33134,22 +33163,22 @@
       </c>
     </row>
     <row r="526" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B526" s="14" t="s">
+      <c r="B526" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C526" s="14"/>
-      <c r="D526" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E526" s="14"/>
-      <c r="F526" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G526" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H526" s="14"/>
-      <c r="I526" s="15"/>
+      <c r="C526" s="15"/>
+      <c r="D526" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E526" s="15"/>
+      <c r="F526" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G526" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H526" s="15"/>
+      <c r="I526" s="16"/>
       <c r="K526" t="str">
         <f t="shared" si="82"/>
         <v>TP</v>
@@ -34545,24 +34574,24 @@
       </c>
     </row>
     <row r="553" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B553" s="14" t="s">
+      <c r="B553" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="C553" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D553" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E553" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F553" s="14"/>
-      <c r="G553" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H553" s="14"/>
-      <c r="I553" s="15"/>
+      <c r="C553" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D553" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E553" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F553" s="15"/>
+      <c r="G553" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H553" s="15"/>
+      <c r="I553" s="16"/>
       <c r="K553" t="str">
         <f t="shared" si="82"/>
         <v>TP</v>
@@ -35615,457 +35644,457 @@
       </c>
     </row>
     <row r="572" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B572" s="20" t="s">
+      <c r="B572" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="C572" s="12">
+      <c r="C572" s="13">
         <f>COUNTIF(C3:C569, " TP") + C596</f>
         <v>402</v>
       </c>
-      <c r="D572" s="12">
+      <c r="D572" s="13">
         <f t="shared" ref="D572:I572" si="92">COUNTIF(D3:D569, " TP") + D596</f>
         <v>575</v>
       </c>
-      <c r="E572" s="12">
+      <c r="E572" s="13">
         <f t="shared" si="92"/>
         <v>208</v>
       </c>
-      <c r="F572" s="12">
+      <c r="F572" s="13">
         <f t="shared" si="92"/>
         <v>32</v>
       </c>
-      <c r="G572" s="12">
+      <c r="G572" s="13">
         <f t="shared" si="92"/>
         <v>31</v>
       </c>
-      <c r="H572" s="12">
+      <c r="H572" s="13">
         <f t="shared" si="92"/>
         <v>90</v>
       </c>
-      <c r="I572" s="26">
+      <c r="I572" s="27">
         <f t="shared" si="92"/>
         <v>93</v>
       </c>
-      <c r="K572" s="47">
+      <c r="K572" s="48">
         <f>COUNTIF(K3:K569, "TP") + K596</f>
         <v>684</v>
       </c>
-      <c r="L572" s="11">
+      <c r="L572" s="12">
         <f>COUNTIF(L3:L569, "TP") + L596</f>
         <v>76</v>
       </c>
-      <c r="M572" s="11">
+      <c r="M572" s="12">
         <f t="shared" ref="L572:S572" si="93">COUNTIF(M3:M569, "TP")</f>
         <v>552</v>
       </c>
-      <c r="N572" s="11">
+      <c r="N572" s="12">
         <f t="shared" si="93"/>
         <v>353</v>
       </c>
-      <c r="O572" s="11">
+      <c r="O572" s="12">
         <f t="shared" si="93"/>
         <v>552</v>
       </c>
-      <c r="P572" s="11">
+      <c r="P572" s="12">
         <f t="shared" si="93"/>
         <v>437</v>
       </c>
-      <c r="Q572" s="11">
+      <c r="Q572" s="12">
         <f t="shared" si="93"/>
         <v>407</v>
       </c>
-      <c r="R572" s="11">
+      <c r="R572" s="12">
         <f t="shared" si="93"/>
         <v>203</v>
       </c>
-      <c r="S572" s="11">
+      <c r="S572" s="12">
         <f t="shared" si="93"/>
         <v>509</v>
       </c>
-      <c r="T572" s="48">
+      <c r="T572" s="49">
         <f>COUNTIF(T3:T569, "TP")</f>
         <v>372</v>
       </c>
     </row>
     <row r="573" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B573" s="21" t="s">
+      <c r="B573" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="C573" s="16">
+      <c r="C573" s="17">
         <f>COUNTIF(C3:C569, " FN") + C597</f>
         <v>66</v>
       </c>
-      <c r="D573" s="16">
+      <c r="D573" s="17">
         <f t="shared" ref="D573:I573" si="94">COUNTIF(D3:D569, " FN") + D597</f>
         <v>141</v>
       </c>
-      <c r="E573" s="16">
+      <c r="E573" s="17">
         <f t="shared" si="94"/>
         <v>147</v>
       </c>
-      <c r="F573" s="16">
+      <c r="F573" s="17">
         <f t="shared" si="94"/>
         <v>25</v>
       </c>
-      <c r="G573" s="16">
+      <c r="G573" s="17">
         <f t="shared" si="94"/>
         <v>536</v>
       </c>
-      <c r="H573" s="16">
+      <c r="H573" s="17">
         <f t="shared" si="94"/>
         <v>290</v>
       </c>
-      <c r="I573" s="27">
+      <c r="I573" s="28">
         <f t="shared" si="94"/>
         <v>441</v>
       </c>
-      <c r="K573" s="21">
+      <c r="K573" s="22">
         <f>COUNTIF(K3:K569, "FN") + K597</f>
         <v>32</v>
       </c>
-      <c r="L573" s="16">
+      <c r="L573" s="17">
         <f>COUNTIF(L3:L569, "FN") + L597</f>
         <v>640</v>
       </c>
-      <c r="M573" s="16">
+      <c r="M573" s="17">
         <f t="shared" ref="L573:T573" si="95">COUNTIF(M3:M569, "FN")</f>
         <v>15</v>
       </c>
-      <c r="N573" s="16">
+      <c r="N573" s="17">
         <f t="shared" si="95"/>
         <v>214</v>
       </c>
-      <c r="O573" s="16">
+      <c r="O573" s="17">
         <f t="shared" si="95"/>
         <v>15</v>
       </c>
-      <c r="P573" s="16">
+      <c r="P573" s="17">
         <f t="shared" si="95"/>
         <v>130</v>
       </c>
-      <c r="Q573" s="16">
+      <c r="Q573" s="17">
         <f t="shared" si="95"/>
         <v>62</v>
       </c>
-      <c r="R573" s="16">
+      <c r="R573" s="17">
         <f t="shared" si="95"/>
         <v>266</v>
       </c>
-      <c r="S573" s="16">
+      <c r="S573" s="17">
         <f>COUNTIF(S3:S569, "FN")</f>
         <v>58</v>
       </c>
-      <c r="T573" s="27">
+      <c r="T573" s="28">
         <f t="shared" si="95"/>
         <v>195</v>
       </c>
     </row>
     <row r="574" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B574" s="22" t="s">
+      <c r="B574" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="C574" s="17">
+      <c r="C574" s="18">
         <v>436</v>
       </c>
-      <c r="D574" s="17">
+      <c r="D574" s="18">
         <v>54</v>
       </c>
-      <c r="E574" s="17">
-        <v>2</v>
-      </c>
-      <c r="F574" s="17">
+      <c r="E574" s="18">
+        <v>2</v>
+      </c>
+      <c r="F574" s="18">
         <v>1</v>
       </c>
-      <c r="G574" s="17">
+      <c r="G574" s="18">
         <v>22</v>
       </c>
-      <c r="H574" s="17">
-        <v>2</v>
-      </c>
-      <c r="I574" s="28">
+      <c r="H574" s="18">
+        <v>2</v>
+      </c>
+      <c r="I574" s="29">
         <v>16</v>
       </c>
-      <c r="J574" s="13"/>
-      <c r="K574" s="55">
+      <c r="J574" s="14"/>
+      <c r="K574" s="56">
         <f>K581+K588+K598</f>
         <v>517</v>
       </c>
-      <c r="L574" s="54">
-        <v>2</v>
-      </c>
-      <c r="M574" s="54">
+      <c r="L574" s="55">
+        <v>2</v>
+      </c>
+      <c r="M574" s="55">
         <f>M581+M588</f>
         <v>458</v>
       </c>
-      <c r="N574" s="54">
+      <c r="N574" s="55">
         <v>0</v>
       </c>
-      <c r="O574" s="54">
+      <c r="O574" s="55">
         <f>O581+O588</f>
         <v>458</v>
       </c>
-      <c r="P574" s="54">
+      <c r="P574" s="55">
         <v>0</v>
       </c>
-      <c r="Q574" s="54">
+      <c r="Q574" s="55">
         <f>Q581+Q588</f>
         <v>437</v>
       </c>
-      <c r="R574" s="54">
+      <c r="R574" s="55">
         <v>0</v>
       </c>
-      <c r="S574" s="54">
+      <c r="S574" s="55">
         <f>S581+S588</f>
         <v>34</v>
       </c>
-      <c r="T574" s="15">
+      <c r="T574" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B575" s="23" t="s">
+      <c r="B575" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="C575" s="31">
+      <c r="C575" s="32">
         <f>C572/(C572+C574)</f>
         <v>0.47971360381861577</v>
       </c>
-      <c r="D575" s="31">
+      <c r="D575" s="32">
         <f t="shared" ref="D575:I575" si="96">D572/(D572+D574)</f>
         <v>0.91414944356120831</v>
       </c>
-      <c r="E575" s="31">
+      <c r="E575" s="32">
         <f t="shared" si="96"/>
         <v>0.99047619047619051</v>
       </c>
-      <c r="F575" s="31">
+      <c r="F575" s="32">
         <f t="shared" si="96"/>
         <v>0.96969696969696972</v>
       </c>
-      <c r="G575" s="31">
+      <c r="G575" s="32">
         <f t="shared" si="96"/>
         <v>0.58490566037735847</v>
       </c>
-      <c r="H575" s="31">
+      <c r="H575" s="32">
         <f t="shared" si="96"/>
         <v>0.97826086956521741</v>
       </c>
-      <c r="I575" s="32">
+      <c r="I575" s="33">
         <f t="shared" si="96"/>
         <v>0.85321100917431192</v>
       </c>
-      <c r="J575" s="39"/>
-      <c r="K575" s="50">
+      <c r="J575" s="40"/>
+      <c r="K575" s="51">
         <f>K572/(K572+K574)</f>
         <v>0.56952539550374692</v>
       </c>
-      <c r="L575" s="39">
+      <c r="L575" s="40">
         <f t="shared" ref="L575" si="97">L572/(L572+L574)</f>
         <v>0.97435897435897434</v>
       </c>
-      <c r="M575" s="39">
+      <c r="M575" s="40">
         <f t="shared" ref="M575" si="98">M572/(M572+M574)</f>
         <v>0.54653465346534658</v>
       </c>
-      <c r="N575" s="39">
+      <c r="N575" s="40">
         <f t="shared" ref="N575" si="99">N572/(N572+N574)</f>
         <v>1</v>
       </c>
-      <c r="O575" s="39">
+      <c r="O575" s="40">
         <f t="shared" ref="O575" si="100">O572/(O572+O574)</f>
         <v>0.54653465346534658</v>
       </c>
-      <c r="P575" s="39">
+      <c r="P575" s="40">
         <f t="shared" ref="P575" si="101">P572/(P572+P574)</f>
         <v>1</v>
       </c>
-      <c r="Q575" s="39">
+      <c r="Q575" s="40">
         <f t="shared" ref="Q575" si="102">Q572/(Q572+Q574)</f>
         <v>0.48222748815165878</v>
       </c>
-      <c r="R575" s="39">
+      <c r="R575" s="40">
         <f t="shared" ref="R575" si="103">R572/(R572+R574)</f>
         <v>1</v>
       </c>
-      <c r="S575" s="39">
+      <c r="S575" s="40">
         <f>S572/(S572+S574)</f>
         <v>0.93738489871086561</v>
       </c>
-      <c r="T575" s="33">
+      <c r="T575" s="34">
         <f t="shared" ref="T575" si="104">T572/(T572+T574)</f>
         <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B576" s="23" t="s">
+      <c r="B576" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="C576" s="31">
+      <c r="C576" s="32">
         <f>C572/(C572+C573)</f>
         <v>0.85897435897435892</v>
       </c>
-      <c r="D576" s="31">
+      <c r="D576" s="32">
         <f>D572/(D572+D573)</f>
         <v>0.80307262569832405</v>
       </c>
-      <c r="E576" s="31">
+      <c r="E576" s="32">
         <f>E572/(E572+E573)</f>
         <v>0.58591549295774648</v>
       </c>
-      <c r="F576" s="31">
+      <c r="F576" s="32">
         <f>F572/(F572+F573)</f>
         <v>0.56140350877192979</v>
       </c>
-      <c r="G576" s="31">
+      <c r="G576" s="32">
         <f>G572/(G572+G573)</f>
         <v>5.4673721340388004E-2</v>
       </c>
-      <c r="H576" s="31">
+      <c r="H576" s="32">
         <f>H572/(H572+H573)</f>
         <v>0.23684210526315788</v>
       </c>
-      <c r="I576" s="33">
+      <c r="I576" s="34">
         <f>I572/(I572+I573)</f>
         <v>0.17415730337078653</v>
       </c>
-      <c r="J576" s="39"/>
-      <c r="K576" s="50">
+      <c r="J576" s="40"/>
+      <c r="K576" s="51">
         <f t="shared" ref="J576:T576" si="105">K572/(K572+K573)</f>
         <v>0.95530726256983245</v>
       </c>
-      <c r="L576" s="39">
+      <c r="L576" s="40">
         <f t="shared" si="105"/>
         <v>0.10614525139664804</v>
       </c>
-      <c r="M576" s="39">
+      <c r="M576" s="40">
         <f t="shared" si="105"/>
         <v>0.97354497354497349</v>
       </c>
-      <c r="N576" s="39">
+      <c r="N576" s="40">
         <f t="shared" si="105"/>
         <v>0.62257495590828926</v>
       </c>
-      <c r="O576" s="39">
+      <c r="O576" s="40">
         <f t="shared" si="105"/>
         <v>0.97354497354497349</v>
       </c>
-      <c r="P576" s="39">
+      <c r="P576" s="40">
         <f t="shared" si="105"/>
         <v>0.7707231040564374</v>
       </c>
-      <c r="Q576" s="39">
+      <c r="Q576" s="40">
         <f t="shared" si="105"/>
         <v>0.86780383795309168</v>
       </c>
-      <c r="R576" s="39">
+      <c r="R576" s="40">
         <f t="shared" si="105"/>
         <v>0.43283582089552236</v>
       </c>
-      <c r="S576" s="39">
+      <c r="S576" s="40">
         <f t="shared" si="105"/>
         <v>0.89770723104056438</v>
       </c>
-      <c r="T576" s="33">
+      <c r="T576" s="34">
         <f t="shared" si="105"/>
         <v>0.65608465608465605</v>
       </c>
     </row>
     <row r="577" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B577" s="24" t="s">
+      <c r="B577" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="C577" s="34">
+      <c r="C577" s="35">
         <f>(2*C572)/((2*C572)+C574+C573)</f>
         <v>0.61562021439509951</v>
       </c>
-      <c r="D577" s="34">
+      <c r="D577" s="35">
         <f>(2*D572)/((2*D572)+D574+D573)</f>
         <v>0.85501858736059477</v>
       </c>
-      <c r="E577" s="34">
+      <c r="E577" s="35">
         <f t="shared" ref="D577:I577" si="106">(2*E572)/((2*E572)+E574+E573)</f>
         <v>0.73628318584070795</v>
       </c>
-      <c r="F577" s="34">
+      <c r="F577" s="35">
         <f t="shared" si="106"/>
         <v>0.71111111111111114</v>
       </c>
-      <c r="G577" s="34">
+      <c r="G577" s="35">
         <f t="shared" si="106"/>
         <v>0.1</v>
       </c>
-      <c r="H577" s="34">
+      <c r="H577" s="35">
         <f t="shared" si="106"/>
         <v>0.38135593220338981</v>
       </c>
-      <c r="I577" s="35">
+      <c r="I577" s="36">
         <f t="shared" si="106"/>
         <v>0.28926905132192848</v>
       </c>
-      <c r="J577" s="39"/>
-      <c r="K577" s="51">
+      <c r="J577" s="40"/>
+      <c r="K577" s="52">
         <f t="shared" ref="J577:T577" si="107">(2*K572)/((2*K572)+K574+K573)</f>
         <v>0.71361502347417838</v>
       </c>
-      <c r="L577" s="34">
+      <c r="L577" s="35">
         <f t="shared" si="107"/>
         <v>0.19143576826196473</v>
       </c>
-      <c r="M577" s="34">
+      <c r="M577" s="35">
         <f t="shared" si="107"/>
         <v>0.70006341154090046</v>
       </c>
-      <c r="N577" s="34">
+      <c r="N577" s="35">
         <f t="shared" si="107"/>
         <v>0.7673913043478261</v>
       </c>
-      <c r="O577" s="34">
+      <c r="O577" s="35">
         <f t="shared" si="107"/>
         <v>0.70006341154090046</v>
       </c>
-      <c r="P577" s="34">
+      <c r="P577" s="35">
         <f t="shared" si="107"/>
         <v>0.87051792828685259</v>
       </c>
-      <c r="Q577" s="34">
+      <c r="Q577" s="35">
         <f t="shared" si="107"/>
         <v>0.61995430312262001</v>
       </c>
-      <c r="R577" s="34">
+      <c r="R577" s="35">
         <f t="shared" si="107"/>
         <v>0.60416666666666663</v>
       </c>
-      <c r="S577" s="34">
+      <c r="S577" s="35">
         <f t="shared" si="107"/>
         <v>0.91711711711711708</v>
       </c>
-      <c r="T577" s="35">
+      <c r="T577" s="36">
         <f t="shared" si="107"/>
         <v>0.792332268370607</v>
       </c>
     </row>
     <row r="578" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B578" s="19"/>
-      <c r="C578" s="19"/>
-      <c r="D578" s="19"/>
-      <c r="E578" s="19"/>
-      <c r="F578" s="19"/>
-      <c r="G578" s="19"/>
-      <c r="H578" s="19"/>
-      <c r="I578" s="19"/>
-      <c r="K578" s="19"/>
-      <c r="L578" s="19"/>
-      <c r="M578" s="19"/>
-      <c r="N578" s="19"/>
-      <c r="O578" s="19"/>
-      <c r="P578" s="19"/>
-      <c r="Q578" s="19"/>
-      <c r="R578" s="19"/>
-      <c r="S578" s="19"/>
-      <c r="T578" s="19"/>
+      <c r="B578" s="20"/>
+      <c r="C578" s="20"/>
+      <c r="D578" s="20"/>
+      <c r="E578" s="20"/>
+      <c r="F578" s="20"/>
+      <c r="G578" s="20"/>
+      <c r="H578" s="20"/>
+      <c r="I578" s="20"/>
+      <c r="K578" s="20"/>
+      <c r="L578" s="20"/>
+      <c r="M578" s="20"/>
+      <c r="N578" s="20"/>
+      <c r="O578" s="20"/>
+      <c r="P578" s="20"/>
+      <c r="Q578" s="20"/>
+      <c r="R578" s="20"/>
+      <c r="S578" s="20"/>
+      <c r="T578" s="20"/>
     </row>
     <row r="579" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B579" s="20" t="s">
+      <c r="B579" s="21" t="s">
         <v>487</v>
       </c>
       <c r="C579" s="1">
@@ -36089,50 +36118,50 @@
         <v>27</v>
       </c>
       <c r="H579" s="1"/>
-      <c r="I579" s="26"/>
-      <c r="K579" s="21">
+      <c r="I579" s="27"/>
+      <c r="K579" s="22">
         <f>COUNTIF(K3:K7, "TP") + COUNTIF(K14:K30, "TP") + COUNTIF(K73:K87, "TP") + COUNTIF(K122:K129, "TP") + COUNTIF(K142:K148, "TP") + COUNTIF(K162:K173, "TP") + COUNTIF(K203:K217, "TP") + COUNTIF(K252:K268, "TP") + COUNTIF(K306:K313, "TP") + COUNTIF(K327:K331, "TP") + COUNTIF(K338:K348, "TP") + COUNTIF(K375:K385, "TP") + COUNTIF(K404:K413, "TP") + COUNTIF(K443:K453, "TP") + COUNTIF(K478:K489, "TP") + COUNTIF(K518:K526, "TP") + COUNTIF(K545:K553, "TP")</f>
         <v>179</v>
       </c>
-      <c r="L579" s="16">
+      <c r="L579" s="17">
         <f t="shared" ref="L579:T579" si="108">COUNTIF(L3:L7, "TP") + COUNTIF(L14:L30, "TP") + COUNTIF(L73:L87, "TP") + COUNTIF(L122:L129, "TP") + COUNTIF(L142:L148, "TP") + COUNTIF(L162:L173, "TP") + COUNTIF(L203:L217, "TP") + COUNTIF(L252:L268, "TP") + COUNTIF(L306:L313, "TP") + COUNTIF(L327:L331, "TP") + COUNTIF(L338:L348, "TP") + COUNTIF(L375:L385, "TP") + COUNTIF(L404:L413, "TP") + COUNTIF(L443:L453, "TP") + COUNTIF(L478:L489, "TP") + COUNTIF(L518:L526, "TP") + COUNTIF(L545:L553, "TP")</f>
         <v>24</v>
       </c>
-      <c r="M579" s="16">
+      <c r="M579" s="17">
         <f t="shared" si="108"/>
         <v>179</v>
       </c>
-      <c r="N579" s="16">
+      <c r="N579" s="17">
         <f t="shared" si="108"/>
         <v>145</v>
       </c>
-      <c r="O579" s="16">
+      <c r="O579" s="17">
         <f t="shared" si="108"/>
         <v>179</v>
       </c>
-      <c r="P579" s="16">
+      <c r="P579" s="17">
         <f t="shared" si="108"/>
         <v>158</v>
       </c>
-      <c r="Q579" s="16">
+      <c r="Q579" s="17">
         <f t="shared" si="108"/>
         <v>125</v>
       </c>
-      <c r="R579" s="16">
+      <c r="R579" s="17">
         <f t="shared" si="108"/>
         <v>82</v>
       </c>
-      <c r="S579" s="16">
+      <c r="S579" s="17">
         <f t="shared" si="108"/>
         <v>178</v>
       </c>
-      <c r="T579" s="27">
+      <c r="T579" s="28">
         <f t="shared" si="108"/>
         <v>153</v>
       </c>
     </row>
     <row r="580" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B580" s="21" t="s">
+      <c r="B580" s="22" t="s">
         <v>484</v>
       </c>
       <c r="C580" s="1">
@@ -36156,322 +36185,322 @@
         <v>155</v>
       </c>
       <c r="H580" s="1"/>
-      <c r="I580" s="27"/>
-      <c r="K580" s="21">
+      <c r="I580" s="28"/>
+      <c r="K580" s="22">
         <f>COUNTIF(K3:K7, "FN") + COUNTIF(K14:K30, "FN") + COUNTIF(K73:K87, "FN") + COUNTIF(K122:K129, "FN") + COUNTIF(K142:K148, "FN") + COUNTIF(K162:K173, "FN") + COUNTIF(K203:K217, "FN") + COUNTIF(K252:K268, "FN") + COUNTIF(K306:K313, "FN") + COUNTIF(K327:K331, "FN") + COUNTIF(K338:K348, "FN") + COUNTIF(K375:K385, "FN") + COUNTIF(K404:K413, "FN") + COUNTIF(K443:K453, "FN") + COUNTIF(K478:K489, "FN") + COUNTIF(K518:K526, "FN") + COUNTIF(K545:K553, "FN")</f>
         <v>3</v>
       </c>
-      <c r="L580" s="16">
+      <c r="L580" s="17">
         <f t="shared" ref="L580:T580" si="109">COUNTIF(L3:L7, "FN") + COUNTIF(L14:L30, "FN") + COUNTIF(L73:L87, "FN") + COUNTIF(L122:L129, "FN") + COUNTIF(L142:L148, "FN") + COUNTIF(L162:L173, "FN") + COUNTIF(L203:L217, "FN") + COUNTIF(L252:L268, "FN") + COUNTIF(L306:L313, "FN") + COUNTIF(L327:L331, "FN") + COUNTIF(L338:L348, "FN") + COUNTIF(L375:L385, "FN") + COUNTIF(L404:L413, "FN") + COUNTIF(L443:L453, "FN") + COUNTIF(L478:L489, "FN") + COUNTIF(L518:L526, "FN") + COUNTIF(L545:L553, "FN")</f>
         <v>158</v>
       </c>
-      <c r="M580" s="16">
+      <c r="M580" s="17">
         <f t="shared" si="109"/>
         <v>3</v>
       </c>
-      <c r="N580" s="16">
+      <c r="N580" s="17">
         <f t="shared" si="109"/>
         <v>37</v>
       </c>
-      <c r="O580" s="16">
+      <c r="O580" s="17">
         <f t="shared" si="109"/>
         <v>3</v>
       </c>
-      <c r="P580" s="16">
+      <c r="P580" s="17">
         <f t="shared" si="109"/>
         <v>24</v>
       </c>
-      <c r="Q580" s="16">
+      <c r="Q580" s="17">
         <f t="shared" si="109"/>
         <v>19</v>
       </c>
-      <c r="R580" s="16">
+      <c r="R580" s="17">
         <f t="shared" si="109"/>
         <v>62</v>
       </c>
-      <c r="S580" s="16">
+      <c r="S580" s="17">
         <f t="shared" si="109"/>
         <v>4</v>
       </c>
-      <c r="T580" s="27">
+      <c r="T580" s="28">
         <f t="shared" si="109"/>
         <v>29</v>
       </c>
     </row>
     <row r="581" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B581" s="22" t="s">
+      <c r="B581" s="23" t="s">
         <v>481</v>
       </c>
-      <c r="C581" s="17">
+      <c r="C581" s="18">
         <v>41</v>
       </c>
-      <c r="D581" s="17">
+      <c r="D581" s="18">
         <v>5</v>
       </c>
-      <c r="E581" s="17">
+      <c r="E581" s="18">
         <v>0</v>
       </c>
-      <c r="F581" s="17">
+      <c r="F581" s="18">
         <v>1</v>
       </c>
-      <c r="G581" s="17">
+      <c r="G581" s="18">
         <v>21</v>
       </c>
-      <c r="H581" s="17"/>
-      <c r="I581" s="28"/>
-      <c r="K581" s="53">
+      <c r="H581" s="18"/>
+      <c r="I581" s="29"/>
+      <c r="K581" s="54">
         <v>68</v>
       </c>
-      <c r="L581" s="14">
+      <c r="L581" s="15">
         <v>0</v>
       </c>
-      <c r="M581" s="14">
+      <c r="M581" s="15">
         <v>46</v>
       </c>
-      <c r="N581" s="14">
+      <c r="N581" s="15">
         <v>0</v>
       </c>
-      <c r="O581" s="54">
+      <c r="O581" s="55">
         <v>46</v>
       </c>
-      <c r="P581" s="54">
+      <c r="P581" s="55">
         <v>0</v>
       </c>
-      <c r="Q581" s="54">
+      <c r="Q581" s="55">
         <v>41</v>
       </c>
-      <c r="R581" s="14">
+      <c r="R581" s="15">
         <v>0</v>
       </c>
-      <c r="S581" s="54">
+      <c r="S581" s="55">
         <v>5</v>
       </c>
-      <c r="T581" s="15">
+      <c r="T581" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="582" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B582" s="21" t="s">
+      <c r="B582" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="C582" s="31">
+      <c r="C582" s="32">
         <f>C579/(C579+C581)</f>
         <v>0.75</v>
       </c>
-      <c r="D582" s="31">
+      <c r="D582" s="32">
         <f t="shared" ref="D582:G582" si="110">D579/(D579+D581)</f>
         <v>0.97267759562841527</v>
       </c>
-      <c r="E582" s="31">
+      <c r="E582" s="32">
         <f t="shared" si="110"/>
         <v>1</v>
       </c>
-      <c r="F582" s="31">
+      <c r="F582" s="32">
         <f t="shared" si="110"/>
         <v>0.96969696969696972</v>
       </c>
-      <c r="G582" s="31">
+      <c r="G582" s="32">
         <f t="shared" si="110"/>
         <v>0.5625</v>
       </c>
-      <c r="H582" s="16"/>
-      <c r="I582" s="27"/>
-      <c r="K582" s="50">
+      <c r="H582" s="17"/>
+      <c r="I582" s="28"/>
+      <c r="K582" s="51">
         <f t="shared" ref="K582" si="111">K579/(K579+K581)</f>
         <v>0.7246963562753036</v>
       </c>
-      <c r="L582" s="39">
+      <c r="L582" s="40">
         <f t="shared" ref="L582" si="112">L579/(L579+L581)</f>
         <v>1</v>
       </c>
-      <c r="M582" s="39">
+      <c r="M582" s="40">
         <f t="shared" ref="M582" si="113">M579/(M579+M581)</f>
         <v>0.79555555555555557</v>
       </c>
-      <c r="N582" s="39">
+      <c r="N582" s="40">
         <f t="shared" ref="N582" si="114">N579/(N579+N581)</f>
         <v>1</v>
       </c>
-      <c r="O582" s="39">
+      <c r="O582" s="40">
         <f t="shared" ref="O582" si="115">O579/(O579+O581)</f>
         <v>0.79555555555555557</v>
       </c>
-      <c r="P582" s="39">
+      <c r="P582" s="40">
         <f t="shared" ref="P582" si="116">P579/(P579+P581)</f>
         <v>1</v>
       </c>
-      <c r="Q582" s="39">
+      <c r="Q582" s="40">
         <f t="shared" ref="Q582" si="117">Q579/(Q579+Q581)</f>
         <v>0.75301204819277112</v>
       </c>
-      <c r="R582" s="39">
+      <c r="R582" s="40">
         <f t="shared" ref="R582" si="118">R579/(R579+R581)</f>
         <v>1</v>
       </c>
-      <c r="S582" s="39">
+      <c r="S582" s="40">
         <f t="shared" ref="S582" si="119">S579/(S579+S581)</f>
         <v>0.97267759562841527</v>
       </c>
-      <c r="T582" s="33">
+      <c r="T582" s="34">
         <f t="shared" ref="T582" si="120">T579/(T579+T581)</f>
         <v>1</v>
       </c>
     </row>
     <row r="583" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B583" s="21" t="s">
+      <c r="B583" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="C583" s="31">
+      <c r="C583" s="32">
         <f>C579/(C579+C580)</f>
         <v>0.85416666666666663</v>
       </c>
-      <c r="D583" s="31">
+      <c r="D583" s="32">
         <f t="shared" ref="D583:I583" si="121">D579/(D579+D580)</f>
         <v>0.97802197802197799</v>
       </c>
-      <c r="E583" s="31">
+      <c r="E583" s="32">
         <f t="shared" si="121"/>
         <v>0.76363636363636367</v>
       </c>
-      <c r="F583" s="31">
+      <c r="F583" s="32">
         <f t="shared" si="121"/>
         <v>0.56140350877192979</v>
       </c>
-      <c r="G583" s="31">
+      <c r="G583" s="32">
         <f>G579/(G579+G580)</f>
         <v>0.14835164835164835</v>
       </c>
       <c r="I583" s="5"/>
-      <c r="K583" s="50">
+      <c r="K583" s="51">
         <f>K579/(K579+K580)</f>
         <v>0.98351648351648346</v>
       </c>
-      <c r="L583" s="39">
+      <c r="L583" s="40">
         <f>L579/(L579+L580)</f>
         <v>0.13186813186813187</v>
       </c>
-      <c r="M583" s="39">
+      <c r="M583" s="40">
         <f t="shared" ref="L583:T583" si="122">M579/(M579+M580)</f>
         <v>0.98351648351648346</v>
       </c>
-      <c r="N583" s="39">
+      <c r="N583" s="40">
         <f t="shared" si="122"/>
         <v>0.79670329670329665</v>
       </c>
-      <c r="O583" s="39">
+      <c r="O583" s="40">
         <f t="shared" si="122"/>
         <v>0.98351648351648346</v>
       </c>
-      <c r="P583" s="39">
+      <c r="P583" s="40">
         <f t="shared" si="122"/>
         <v>0.86813186813186816</v>
       </c>
-      <c r="Q583" s="39">
+      <c r="Q583" s="40">
         <f t="shared" si="122"/>
         <v>0.86805555555555558</v>
       </c>
-      <c r="R583" s="39">
+      <c r="R583" s="40">
         <f t="shared" si="122"/>
         <v>0.56944444444444442</v>
       </c>
-      <c r="S583" s="39">
+      <c r="S583" s="40">
         <f t="shared" si="122"/>
         <v>0.97802197802197799</v>
       </c>
-      <c r="T583" s="33">
+      <c r="T583" s="34">
         <f t="shared" si="122"/>
         <v>0.84065934065934067</v>
       </c>
     </row>
     <row r="584" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B584" s="25" t="s">
+      <c r="B584" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="C584" s="34">
+      <c r="C584" s="35">
         <f>(2*C579)/((2*C579)+C581+C580)</f>
         <v>0.79870129870129869</v>
       </c>
-      <c r="D584" s="34">
+      <c r="D584" s="35">
         <f t="shared" ref="D584:G584" si="123">(2*D579)/((2*D579)+D581+D580)</f>
         <v>0.97534246575342465</v>
       </c>
-      <c r="E584" s="34">
+      <c r="E584" s="35">
         <f t="shared" si="123"/>
         <v>0.865979381443299</v>
       </c>
-      <c r="F584" s="34">
+      <c r="F584" s="35">
         <f t="shared" si="123"/>
         <v>0.71111111111111114</v>
       </c>
-      <c r="G584" s="34">
+      <c r="G584" s="35">
         <f t="shared" si="123"/>
         <v>0.23478260869565218</v>
       </c>
-      <c r="H584" s="18"/>
-      <c r="I584" s="29"/>
-      <c r="K584" s="51">
+      <c r="H584" s="19"/>
+      <c r="I584" s="30"/>
+      <c r="K584" s="52">
         <f t="shared" ref="K584:T584" si="124">(2*K579)/((2*K579)+K581+K580)</f>
         <v>0.83449883449883455</v>
       </c>
-      <c r="L584" s="34">
+      <c r="L584" s="35">
         <f t="shared" si="124"/>
         <v>0.23300970873786409</v>
       </c>
-      <c r="M584" s="34">
+      <c r="M584" s="35">
         <f>(2*M579)/((2*M579)+M581+M580)</f>
         <v>0.87960687960687955</v>
       </c>
-      <c r="N584" s="34">
+      <c r="N584" s="35">
         <f t="shared" si="124"/>
         <v>0.88685015290519875</v>
       </c>
-      <c r="O584" s="34">
+      <c r="O584" s="35">
         <f t="shared" si="124"/>
         <v>0.87960687960687955</v>
       </c>
-      <c r="P584" s="34">
+      <c r="P584" s="35">
         <f t="shared" si="124"/>
         <v>0.92941176470588238</v>
       </c>
-      <c r="Q584" s="34">
+      <c r="Q584" s="35">
         <f t="shared" si="124"/>
         <v>0.80645161290322576</v>
       </c>
-      <c r="R584" s="34">
+      <c r="R584" s="35">
         <f t="shared" si="124"/>
         <v>0.72566371681415931</v>
       </c>
-      <c r="S584" s="34">
+      <c r="S584" s="35">
         <f t="shared" si="124"/>
         <v>0.97534246575342465</v>
       </c>
-      <c r="T584" s="35">
+      <c r="T584" s="36">
         <f t="shared" si="124"/>
         <v>0.91343283582089552</v>
       </c>
     </row>
     <row r="585" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B585" s="19"/>
-      <c r="C585" s="19"/>
-      <c r="D585" s="19"/>
-      <c r="E585" s="19"/>
-      <c r="F585" s="19"/>
-      <c r="G585" s="19"/>
-      <c r="H585" s="19"/>
-      <c r="I585" s="19"/>
-      <c r="K585" s="19"/>
-      <c r="L585" s="19"/>
-      <c r="M585" s="19"/>
-      <c r="N585" s="19"/>
-      <c r="O585" s="19"/>
-      <c r="P585" s="19"/>
-      <c r="Q585" s="19"/>
-      <c r="R585" s="19"/>
-      <c r="S585" s="19"/>
-      <c r="T585" s="19"/>
+      <c r="B585" s="20"/>
+      <c r="C585" s="20"/>
+      <c r="D585" s="20"/>
+      <c r="E585" s="20"/>
+      <c r="F585" s="20"/>
+      <c r="G585" s="20"/>
+      <c r="H585" s="20"/>
+      <c r="I585" s="20"/>
+      <c r="K585" s="20"/>
+      <c r="L585" s="20"/>
+      <c r="M585" s="20"/>
+      <c r="N585" s="20"/>
+      <c r="O585" s="20"/>
+      <c r="P585" s="20"/>
+      <c r="Q585" s="20"/>
+      <c r="R585" s="20"/>
+      <c r="S585" s="20"/>
+      <c r="T585" s="20"/>
     </row>
     <row r="586" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B586" s="20" t="s">
+      <c r="B586" s="21" t="s">
         <v>488</v>
       </c>
       <c r="C586" s="1">
@@ -36492,53 +36521,53 @@
         <v>4</v>
       </c>
       <c r="H586" s="1"/>
-      <c r="I586" s="26">
+      <c r="I586" s="27">
         <f>COUNTIF(I554:I569, " TP") + COUNTIF(I527:I544, " TP") + COUNTIF(I490:I517, " TP") + COUNTIF(I454:I477, " TP") + COUNTIF(I414:I442, " TP") + COUNTIF(I386:I403, " TP") + COUNTIF(I349:I374, " TP") + COUNTIF(I332:I337, " TP") + COUNTIF(I314:I326, " TP") + COUNTIF(I269:I305, " TP") + COUNTIF(I218:I251, " TP") + COUNTIF(I174:I202, " TP") + COUNTIF(I149:I161, " TP") + COUNTIF(I130:I141, " TP") + COUNTIF(I88:I121, " TP") + COUNTIF(I31:I72, " TP") + COUNTIF(I8:I13, " TP")</f>
         <v>7</v>
       </c>
-      <c r="K586" s="21">
+      <c r="K586" s="22">
         <f>COUNTIF(K554:K569, "TP") + COUNTIF(K527:K544, "TP") + COUNTIF(K490:K517, "TP") + COUNTIF(K454:K477, "TP") + COUNTIF(K414:K442, "TP") + COUNTIF(K386:K403, "TP") + COUNTIF(K349:K374, "TP") + COUNTIF(K332:K337, "TP") + COUNTIF(K314:K326, "TP") + COUNTIF(K269:K305, "TP") + COUNTIF(K218:K251, "TP") + COUNTIF(K174:K202, "TP") + COUNTIF(K149:K161, "TP") + COUNTIF(K130:K141, "TP") + COUNTIF(K88:K121, "TP") + COUNTIF(K31:K72, "TP") + COUNTIF(K8:K13, "TP")</f>
         <v>374</v>
       </c>
-      <c r="L586" s="16">
+      <c r="L586" s="17">
         <f t="shared" ref="L586:T586" si="125">COUNTIF(L554:L569, "TP") + COUNTIF(L527:L544, "TP") + COUNTIF(L490:L517, "TP") + COUNTIF(L454:L477, "TP") + COUNTIF(L414:L442, "TP") + COUNTIF(L386:L403, "TP") + COUNTIF(L349:L374, "TP") + COUNTIF(L332:L337, "TP") + COUNTIF(L314:L326, "TP") + COUNTIF(L269:L305, "TP") + COUNTIF(L218:L251, "TP") + COUNTIF(L174:L202, "TP") + COUNTIF(L149:L161, "TP") + COUNTIF(L130:L141, "TP") + COUNTIF(L88:L121, "TP") + COUNTIF(L31:L72, "TP") + COUNTIF(L8:L13, "TP")</f>
         <v>0</v>
       </c>
-      <c r="M586" s="16">
+      <c r="M586" s="17">
         <f t="shared" si="125"/>
         <v>373</v>
       </c>
-      <c r="N586" s="16">
+      <c r="N586" s="17">
         <f t="shared" si="125"/>
         <v>208</v>
       </c>
-      <c r="O586" s="16">
+      <c r="O586" s="17">
         <f t="shared" si="125"/>
         <v>373</v>
       </c>
-      <c r="P586" s="16">
+      <c r="P586" s="17">
         <f t="shared" si="125"/>
         <v>279</v>
       </c>
-      <c r="Q586" s="16">
+      <c r="Q586" s="17">
         <f t="shared" si="125"/>
         <v>282</v>
       </c>
-      <c r="R586" s="16">
+      <c r="R586" s="17">
         <f t="shared" si="125"/>
         <v>121</v>
       </c>
-      <c r="S586" s="16">
+      <c r="S586" s="17">
         <f t="shared" si="125"/>
         <v>331</v>
       </c>
-      <c r="T586" s="27">
+      <c r="T586" s="28">
         <f t="shared" si="125"/>
         <v>219</v>
       </c>
     </row>
     <row r="587" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B587" s="21" t="s">
+      <c r="B587" s="22" t="s">
         <v>485</v>
       </c>
       <c r="C587" s="1">
@@ -36562,416 +36591,416 @@
         <f>COUNTIF(H554:H569, " FN") + COUNTIF(H527:H544, " FN") + COUNTIF(H490:H517, " FN") + COUNTIF(H454:H477, " FN") + COUNTIF(H414:H442, " FN") + COUNTIF(H386:H403, " FN") + COUNTIF(H349:H374, " FN") + COUNTIF(H332:H337, " FN") + COUNTIF(H314:H326, " FN") + COUNTIF(H269:H305, " FN") + COUNTIF(H218:H251, " FN") + COUNTIF(H174:H202, " FN") + COUNTIF(H149:H161, " FN") + COUNTIF(H130:H141, " FN") + COUNTIF(H88:H121, " FN") + COUNTIF(H31:H72, " FN") + COUNTIF(H8:H13, " FN")</f>
         <v>259</v>
       </c>
-      <c r="I587" s="27">
+      <c r="I587" s="28">
         <f>COUNTIF(I554:I569, " FN") + COUNTIF(I527:I544, " FN") + COUNTIF(I490:I517, " FN") + COUNTIF(I454:I477, " FN") + COUNTIF(I414:I442, " FN") + COUNTIF(I386:I403, " FN") + COUNTIF(I349:I374, " FN") + COUNTIF(I332:I337, " FN") + COUNTIF(I314:I326, " FN") + COUNTIF(I269:I305, " FN") + COUNTIF(I218:I251, " FN") + COUNTIF(I174:I202, " FN") + COUNTIF(I149:I161, " FN") + COUNTIF(I130:I141, " FN") + COUNTIF(I88:I121, " FN") + COUNTIF(I31:I72, " FN") + COUNTIF(I8:I13, " FN")</f>
         <v>378</v>
       </c>
-      <c r="K587" s="21">
+      <c r="K587" s="22">
         <f>COUNTIF(K554:K569, "FN") + COUNTIF(K527:K544, "FN") + COUNTIF(K490:K517, "FN") + COUNTIF(K454:K477, "FN") + COUNTIF(K414:K442, "FN") + COUNTIF(K386:K403, "FN") + COUNTIF(K349:K374, "FN") + COUNTIF(K332:K337, "FN") + COUNTIF(K314:K326, "FN") + COUNTIF(K269:K305, "FN") + COUNTIF(K218:K251, "FN") + COUNTIF(K174:K202, "FN") + COUNTIF(K149:K161, "FN") + COUNTIF(K130:K141, "FN") + COUNTIF(K88:K121, "FN") + COUNTIF(K31:K72, "FN") + COUNTIF(K8:K13, "FN")</f>
         <v>11</v>
       </c>
-      <c r="L587" s="16">
+      <c r="L587" s="17">
         <f t="shared" ref="L587:T587" si="126">COUNTIF(L554:L569, "FN") + COUNTIF(L527:L544, "FN") + COUNTIF(L490:L517, "FN") + COUNTIF(L454:L477, "FN") + COUNTIF(L414:L442, "FN") + COUNTIF(L386:L403, "FN") + COUNTIF(L349:L374, "FN") + COUNTIF(L332:L337, "FN") + COUNTIF(L314:L326, "FN") + COUNTIF(L269:L305, "FN") + COUNTIF(L218:L251, "FN") + COUNTIF(L174:L202, "FN") + COUNTIF(L149:L161, "FN") + COUNTIF(L130:L141, "FN") + COUNTIF(L88:L121, "FN") + COUNTIF(L31:L72, "FN") + COUNTIF(L8:L13, "FN")</f>
         <v>385</v>
       </c>
-      <c r="M587" s="16">
+      <c r="M587" s="17">
         <f t="shared" si="126"/>
         <v>12</v>
       </c>
-      <c r="N587" s="16">
+      <c r="N587" s="17">
         <f t="shared" si="126"/>
         <v>177</v>
       </c>
-      <c r="O587" s="16">
+      <c r="O587" s="17">
         <f t="shared" si="126"/>
         <v>12</v>
       </c>
-      <c r="P587" s="16">
+      <c r="P587" s="17">
         <f t="shared" si="126"/>
         <v>106</v>
       </c>
-      <c r="Q587" s="16">
+      <c r="Q587" s="17">
         <f t="shared" si="126"/>
         <v>43</v>
       </c>
-      <c r="R587" s="16">
+      <c r="R587" s="17">
         <f t="shared" si="126"/>
         <v>204</v>
       </c>
-      <c r="S587" s="16">
+      <c r="S587" s="17">
         <f t="shared" si="126"/>
         <v>54</v>
       </c>
-      <c r="T587" s="27">
+      <c r="T587" s="28">
         <f t="shared" si="126"/>
         <v>166</v>
       </c>
     </row>
     <row r="588" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B588" s="22" t="s">
+      <c r="B588" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="C588" s="17">
+      <c r="C588" s="18">
         <v>395</v>
       </c>
-      <c r="D588" s="17">
+      <c r="D588" s="18">
         <v>27</v>
       </c>
-      <c r="E588" s="17">
-        <v>2</v>
-      </c>
-      <c r="F588" s="17"/>
-      <c r="G588" s="17">
+      <c r="E588" s="18">
+        <v>2</v>
+      </c>
+      <c r="F588" s="18"/>
+      <c r="G588" s="18">
         <v>1</v>
       </c>
-      <c r="H588" s="17"/>
-      <c r="I588" s="28">
-        <v>2</v>
-      </c>
-      <c r="K588" s="53">
+      <c r="H588" s="18"/>
+      <c r="I588" s="29">
+        <v>2</v>
+      </c>
+      <c r="K588" s="54">
         <v>415</v>
       </c>
-      <c r="L588" s="14">
+      <c r="L588" s="15">
         <v>0</v>
       </c>
-      <c r="M588" s="54">
+      <c r="M588" s="55">
         <v>412</v>
       </c>
-      <c r="N588" s="14">
+      <c r="N588" s="15">
         <v>0</v>
       </c>
-      <c r="O588" s="54">
+      <c r="O588" s="55">
         <v>412</v>
       </c>
-      <c r="P588" s="14">
+      <c r="P588" s="15">
         <v>0</v>
       </c>
-      <c r="Q588" s="54">
+      <c r="Q588" s="55">
         <v>396</v>
       </c>
-      <c r="R588" s="14">
+      <c r="R588" s="15">
         <v>0</v>
       </c>
-      <c r="S588" s="54">
+      <c r="S588" s="55">
         <v>29</v>
       </c>
-      <c r="T588" s="15">
+      <c r="T588" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="589" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B589" s="23" t="s">
+      <c r="B589" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="C589" s="31">
+      <c r="C589" s="32">
         <f>C586/(C586+C588)</f>
         <v>0.41394658753709201</v>
       </c>
-      <c r="D589" s="31">
+      <c r="D589" s="32">
         <f t="shared" ref="D589:K589" si="127">D586/(D586+D588)</f>
         <v>0.9221902017291066</v>
       </c>
-      <c r="E589" s="31">
+      <c r="E589" s="32">
         <f t="shared" si="127"/>
         <v>0.98412698412698407</v>
       </c>
-      <c r="F589" s="31">
+      <c r="F589" s="32">
         <v>0</v>
       </c>
-      <c r="G589" s="31">
+      <c r="G589" s="32">
         <f t="shared" si="127"/>
         <v>0.8</v>
       </c>
-      <c r="I589" s="30"/>
-      <c r="K589" s="50">
+      <c r="I589" s="31"/>
+      <c r="K589" s="51">
         <f t="shared" si="127"/>
         <v>0.47401774397972118</v>
       </c>
-      <c r="L589" s="39" t="e">
+      <c r="L589" s="40" t="e">
         <f t="shared" ref="L589" si="128">L586/(L586+L588)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M589" s="39">
+      <c r="M589" s="40">
         <f t="shared" ref="M589" si="129">M586/(M586+M588)</f>
         <v>0.47515923566878981</v>
       </c>
-      <c r="N589" s="39">
+      <c r="N589" s="40">
         <f t="shared" ref="N589" si="130">N586/(N586+N588)</f>
         <v>1</v>
       </c>
-      <c r="O589" s="39">
+      <c r="O589" s="40">
         <f t="shared" ref="O589" si="131">O586/(O586+O588)</f>
         <v>0.47515923566878981</v>
       </c>
-      <c r="P589" s="39">
+      <c r="P589" s="40">
         <f t="shared" ref="P589" si="132">P586/(P586+P588)</f>
         <v>1</v>
       </c>
-      <c r="Q589" s="39">
+      <c r="Q589" s="40">
         <f t="shared" ref="Q589" si="133">Q586/(Q586+Q588)</f>
         <v>0.41592920353982299</v>
       </c>
-      <c r="R589" s="39">
+      <c r="R589" s="40">
         <f t="shared" ref="R589" si="134">R586/(R586+R588)</f>
         <v>1</v>
       </c>
-      <c r="S589" s="39">
+      <c r="S589" s="40">
         <f t="shared" ref="S589" si="135">S586/(S586+S588)</f>
         <v>0.9194444444444444</v>
       </c>
-      <c r="T589" s="33">
+      <c r="T589" s="34">
         <f t="shared" ref="T589" si="136">T586/(T586+T588)</f>
         <v>1</v>
       </c>
     </row>
     <row r="590" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B590" s="23" t="s">
+      <c r="B590" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="C590" s="31">
+      <c r="C590" s="32">
         <f>C586/(C586+C587)</f>
         <v>0.86111111111111116</v>
       </c>
-      <c r="D590" s="31">
+      <c r="D590" s="32">
         <f t="shared" ref="D590:K590" si="137">D586/(D586+D587)</f>
         <v>0.83116883116883122</v>
       </c>
-      <c r="E590" s="31">
+      <c r="E590" s="32">
         <f t="shared" si="137"/>
         <v>0.5061224489795918</v>
       </c>
-      <c r="F590" s="31">
+      <c r="F590" s="32">
         <v>0</v>
       </c>
-      <c r="G590" s="31">
+      <c r="G590" s="32">
         <f t="shared" si="137"/>
         <v>1.038961038961039E-2</v>
       </c>
       <c r="I590" s="5"/>
-      <c r="K590" s="50">
+      <c r="K590" s="51">
         <f t="shared" si="137"/>
         <v>0.97142857142857142</v>
       </c>
-      <c r="L590" s="39">
+      <c r="L590" s="40">
         <f t="shared" ref="L590:T590" si="138">L586/(L586+L587)</f>
         <v>0</v>
       </c>
-      <c r="M590" s="39">
+      <c r="M590" s="40">
         <f t="shared" si="138"/>
         <v>0.96883116883116882</v>
       </c>
-      <c r="N590" s="39">
+      <c r="N590" s="40">
         <f t="shared" si="138"/>
         <v>0.54025974025974022</v>
       </c>
-      <c r="O590" s="39">
+      <c r="O590" s="40">
         <f t="shared" si="138"/>
         <v>0.96883116883116882</v>
       </c>
-      <c r="P590" s="39">
+      <c r="P590" s="40">
         <f t="shared" si="138"/>
         <v>0.72467532467532469</v>
       </c>
-      <c r="Q590" s="39">
+      <c r="Q590" s="40">
         <f t="shared" si="138"/>
         <v>0.86769230769230765</v>
       </c>
-      <c r="R590" s="39">
+      <c r="R590" s="40">
         <f t="shared" si="138"/>
         <v>0.37230769230769228</v>
       </c>
-      <c r="S590" s="39">
+      <c r="S590" s="40">
         <f t="shared" si="138"/>
         <v>0.85974025974025969</v>
       </c>
-      <c r="T590" s="33">
+      <c r="T590" s="34">
         <f t="shared" si="138"/>
         <v>0.5688311688311688</v>
       </c>
     </row>
     <row r="591" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B591" s="24" t="s">
+      <c r="B591" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="C591" s="34">
+      <c r="C591" s="35">
         <f>(2*C586)/((2*C586)+C588+C587)</f>
         <v>0.5591182364729459</v>
       </c>
-      <c r="D591" s="34">
+      <c r="D591" s="35">
         <f t="shared" ref="D591:K591" si="139">(2*D586)/((2*D586)+D588+D587)</f>
         <v>0.87431693989071035</v>
       </c>
-      <c r="E591" s="34">
+      <c r="E591" s="35">
         <f t="shared" si="139"/>
         <v>0.66846361185983827</v>
       </c>
-      <c r="F591" s="34">
+      <c r="F591" s="35">
         <v>0</v>
       </c>
-      <c r="G591" s="34">
+      <c r="G591" s="35">
         <f t="shared" si="139"/>
         <v>2.0512820512820513E-2</v>
       </c>
       <c r="H591" s="3"/>
       <c r="I591" s="6"/>
-      <c r="K591" s="51">
+      <c r="K591" s="52">
         <f t="shared" si="139"/>
         <v>0.63713798977853497</v>
       </c>
-      <c r="L591" s="34">
+      <c r="L591" s="35">
         <f t="shared" ref="L591:T591" si="140">(2*L586)/((2*L586)+L588+L587)</f>
         <v>0</v>
       </c>
-      <c r="M591" s="34">
+      <c r="M591" s="35">
         <f t="shared" si="140"/>
         <v>0.63760683760683756</v>
       </c>
-      <c r="N591" s="34">
+      <c r="N591" s="35">
         <f t="shared" si="140"/>
         <v>0.70151770657672852</v>
       </c>
-      <c r="O591" s="34">
+      <c r="O591" s="35">
         <f t="shared" si="140"/>
         <v>0.63760683760683756</v>
       </c>
-      <c r="P591" s="34">
+      <c r="P591" s="35">
         <f t="shared" si="140"/>
         <v>0.84036144578313254</v>
       </c>
-      <c r="Q591" s="34">
+      <c r="Q591" s="35">
         <f t="shared" si="140"/>
         <v>0.56231306081754739</v>
       </c>
-      <c r="R591" s="34">
+      <c r="R591" s="35">
         <f t="shared" si="140"/>
         <v>0.54260089686098656</v>
       </c>
-      <c r="S591" s="34">
+      <c r="S591" s="35">
         <f t="shared" si="140"/>
         <v>0.88859060402684564</v>
       </c>
-      <c r="T591" s="35">
+      <c r="T591" s="36">
         <f t="shared" si="140"/>
         <v>0.72516556291390732</v>
       </c>
     </row>
     <row r="592" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B592" s="11"/>
-      <c r="C592" s="11"/>
-      <c r="D592" s="11"/>
-      <c r="E592" s="11"/>
-      <c r="F592" s="11"/>
-      <c r="G592" s="11"/>
-      <c r="H592" s="11"/>
-      <c r="I592" s="11"/>
-      <c r="K592" s="13"/>
-      <c r="L592" s="13"/>
-      <c r="M592" s="13"/>
-      <c r="N592" s="13"/>
-      <c r="O592" s="13"/>
-      <c r="P592" s="13"/>
-      <c r="Q592" s="13"/>
-      <c r="R592" s="13"/>
-      <c r="S592" s="13"/>
-      <c r="T592" s="13"/>
+      <c r="B592" s="12"/>
+      <c r="C592" s="12"/>
+      <c r="D592" s="12"/>
+      <c r="E592" s="12"/>
+      <c r="F592" s="12"/>
+      <c r="G592" s="12"/>
+      <c r="H592" s="12"/>
+      <c r="I592" s="12"/>
+      <c r="K592" s="14"/>
+      <c r="L592" s="14"/>
+      <c r="M592" s="14"/>
+      <c r="N592" s="14"/>
+      <c r="O592" s="14"/>
+      <c r="P592" s="14"/>
+      <c r="Q592" s="14"/>
+      <c r="R592" s="14"/>
+      <c r="S592" s="14"/>
+      <c r="T592" s="14"/>
     </row>
     <row r="593" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="41"/>
-      <c r="B593" s="42"/>
-      <c r="C593" s="42"/>
-      <c r="D593" s="42"/>
-      <c r="E593" s="42"/>
-      <c r="F593" s="42"/>
-      <c r="G593" s="42"/>
-      <c r="H593" s="42"/>
-      <c r="I593" s="42"/>
-      <c r="J593" s="42"/>
-      <c r="K593" s="42"/>
-      <c r="L593" s="42"/>
-      <c r="M593" s="42"/>
-      <c r="N593" s="42"/>
-      <c r="O593" s="42"/>
-      <c r="P593" s="42"/>
-      <c r="Q593" s="42"/>
-      <c r="R593" s="42"/>
-      <c r="S593" s="42"/>
-      <c r="T593" s="42"/>
+      <c r="A593" s="42"/>
+      <c r="B593" s="43"/>
+      <c r="C593" s="43"/>
+      <c r="D593" s="43"/>
+      <c r="E593" s="43"/>
+      <c r="F593" s="43"/>
+      <c r="G593" s="43"/>
+      <c r="H593" s="43"/>
+      <c r="I593" s="43"/>
+      <c r="J593" s="43"/>
+      <c r="K593" s="43"/>
+      <c r="L593" s="43"/>
+      <c r="M593" s="43"/>
+      <c r="N593" s="43"/>
+      <c r="O593" s="43"/>
+      <c r="P593" s="43"/>
+      <c r="Q593" s="43"/>
+      <c r="R593" s="43"/>
+      <c r="S593" s="43"/>
+      <c r="T593" s="43"/>
     </row>
     <row r="594" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B594" s="13"/>
-      <c r="C594" s="13"/>
-      <c r="D594" s="43"/>
-      <c r="E594" s="43"/>
-      <c r="F594" s="43"/>
-      <c r="G594" s="43"/>
-      <c r="H594" s="43"/>
-      <c r="I594" s="43"/>
+      <c r="B594" s="14"/>
+      <c r="C594" s="14"/>
+      <c r="D594" s="44"/>
+      <c r="E594" s="44"/>
+      <c r="F594" s="44"/>
+      <c r="G594" s="44"/>
+      <c r="H594" s="44"/>
+      <c r="I594" s="44"/>
       <c r="J594" s="2"/>
-      <c r="K594" s="44" t="s">
+      <c r="K594" s="45" t="s">
         <v>508</v>
       </c>
-      <c r="L594" s="44"/>
-      <c r="M594" s="44" t="s">
+      <c r="L594" s="45"/>
+      <c r="M594" s="45" t="s">
         <v>509</v>
       </c>
-      <c r="N594" s="44"/>
-      <c r="O594" s="44" t="s">
+      <c r="N594" s="45"/>
+      <c r="O594" s="45" t="s">
         <v>510</v>
       </c>
-      <c r="P594" s="44"/>
-      <c r="Q594" s="44" t="s">
+      <c r="P594" s="45"/>
+      <c r="Q594" s="45" t="s">
         <v>511</v>
       </c>
-      <c r="R594" s="44"/>
-      <c r="S594" s="13"/>
-      <c r="T594" s="13"/>
+      <c r="R594" s="45"/>
+      <c r="S594" s="14"/>
+      <c r="T594" s="14"/>
     </row>
     <row r="595" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A595" s="8"/>
-      <c r="B595" s="40"/>
-      <c r="C595" s="45"/>
-      <c r="D595" s="37" t="s">
+      <c r="A595" s="9"/>
+      <c r="B595" s="41"/>
+      <c r="C595" s="46"/>
+      <c r="D595" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="E595" s="37"/>
-      <c r="F595" s="37"/>
-      <c r="G595" s="37"/>
-      <c r="H595" s="37" t="s">
+      <c r="E595" s="38"/>
+      <c r="F595" s="38"/>
+      <c r="G595" s="38"/>
+      <c r="H595" s="38" t="s">
         <v>507</v>
       </c>
-      <c r="I595" s="46" t="s">
+      <c r="I595" s="47" t="s">
         <v>506</v>
       </c>
-      <c r="J595" s="8"/>
-      <c r="K595" s="37" t="s">
+      <c r="J595" s="9"/>
+      <c r="K595" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="L595" s="37" t="s">
+      <c r="L595" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="M595" s="37" t="s">
+      <c r="M595" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="N595" s="37" t="s">
+      <c r="N595" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="O595" s="37" t="s">
+      <c r="O595" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="P595" s="37" t="s">
+      <c r="P595" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="Q595" s="37" t="s">
+      <c r="Q595" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="R595" s="37" t="s">
+      <c r="R595" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="S595" s="13"/>
-      <c r="T595" s="13"/>
+      <c r="S595" s="14"/>
+      <c r="T595" s="14"/>
     </row>
     <row r="596" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B596" s="20" t="s">
+      <c r="B596" s="21" t="s">
         <v>489</v>
       </c>
       <c r="C596" s="1"/>
@@ -36984,38 +37013,38 @@
       <c r="H596" s="1">
         <v>90</v>
       </c>
-      <c r="I596" s="26">
+      <c r="I596" s="27">
         <v>86</v>
       </c>
-      <c r="K596" s="52">
+      <c r="K596" s="53">
         <v>131</v>
       </c>
-      <c r="L596" s="7">
+      <c r="L596" s="8">
         <v>52</v>
       </c>
-      <c r="M596" s="7">
+      <c r="M596" s="8">
         <v>123</v>
       </c>
-      <c r="N596" s="7">
+      <c r="N596" s="8">
         <v>71</v>
       </c>
-      <c r="O596" s="7">
+      <c r="O596" s="8">
         <v>111</v>
       </c>
-      <c r="P596" s="7">
+      <c r="P596" s="8">
         <v>52</v>
       </c>
-      <c r="Q596" s="7">
+      <c r="Q596" s="8">
         <v>123</v>
       </c>
-      <c r="R596" s="7">
+      <c r="R596" s="8">
         <v>79</v>
       </c>
-      <c r="S596" s="23"/>
-      <c r="T596" s="13"/>
+      <c r="S596" s="24"/>
+      <c r="T596" s="14"/>
     </row>
     <row r="597" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B597" s="21" t="s">
+      <c r="B597" s="22" t="s">
         <v>486</v>
       </c>
       <c r="C597" s="1"/>
@@ -37028,264 +37057,378 @@
       <c r="H597" s="1">
         <v>31</v>
       </c>
-      <c r="I597" s="27">
+      <c r="I597" s="28">
         <v>63</v>
       </c>
-      <c r="K597" s="49">
+      <c r="K597" s="50">
         <v>18</v>
       </c>
-      <c r="L597" s="7">
+      <c r="L597" s="8">
         <v>97</v>
       </c>
-      <c r="M597" s="7">
+      <c r="M597" s="8">
         <v>27</v>
       </c>
-      <c r="N597" s="7">
+      <c r="N597" s="8">
         <v>79</v>
       </c>
-      <c r="O597" s="7">
+      <c r="O597" s="8">
         <v>38</v>
       </c>
-      <c r="P597" s="7">
+      <c r="P597" s="8">
         <v>97</v>
       </c>
-      <c r="Q597" s="7">
+      <c r="Q597" s="8">
         <v>26</v>
       </c>
-      <c r="R597" s="7">
+      <c r="R597" s="8">
         <v>70</v>
       </c>
-      <c r="S597" s="23"/>
-      <c r="T597" s="13"/>
+      <c r="S597" s="24"/>
+      <c r="T597" s="14"/>
     </row>
     <row r="598" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B598" s="22" t="s">
+      <c r="B598" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="C598" s="17"/>
-      <c r="D598" s="17">
+      <c r="C598" s="18"/>
+      <c r="D598" s="18">
         <v>22</v>
       </c>
-      <c r="E598" s="17"/>
-      <c r="F598" s="17"/>
-      <c r="G598" s="17"/>
-      <c r="H598" s="17">
+      <c r="E598" s="18"/>
+      <c r="F598" s="18"/>
+      <c r="G598" s="18"/>
+      <c r="H598" s="18">
         <v>6</v>
       </c>
-      <c r="I598" s="28">
+      <c r="I598" s="29">
         <v>11</v>
       </c>
-      <c r="K598" s="53">
+      <c r="K598" s="54">
         <v>34</v>
       </c>
-      <c r="L598" s="54">
-        <v>2</v>
-      </c>
-      <c r="M598" s="54">
+      <c r="L598" s="55">
+        <v>2</v>
+      </c>
+      <c r="M598" s="55">
         <v>26</v>
       </c>
-      <c r="N598" s="54">
+      <c r="N598" s="55">
         <v>3</v>
       </c>
-      <c r="O598" s="14">
+      <c r="O598" s="15">
         <v>31</v>
       </c>
-      <c r="P598" s="54">
-        <v>2</v>
-      </c>
-      <c r="Q598" s="14">
+      <c r="P598" s="55">
+        <v>2</v>
+      </c>
+      <c r="Q598" s="15">
         <v>14</v>
       </c>
-      <c r="R598" s="15">
+      <c r="R598" s="16">
         <v>3</v>
       </c>
-      <c r="S598" s="23"/>
-      <c r="T598" s="13"/>
+      <c r="S598" s="24"/>
+      <c r="T598" s="14"/>
     </row>
     <row r="599" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B599" s="21" t="s">
+      <c r="B599" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="C599" s="16"/>
-      <c r="D599" s="31">
+      <c r="C599" s="17"/>
+      <c r="D599" s="32">
         <f>D596/(D596+D598)</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="E599" s="31"/>
-      <c r="F599" s="31"/>
-      <c r="G599" s="31"/>
-      <c r="H599" s="31">
+      <c r="E599" s="32"/>
+      <c r="F599" s="32"/>
+      <c r="G599" s="32"/>
+      <c r="H599" s="32">
         <f t="shared" ref="E599:K599" si="141">H596/(H596+H598)</f>
         <v>0.9375</v>
       </c>
-      <c r="I599" s="32">
+      <c r="I599" s="33">
         <f t="shared" si="141"/>
         <v>0.88659793814432986</v>
       </c>
-      <c r="K599" s="50">
+      <c r="K599" s="51">
         <f t="shared" si="141"/>
         <v>0.79393939393939394</v>
       </c>
-      <c r="L599" s="39">
+      <c r="L599" s="40">
         <f t="shared" ref="L599" si="142">L596/(L596+L598)</f>
         <v>0.96296296296296291</v>
       </c>
-      <c r="M599" s="39">
+      <c r="M599" s="40">
         <f t="shared" ref="M599" si="143">M596/(M596+M598)</f>
         <v>0.82550335570469802</v>
       </c>
-      <c r="N599" s="39">
+      <c r="N599" s="40">
         <f t="shared" ref="N599" si="144">N596/(N596+N598)</f>
         <v>0.95945945945945943</v>
       </c>
-      <c r="O599" s="39">
+      <c r="O599" s="40">
         <f t="shared" ref="O599" si="145">O596/(O596+O598)</f>
         <v>0.78169014084507038</v>
       </c>
-      <c r="P599" s="39">
+      <c r="P599" s="40">
         <f t="shared" ref="P599" si="146">P596/(P596+P598)</f>
         <v>0.96296296296296291</v>
       </c>
-      <c r="Q599" s="39">
+      <c r="Q599" s="40">
         <f t="shared" ref="Q599" si="147">Q596/(Q596+Q598)</f>
         <v>0.8978102189781022</v>
       </c>
-      <c r="R599" s="39">
+      <c r="R599" s="40">
         <f t="shared" ref="R599" si="148">R596/(R596+R598)</f>
         <v>0.96341463414634143</v>
       </c>
-      <c r="S599" s="50"/>
-      <c r="T599" s="39"/>
+      <c r="S599" s="51"/>
+      <c r="T599" s="40"/>
     </row>
     <row r="600" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B600" s="21" t="s">
+      <c r="B600" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="C600" s="16"/>
-      <c r="D600" s="31">
+      <c r="C600" s="17"/>
+      <c r="D600" s="32">
         <f>D596/(D596+D597)</f>
         <v>0.51677852348993292</v>
       </c>
-      <c r="E600" s="31"/>
-      <c r="F600" s="31"/>
-      <c r="G600" s="31"/>
-      <c r="H600" s="31">
+      <c r="E600" s="32"/>
+      <c r="F600" s="32"/>
+      <c r="G600" s="32"/>
+      <c r="H600" s="32">
         <f t="shared" ref="E600:K600" si="149">H596/(H596+H597)</f>
         <v>0.74380165289256195</v>
       </c>
-      <c r="I600" s="33">
+      <c r="I600" s="34">
         <f t="shared" si="149"/>
         <v>0.57718120805369133</v>
       </c>
-      <c r="K600" s="50">
+      <c r="K600" s="51">
         <f t="shared" si="149"/>
         <v>0.87919463087248317</v>
       </c>
-      <c r="L600" s="39">
+      <c r="L600" s="40">
         <f t="shared" ref="L600:T600" si="150">L596/(L596+L597)</f>
         <v>0.34899328859060402</v>
       </c>
-      <c r="M600" s="39">
+      <c r="M600" s="40">
         <f t="shared" ref="M600:R600" si="151">M596/(M596+M597)</f>
         <v>0.82</v>
       </c>
-      <c r="N600" s="39">
+      <c r="N600" s="40">
         <f t="shared" si="151"/>
         <v>0.47333333333333333</v>
       </c>
-      <c r="O600" s="39">
+      <c r="O600" s="40">
         <f t="shared" si="151"/>
         <v>0.74496644295302017</v>
       </c>
-      <c r="P600" s="39">
+      <c r="P600" s="40">
         <f t="shared" si="151"/>
         <v>0.34899328859060402</v>
       </c>
-      <c r="Q600" s="39">
+      <c r="Q600" s="40">
         <f t="shared" si="151"/>
         <v>0.82550335570469802</v>
       </c>
-      <c r="R600" s="39">
+      <c r="R600" s="40">
         <f t="shared" si="151"/>
         <v>0.53020134228187921</v>
       </c>
-      <c r="S600" s="50"/>
-      <c r="T600" s="39"/>
+      <c r="S600" s="51"/>
+      <c r="T600" s="40"/>
     </row>
     <row r="601" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B601" s="25" t="s">
+      <c r="B601" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="C601" s="18"/>
-      <c r="D601" s="34">
+      <c r="C601" s="19"/>
+      <c r="D601" s="35">
         <f>(2*D596)/((2*D596)+D598+D597)</f>
         <v>0.62096774193548387</v>
       </c>
-      <c r="E601" s="34"/>
-      <c r="F601" s="34"/>
-      <c r="G601" s="34"/>
-      <c r="H601" s="34">
+      <c r="E601" s="35"/>
+      <c r="F601" s="35"/>
+      <c r="G601" s="35"/>
+      <c r="H601" s="35">
         <f t="shared" ref="E601:K601" si="152">(2*H596)/((2*H596)+H598+H597)</f>
         <v>0.82949308755760365</v>
       </c>
-      <c r="I601" s="35">
+      <c r="I601" s="36">
         <f t="shared" si="152"/>
         <v>0.69918699186991873</v>
       </c>
-      <c r="K601" s="51">
+      <c r="K601" s="52">
         <f t="shared" si="152"/>
         <v>0.83439490445859876</v>
       </c>
-      <c r="L601" s="34">
+      <c r="L601" s="35">
         <f t="shared" ref="L601:T601" si="153">(2*L596)/((2*L596)+L598+L597)</f>
         <v>0.51231527093596063</v>
       </c>
-      <c r="M601" s="34">
+      <c r="M601" s="35">
         <f t="shared" ref="M601:R601" si="154">(2*M596)/((2*M596)+M598+M597)</f>
         <v>0.82274247491638797</v>
       </c>
-      <c r="N601" s="34">
+      <c r="N601" s="35">
         <f t="shared" si="154"/>
         <v>0.6339285714285714</v>
       </c>
-      <c r="O601" s="34">
+      <c r="O601" s="35">
         <f t="shared" si="154"/>
         <v>0.76288659793814428</v>
       </c>
-      <c r="P601" s="34">
+      <c r="P601" s="35">
         <f t="shared" si="154"/>
         <v>0.51231527093596063</v>
       </c>
-      <c r="Q601" s="34">
+      <c r="Q601" s="35">
         <f t="shared" si="154"/>
         <v>0.8601398601398601</v>
       </c>
-      <c r="R601" s="34">
+      <c r="R601" s="35">
         <f t="shared" si="154"/>
         <v>0.68398268398268403</v>
       </c>
-      <c r="S601" s="50"/>
-      <c r="T601" s="39"/>
+      <c r="S601" s="51"/>
+      <c r="T601" s="40"/>
     </row>
     <row r="602" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B602" s="13"/>
-      <c r="C602" s="13"/>
-      <c r="D602" s="13"/>
-      <c r="E602" s="13"/>
-      <c r="F602" s="13"/>
-      <c r="G602" s="13"/>
-      <c r="H602" s="13"/>
-      <c r="I602" s="13"/>
+      <c r="B602" s="14"/>
+      <c r="C602" s="14"/>
+      <c r="D602" s="14"/>
+      <c r="E602" s="14"/>
+      <c r="F602" s="14"/>
+      <c r="G602" s="14"/>
+      <c r="H602" s="14"/>
+      <c r="I602" s="14"/>
     </row>
     <row r="603" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B603" s="13"/>
-      <c r="C603" s="13"/>
-      <c r="D603" s="13"/>
-      <c r="E603" s="13"/>
-      <c r="F603" s="13"/>
-      <c r="G603" s="13"/>
-      <c r="H603" s="13"/>
-      <c r="I603" s="13"/>
+      <c r="B603" s="14"/>
+      <c r="C603" s="14"/>
+      <c r="D603" s="14"/>
+      <c r="E603" s="14"/>
+      <c r="F603" s="14"/>
+      <c r="G603" s="14"/>
+      <c r="H603" s="14"/>
+      <c r="I603" s="14"/>
+    </row>
+    <row r="610" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J610" s="7"/>
+      <c r="K610" s="57" t="s">
+        <v>512</v>
+      </c>
+      <c r="L610" s="7"/>
+      <c r="M610" s="7"/>
+      <c r="N610" s="7"/>
+    </row>
+    <row r="611" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J611" s="7"/>
+      <c r="K611" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="L611" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="M611" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="N611" s="58" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="612" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J612" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K612" s="7">
+        <v>178</v>
+      </c>
+      <c r="L612" s="7">
+        <v>331</v>
+      </c>
+      <c r="M612" s="7">
+        <v>123</v>
+      </c>
+      <c r="N612" s="58">
+        <f>SUM(K612:M612)</f>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="613" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J613" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K613" s="7">
+        <v>4</v>
+      </c>
+      <c r="L613" s="7">
+        <v>54</v>
+      </c>
+      <c r="M613" s="59">
+        <v>26</v>
+      </c>
+      <c r="N613" s="58">
+        <f>SUM(K613:M613)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="614" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J614" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K614" s="7">
+        <v>5</v>
+      </c>
+      <c r="L614" s="7">
+        <v>29</v>
+      </c>
+      <c r="M614" s="59">
+        <v>14</v>
+      </c>
+      <c r="N614" s="58">
+        <f>SUM(K614:M614)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="615" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J615" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="K615" s="60"/>
+      <c r="L615" s="60"/>
+      <c r="M615" s="60"/>
+      <c r="N615" s="61">
+        <f>N612/(N612+N614)</f>
+        <v>0.92941176470588238</v>
+      </c>
+    </row>
+    <row r="616" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J616" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="K616" s="60"/>
+      <c r="L616" s="60"/>
+      <c r="M616" s="60"/>
+      <c r="N616" s="61">
+        <f>N612/(N612+N613)</f>
+        <v>0.88268156424581001</v>
+      </c>
+    </row>
+    <row r="617" spans="10:14" x14ac:dyDescent="0.2">
+      <c r="J617" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="K617" s="62"/>
+      <c r="L617" s="62"/>
+      <c r="M617" s="62"/>
+      <c r="N617" s="63">
+        <f>(2*N612)/((2*N612)+N614+N613)</f>
+        <v>0.90544412607449853</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/merged_results/complete_results.xlsx
+++ b/merged_results/complete_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Documents/Own/Papers_and_Projects/comparison_ArchRec_tools/GitHub_SARbenchmarks/merged_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C092CD13-02E4-8C45-ACEF-3E505643F66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A93AE1-6D07-D841-A4A7-337FBAC69622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{21E6DDBE-06EB-864D-8BE4-57F9A90E46C0}"/>
+    <workbookView xWindow="20840" yWindow="500" windowWidth="17560" windowHeight="19640" xr2:uid="{21E6DDBE-06EB-864D-8BE4-57F9A90E46C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Complete Results" sheetId="1" r:id="rId1"/>
@@ -283,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="669">
   <si>
     <t xml:space="preserve"> RAD</t>
   </si>
@@ -1920,9 +1920,6 @@
     <t>api_gateway/accounts/me/todos</t>
   </si>
   <si>
-    <t>reminderapi_gateway/accounts/me/todos</t>
-  </si>
-  <si>
     <t>reminder/todos</t>
   </si>
   <si>
@@ -2290,6 +2287,9 @@
   </si>
   <si>
     <t>user_webservice/{userName}</t>
+  </si>
+  <si>
+    <t>reminder/todo-changes</t>
   </si>
 </sst>
 </file>
@@ -2562,7 +2562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2650,53 +2650,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -3094,15 +3055,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E181CEDB-9761-A944-9A62-062C9F034F3F}">
   <dimension ref="A1:AC781"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W746" sqref="W746"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A707" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I739" sqref="I739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.5" customWidth="1"/>
     <col min="3" max="9" width="9.33203125" customWidth="1"/>
     <col min="11" max="29" width="7.6640625" customWidth="1"/>
   </cols>
@@ -3185,7 +3146,7 @@
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>498</v>
@@ -3831,12 +3792,25 @@
       <c r="G15" t="s">
         <v>474</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="H15" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="K15" t="str">
+        <f>IF(COUNTIF(C15:I15, "TP") &gt; 0,"TP","FN")</f>
+        <v>TP</v>
+      </c>
+      <c r="L15" t="str">
+        <f>IF(COUNTIF(C15:I15, "FN") = 0,"TP","FN")</f>
+        <v>FN</v>
+      </c>
       <c r="T15" s="5"/>
       <c r="U15" s="59"/>
       <c r="V15" s="14" t="str">
         <f>IF(OR(D15="TP", H15="TP", I15="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W15" t="str">
         <f>IF(AND(D15="TP", H15="TP", I15="TP"), "TP", "FN")</f>
@@ -3844,7 +3818,7 @@
       </c>
       <c r="X15" t="str">
         <f>IF(OR(D15="TP", H15="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y15" t="str">
         <f>IF(AND(D15="TP", H15="TP"), "TP", "FN")</f>
@@ -3860,7 +3834,7 @@
       </c>
       <c r="AB15" t="str">
         <f>IF(OR(H15="TP", I15="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC15" s="5" t="str">
         <f>IF(AND(H15="TP", I15="TP"), "TP", "FN")</f>
@@ -3877,12 +3851,25 @@
       <c r="G16" t="s">
         <v>474</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="H16" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="K16" t="str">
+        <f>IF(COUNTIF(C16:I16, "TP") &gt; 0,"TP","FN")</f>
+        <v>TP</v>
+      </c>
+      <c r="L16" t="str">
+        <f>IF(COUNTIF(C16:I16, "FN") = 0,"TP","FN")</f>
+        <v>FN</v>
+      </c>
       <c r="T16" s="5"/>
       <c r="U16" s="59"/>
       <c r="V16" s="14" t="str">
         <f>IF(OR(D16="TP", H16="TP", I16="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W16" t="str">
         <f>IF(AND(D16="TP", H16="TP", I16="TP"), "TP", "FN")</f>
@@ -3890,7 +3877,7 @@
       </c>
       <c r="X16" t="str">
         <f>IF(OR(D16="TP", H16="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y16" t="str">
         <f>IF(AND(D16="TP", H16="TP"), "TP", "FN")</f>
@@ -3906,7 +3893,7 @@
       </c>
       <c r="AB16" t="str">
         <f>IF(OR(H16="TP", I16="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC16" s="5" t="str">
         <f>IF(AND(H16="TP", I16="TP"), "TP", "FN")</f>
@@ -3923,12 +3910,25 @@
       <c r="G17" t="s">
         <v>474</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="H17" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="K17" t="str">
+        <f>IF(COUNTIF(C17:I17, "TP") &gt; 0,"TP","FN")</f>
+        <v>TP</v>
+      </c>
+      <c r="L17" t="str">
+        <f>IF(COUNTIF(C17:I17, "FN") = 0,"TP","FN")</f>
+        <v>FN</v>
+      </c>
       <c r="T17" s="5"/>
       <c r="U17" s="59"/>
       <c r="V17" s="14" t="str">
         <f>IF(OR(D17="TP", H17="TP", I17="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W17" t="str">
         <f>IF(AND(D17="TP", H17="TP", I17="TP"), "TP", "FN")</f>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="X17" t="str">
         <f>IF(OR(D17="TP", H17="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y17" t="str">
         <f>IF(AND(D17="TP", H17="TP"), "TP", "FN")</f>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="AB17" t="str">
         <f>IF(OR(H17="TP", I17="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC17" s="5" t="str">
         <f>IF(AND(H17="TP", I17="TP"), "TP", "FN")</f>
@@ -3969,12 +3969,25 @@
       <c r="G18" t="s">
         <v>474</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="H18" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="K18" t="str">
+        <f>IF(COUNTIF(C18:I18, "TP") &gt; 0,"TP","FN")</f>
+        <v>TP</v>
+      </c>
+      <c r="L18" t="str">
+        <f>IF(COUNTIF(C18:I18, "FN") = 0,"TP","FN")</f>
+        <v>FN</v>
+      </c>
       <c r="T18" s="5"/>
       <c r="U18" s="59"/>
       <c r="V18" s="14" t="str">
         <f>IF(OR(D18="TP", H18="TP", I18="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W18" t="str">
         <f>IF(AND(D18="TP", H18="TP", I18="TP"), "TP", "FN")</f>
@@ -3982,7 +3995,7 @@
       </c>
       <c r="X18" t="str">
         <f>IF(OR(D18="TP", H18="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y18" t="str">
         <f>IF(AND(D18="TP", H18="TP"), "TP", "FN")</f>
@@ -3998,7 +4011,7 @@
       </c>
       <c r="AB18" t="str">
         <f>IF(OR(H18="TP", I18="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC18" s="5" t="str">
         <f>IF(AND(H18="TP", I18="TP"), "TP", "FN")</f>
@@ -4015,12 +4028,25 @@
       <c r="G19" t="s">
         <v>474</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="H19" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="K19" t="str">
+        <f>IF(COUNTIF(C19:I19, "TP") &gt; 0,"TP","FN")</f>
+        <v>TP</v>
+      </c>
+      <c r="L19" t="str">
+        <f>IF(COUNTIF(C19:I19, "FN") = 0,"TP","FN")</f>
+        <v>FN</v>
+      </c>
       <c r="T19" s="5"/>
       <c r="U19" s="59"/>
       <c r="V19" s="14" t="str">
         <f>IF(OR(D19="TP", H19="TP", I19="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W19" t="str">
         <f>IF(AND(D19="TP", H19="TP", I19="TP"), "TP", "FN")</f>
@@ -4028,7 +4054,7 @@
       </c>
       <c r="X19" t="str">
         <f>IF(OR(D19="TP", H19="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y19" t="str">
         <f>IF(AND(D19="TP", H19="TP"), "TP", "FN")</f>
@@ -4044,7 +4070,7 @@
       </c>
       <c r="AB19" t="str">
         <f>IF(OR(H19="TP", I19="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC19" s="5" t="str">
         <f>IF(AND(H19="TP", I19="TP"), "TP", "FN")</f>
@@ -4065,11 +4091,21 @@
       <c r="G20" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="6"/>
+      <c r="H20" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>474</v>
+      </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="K20" s="2" t="str">
+        <f>IF(COUNTIF(C20:I20, "TP") &gt; 0,"TP","FN")</f>
+        <v>TP</v>
+      </c>
+      <c r="L20" s="2" t="str">
+        <f>IF(COUNTIF(C20:I20, "FN") = 0,"TP","FN")</f>
+        <v>FN</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4081,7 +4117,7 @@
       <c r="U20" s="2"/>
       <c r="V20" s="16" t="str">
         <f>IF(OR(D20="TP", H20="TP", I20="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W20" s="2" t="str">
         <f>IF(AND(D20="TP", H20="TP", I20="TP"), "TP", "FN")</f>
@@ -4089,7 +4125,7 @@
       </c>
       <c r="X20" s="2" t="str">
         <f>IF(OR(D20="TP", H20="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y20" s="2" t="str">
         <f>IF(AND(D20="TP", H20="TP"), "TP", "FN")</f>
@@ -4105,7 +4141,7 @@
       </c>
       <c r="AB20" s="2" t="str">
         <f>IF(OR(H20="TP", I20="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC20" s="6" t="str">
         <f>IF(AND(H20="TP", I20="TP"), "TP", "FN")</f>
@@ -7637,7 +7673,9 @@
       <c r="G80" t="s">
         <v>474</v>
       </c>
-      <c r="I80" s="5"/>
+      <c r="I80" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="T80" s="5"/>
       <c r="U80" s="59"/>
       <c r="V80" s="14" t="str">
@@ -7662,11 +7700,11 @@
       </c>
       <c r="AA80" t="str">
         <f>IF(AND(D80="TP", I80="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB80" t="str">
         <f>IF(OR(H80="TP", I80="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC80" s="5" t="str">
         <f>IF(AND(H80="TP", I80="TP"), "TP", "FN")</f>
@@ -7683,7 +7721,9 @@
       <c r="G81" t="s">
         <v>474</v>
       </c>
-      <c r="I81" s="5"/>
+      <c r="I81" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T81" s="5"/>
       <c r="U81" s="59"/>
       <c r="V81" s="14" t="str">
@@ -7708,11 +7748,11 @@
       </c>
       <c r="AA81" t="str">
         <f>IF(AND(D81="TP", I81="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB81" t="str">
         <f>IF(OR(H81="TP", I81="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC81" s="5" t="str">
         <f>IF(AND(H81="TP", I81="TP"), "TP", "FN")</f>
@@ -7729,7 +7769,9 @@
       <c r="G82" t="s">
         <v>474</v>
       </c>
-      <c r="I82" s="5"/>
+      <c r="I82" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T82" s="5"/>
       <c r="U82" s="59"/>
       <c r="V82" s="14" t="str">
@@ -7754,11 +7796,11 @@
       </c>
       <c r="AA82" t="str">
         <f>IF(AND(D82="TP", I82="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB82" t="str">
         <f>IF(OR(H82="TP", I82="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC82" s="5" t="str">
         <f>IF(AND(H82="TP", I82="TP"), "TP", "FN")</f>
@@ -7775,7 +7817,9 @@
       <c r="G83" t="s">
         <v>474</v>
       </c>
-      <c r="I83" s="5"/>
+      <c r="I83" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T83" s="5"/>
       <c r="U83" s="59"/>
       <c r="V83" s="14" t="str">
@@ -7800,11 +7844,11 @@
       </c>
       <c r="AA83" t="str">
         <f>IF(AND(D83="TP", I83="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB83" t="str">
         <f>IF(OR(H83="TP", I83="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC83" s="5" t="str">
         <f>IF(AND(H83="TP", I83="TP"), "TP", "FN")</f>
@@ -7821,7 +7865,9 @@
       <c r="G84" t="s">
         <v>474</v>
       </c>
-      <c r="I84" s="5"/>
+      <c r="I84" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T84" s="5"/>
       <c r="U84" s="59"/>
       <c r="V84" s="14" t="str">
@@ -7846,11 +7892,11 @@
       </c>
       <c r="AA84" t="str">
         <f>IF(AND(D84="TP", I84="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB84" t="str">
         <f>IF(OR(H84="TP", I84="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC84" s="5" t="str">
         <f>IF(AND(H84="TP", I84="TP"), "TP", "FN")</f>
@@ -7867,7 +7913,9 @@
       <c r="G85" t="s">
         <v>474</v>
       </c>
-      <c r="I85" s="5"/>
+      <c r="I85" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T85" s="5"/>
       <c r="U85" s="59"/>
       <c r="V85" s="14" t="str">
@@ -7892,11 +7940,11 @@
       </c>
       <c r="AA85" t="str">
         <f>IF(AND(D85="TP", I85="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB85" t="str">
         <f>IF(OR(H85="TP", I85="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC85" s="5" t="str">
         <f>IF(AND(H85="TP", I85="TP"), "TP", "FN")</f>
@@ -7913,7 +7961,9 @@
       <c r="G86" t="s">
         <v>474</v>
       </c>
-      <c r="I86" s="5"/>
+      <c r="I86" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T86" s="5"/>
       <c r="U86" s="59"/>
       <c r="V86" s="14" t="str">
@@ -7938,11 +7988,11 @@
       </c>
       <c r="AA86" t="str">
         <f>IF(AND(D86="TP", I86="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB86" t="str">
         <f>IF(OR(H86="TP", I86="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC86" s="5" t="str">
         <f>IF(AND(H86="TP", I86="TP"), "TP", "FN")</f>
@@ -7959,7 +8009,9 @@
       <c r="G87" t="s">
         <v>474</v>
       </c>
-      <c r="I87" s="5"/>
+      <c r="I87" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T87" s="5"/>
       <c r="U87" s="59"/>
       <c r="V87" s="14" t="str">
@@ -7984,11 +8036,11 @@
       </c>
       <c r="AA87" t="str">
         <f>IF(AND(D87="TP", I87="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB87" t="str">
         <f>IF(OR(H87="TP", I87="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC87" s="5" t="str">
         <f>IF(AND(H87="TP", I87="TP"), "TP", "FN")</f>
@@ -8005,7 +8057,9 @@
       <c r="G88" t="s">
         <v>474</v>
       </c>
-      <c r="I88" s="5"/>
+      <c r="I88" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T88" s="5"/>
       <c r="U88" s="59"/>
       <c r="V88" s="14" t="str">
@@ -8030,11 +8084,11 @@
       </c>
       <c r="AA88" t="str">
         <f>IF(AND(D88="TP", I88="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB88" t="str">
         <f>IF(OR(H88="TP", I88="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC88" s="5" t="str">
         <f>IF(AND(H88="TP", I88="TP"), "TP", "FN")</f>
@@ -8056,7 +8110,9 @@
         <v>474</v>
       </c>
       <c r="H89" s="2"/>
-      <c r="I89" s="6"/>
+      <c r="I89" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
@@ -8091,11 +8147,11 @@
       </c>
       <c r="AA89" s="2" t="str">
         <f>IF(AND(D89="TP", I89="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB89" s="2" t="str">
         <f>IF(OR(H89="TP", I89="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC89" s="6" t="str">
         <f>IF(AND(H89="TP", I89="TP"), "TP", "FN")</f>
@@ -11277,12 +11333,17 @@
       <c r="G139" t="s">
         <v>474</v>
       </c>
-      <c r="I139" s="5"/>
+      <c r="H139" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I139" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T139" s="5"/>
       <c r="U139" s="59"/>
       <c r="V139" s="14" t="str">
         <f>IF(OR(D139="TP", H139="TP", I139="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W139" t="str">
         <f>IF(AND(D139="TP", H139="TP", I139="TP"), "TP", "FN")</f>
@@ -11298,7 +11359,7 @@
       </c>
       <c r="Z139" t="str">
         <f>IF(OR(D139="TP", I139="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA139" t="str">
         <f>IF(AND(D139="TP", I139="TP"), "TP", "FN")</f>
@@ -11306,7 +11367,7 @@
       </c>
       <c r="AB139" t="str">
         <f>IF(OR(H139="TP", I139="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC139" s="5" t="str">
         <f>IF(AND(H139="TP", I139="TP"), "TP", "FN")</f>
@@ -11323,12 +11384,17 @@
       <c r="G140" t="s">
         <v>474</v>
       </c>
-      <c r="I140" s="5"/>
+      <c r="H140" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I140" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T140" s="5"/>
       <c r="U140" s="59"/>
       <c r="V140" s="14" t="str">
         <f>IF(OR(D140="TP", H140="TP", I140="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W140" t="str">
         <f>IF(AND(D140="TP", H140="TP", I140="TP"), "TP", "FN")</f>
@@ -11344,7 +11410,7 @@
       </c>
       <c r="Z140" t="str">
         <f>IF(OR(D140="TP", I140="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA140" t="str">
         <f>IF(AND(D140="TP", I140="TP"), "TP", "FN")</f>
@@ -11352,7 +11418,7 @@
       </c>
       <c r="AB140" t="str">
         <f>IF(OR(H140="TP", I140="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC140" s="5" t="str">
         <f>IF(AND(H140="TP", I140="TP"), "TP", "FN")</f>
@@ -11369,12 +11435,17 @@
       <c r="G141" t="s">
         <v>474</v>
       </c>
-      <c r="I141" s="5"/>
+      <c r="H141" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I141" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T141" s="5"/>
       <c r="U141" s="59"/>
       <c r="V141" s="14" t="str">
         <f>IF(OR(D141="TP", H141="TP", I141="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W141" t="str">
         <f>IF(AND(D141="TP", H141="TP", I141="TP"), "TP", "FN")</f>
@@ -11390,7 +11461,7 @@
       </c>
       <c r="Z141" t="str">
         <f>IF(OR(D141="TP", I141="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA141" t="str">
         <f>IF(AND(D141="TP", I141="TP"), "TP", "FN")</f>
@@ -11398,7 +11469,7 @@
       </c>
       <c r="AB141" t="str">
         <f>IF(OR(H141="TP", I141="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC141" s="5" t="str">
         <f>IF(AND(H141="TP", I141="TP"), "TP", "FN")</f>
@@ -11415,12 +11486,17 @@
       <c r="G142" t="s">
         <v>474</v>
       </c>
-      <c r="I142" s="5"/>
+      <c r="H142" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I142" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T142" s="5"/>
       <c r="U142" s="59"/>
       <c r="V142" s="14" t="str">
         <f>IF(OR(D142="TP", H142="TP", I142="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W142" t="str">
         <f>IF(AND(D142="TP", H142="TP", I142="TP"), "TP", "FN")</f>
@@ -11436,7 +11512,7 @@
       </c>
       <c r="Z142" t="str">
         <f>IF(OR(D142="TP", I142="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA142" t="str">
         <f>IF(AND(D142="TP", I142="TP"), "TP", "FN")</f>
@@ -11444,7 +11520,7 @@
       </c>
       <c r="AB142" t="str">
         <f>IF(OR(H142="TP", I142="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC142" s="5" t="str">
         <f>IF(AND(H142="TP", I142="TP"), "TP", "FN")</f>
@@ -11453,7 +11529,7 @@
     </row>
     <row r="143" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B143" s="5" t="s">
-        <v>545</v>
+        <v>668</v>
       </c>
       <c r="D143" t="s">
         <v>474</v>
@@ -11461,12 +11537,17 @@
       <c r="G143" t="s">
         <v>474</v>
       </c>
-      <c r="I143" s="5"/>
+      <c r="H143" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I143" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T143" s="5"/>
       <c r="U143" s="59"/>
       <c r="V143" s="14" t="str">
         <f>IF(OR(D143="TP", H143="TP", I143="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W143" t="str">
         <f>IF(AND(D143="TP", H143="TP", I143="TP"), "TP", "FN")</f>
@@ -11474,7 +11555,7 @@
       </c>
       <c r="X143" t="str">
         <f>IF(OR(D143="TP", H143="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y143" t="str">
         <f>IF(AND(D143="TP", H143="TP"), "TP", "FN")</f>
@@ -11482,7 +11563,7 @@
       </c>
       <c r="Z143" t="str">
         <f>IF(OR(D143="TP", I143="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA143" t="str">
         <f>IF(AND(D143="TP", I143="TP"), "TP", "FN")</f>
@@ -11490,16 +11571,16 @@
       </c>
       <c r="AB143" t="str">
         <f>IF(OR(H143="TP", I143="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC143" s="5" t="str">
         <f>IF(AND(H143="TP", I143="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="144" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B144" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D144" t="s">
         <v>474</v>
@@ -11507,12 +11588,17 @@
       <c r="G144" t="s">
         <v>474</v>
       </c>
-      <c r="I144" s="5"/>
+      <c r="H144" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I144" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T144" s="5"/>
       <c r="U144" s="59"/>
       <c r="V144" s="14" t="str">
         <f>IF(OR(D144="TP", H144="TP", I144="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W144" t="str">
         <f>IF(AND(D144="TP", H144="TP", I144="TP"), "TP", "FN")</f>
@@ -11520,7 +11606,7 @@
       </c>
       <c r="X144" t="str">
         <f>IF(OR(D144="TP", H144="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y144" t="str">
         <f>IF(AND(D144="TP", H144="TP"), "TP", "FN")</f>
@@ -11528,7 +11614,7 @@
       </c>
       <c r="Z144" t="str">
         <f>IF(OR(D144="TP", I144="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA144" t="str">
         <f>IF(AND(D144="TP", I144="TP"), "TP", "FN")</f>
@@ -11536,16 +11622,16 @@
       </c>
       <c r="AB144" t="str">
         <f>IF(OR(H144="TP", I144="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC144" s="5" t="str">
         <f>IF(AND(H144="TP", I144="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B145" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D145" t="s">
         <v>474</v>
@@ -11553,12 +11639,17 @@
       <c r="G145" t="s">
         <v>474</v>
       </c>
-      <c r="I145" s="5"/>
+      <c r="H145" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I145" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T145" s="5"/>
       <c r="U145" s="59"/>
       <c r="V145" s="14" t="str">
         <f>IF(OR(D145="TP", H145="TP", I145="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W145" t="str">
         <f>IF(AND(D145="TP", H145="TP", I145="TP"), "TP", "FN")</f>
@@ -11566,7 +11657,7 @@
       </c>
       <c r="X145" t="str">
         <f>IF(OR(D145="TP", H145="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y145" t="str">
         <f>IF(AND(D145="TP", H145="TP"), "TP", "FN")</f>
@@ -11574,7 +11665,7 @@
       </c>
       <c r="Z145" t="str">
         <f>IF(OR(D145="TP", I145="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA145" t="str">
         <f>IF(AND(D145="TP", I145="TP"), "TP", "FN")</f>
@@ -11582,16 +11673,16 @@
       </c>
       <c r="AB145" t="str">
         <f>IF(OR(H145="TP", I145="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC145" s="5" t="str">
         <f>IF(AND(H145="TP", I145="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B146" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D146" t="s">
         <v>474</v>
@@ -11599,12 +11690,17 @@
       <c r="G146" t="s">
         <v>474</v>
       </c>
-      <c r="I146" s="5"/>
+      <c r="H146" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I146" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T146" s="5"/>
       <c r="U146" s="59"/>
       <c r="V146" s="14" t="str">
         <f>IF(OR(D146="TP", H146="TP", I146="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W146" t="str">
         <f>IF(AND(D146="TP", H146="TP", I146="TP"), "TP", "FN")</f>
@@ -11612,7 +11708,7 @@
       </c>
       <c r="X146" t="str">
         <f>IF(OR(D146="TP", H146="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y146" t="str">
         <f>IF(AND(D146="TP", H146="TP"), "TP", "FN")</f>
@@ -11620,7 +11716,7 @@
       </c>
       <c r="Z146" t="str">
         <f>IF(OR(D146="TP", I146="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA146" t="str">
         <f>IF(AND(D146="TP", I146="TP"), "TP", "FN")</f>
@@ -11628,16 +11724,16 @@
       </c>
       <c r="AB146" t="str">
         <f>IF(OR(H146="TP", I146="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC146" s="5" t="str">
         <f>IF(AND(H146="TP", I146="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B147" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D147" t="s">
         <v>474</v>
@@ -11645,12 +11741,17 @@
       <c r="G147" t="s">
         <v>474</v>
       </c>
-      <c r="I147" s="5"/>
+      <c r="H147" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I147" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T147" s="5"/>
       <c r="U147" s="59"/>
       <c r="V147" s="14" t="str">
         <f>IF(OR(D147="TP", H147="TP", I147="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W147" t="str">
         <f>IF(AND(D147="TP", H147="TP", I147="TP"), "TP", "FN")</f>
@@ -11658,7 +11759,7 @@
       </c>
       <c r="X147" t="str">
         <f>IF(OR(D147="TP", H147="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y147" t="str">
         <f>IF(AND(D147="TP", H147="TP"), "TP", "FN")</f>
@@ -11666,7 +11767,7 @@
       </c>
       <c r="Z147" t="str">
         <f>IF(OR(D147="TP", I147="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA147" t="str">
         <f>IF(AND(D147="TP", I147="TP"), "TP", "FN")</f>
@@ -11674,16 +11775,16 @@
       </c>
       <c r="AB147" t="str">
         <f>IF(OR(H147="TP", I147="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC147" s="5" t="str">
         <f>IF(AND(H147="TP", I147="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B148" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D148" t="s">
         <v>474</v>
@@ -11691,12 +11792,17 @@
       <c r="G148" t="s">
         <v>474</v>
       </c>
-      <c r="I148" s="5"/>
+      <c r="H148" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I148" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T148" s="5"/>
       <c r="U148" s="59"/>
       <c r="V148" s="14" t="str">
         <f>IF(OR(D148="TP", H148="TP", I148="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W148" t="str">
         <f>IF(AND(D148="TP", H148="TP", I148="TP"), "TP", "FN")</f>
@@ -11704,7 +11810,7 @@
       </c>
       <c r="X148" t="str">
         <f>IF(OR(D148="TP", H148="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y148" t="str">
         <f>IF(AND(D148="TP", H148="TP"), "TP", "FN")</f>
@@ -11712,7 +11818,7 @@
       </c>
       <c r="Z148" t="str">
         <f>IF(OR(D148="TP", I148="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA148" t="str">
         <f>IF(AND(D148="TP", I148="TP"), "TP", "FN")</f>
@@ -11720,16 +11826,16 @@
       </c>
       <c r="AB148" t="str">
         <f>IF(OR(H148="TP", I148="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC148" s="5" t="str">
         <f>IF(AND(H148="TP", I148="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="149" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B149" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D149" t="s">
         <v>474</v>
@@ -11737,12 +11843,17 @@
       <c r="G149" t="s">
         <v>474</v>
       </c>
-      <c r="I149" s="5"/>
+      <c r="H149" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I149" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T149" s="5"/>
       <c r="U149" s="59"/>
       <c r="V149" s="14" t="str">
         <f>IF(OR(D149="TP", H149="TP", I149="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W149" t="str">
         <f>IF(AND(D149="TP", H149="TP", I149="TP"), "TP", "FN")</f>
@@ -11750,7 +11861,7 @@
       </c>
       <c r="X149" t="str">
         <f>IF(OR(D149="TP", H149="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y149" t="str">
         <f>IF(AND(D149="TP", H149="TP"), "TP", "FN")</f>
@@ -11758,7 +11869,7 @@
       </c>
       <c r="Z149" t="str">
         <f>IF(OR(D149="TP", I149="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA149" t="str">
         <f>IF(AND(D149="TP", I149="TP"), "TP", "FN")</f>
@@ -11766,16 +11877,16 @@
       </c>
       <c r="AB149" t="str">
         <f>IF(OR(H149="TP", I149="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC149" s="5" t="str">
         <f>IF(AND(H149="TP", I149="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="150" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B150" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D150" t="s">
         <v>474</v>
@@ -11783,7 +11894,12 @@
       <c r="G150" t="s">
         <v>474</v>
       </c>
-      <c r="I150" s="5"/>
+      <c r="H150" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T150" s="5"/>
       <c r="U150" s="59"/>
       <c r="V150" s="14" t="str">
@@ -11821,7 +11937,7 @@
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B151" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D151" t="s">
         <v>474</v>
@@ -11829,12 +11945,17 @@
       <c r="G151" t="s">
         <v>474</v>
       </c>
-      <c r="I151" s="5"/>
+      <c r="H151" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I151" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T151" s="5"/>
       <c r="U151" s="59"/>
       <c r="V151" s="14" t="str">
         <f>IF(OR(D151="TP", H151="TP", I151="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W151" t="str">
         <f>IF(AND(D151="TP", H151="TP", I151="TP"), "TP", "FN")</f>
@@ -11842,7 +11963,7 @@
       </c>
       <c r="X151" t="str">
         <f>IF(OR(D151="TP", H151="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y151" t="str">
         <f>IF(AND(D151="TP", H151="TP"), "TP", "FN")</f>
@@ -11850,7 +11971,7 @@
       </c>
       <c r="Z151" t="str">
         <f>IF(OR(D151="TP", I151="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA151" t="str">
         <f>IF(AND(D151="TP", I151="TP"), "TP", "FN")</f>
@@ -11858,16 +11979,16 @@
       </c>
       <c r="AB151" t="str">
         <f>IF(OR(H151="TP", I151="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC151" s="5" t="str">
         <f>IF(AND(H151="TP", I151="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B152" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D152" t="s">
         <v>474</v>
@@ -11875,12 +11996,17 @@
       <c r="G152" t="s">
         <v>474</v>
       </c>
-      <c r="I152" s="5"/>
+      <c r="H152" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I152" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T152" s="5"/>
       <c r="U152" s="59"/>
       <c r="V152" s="14" t="str">
         <f>IF(OR(D152="TP", H152="TP", I152="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W152" t="str">
         <f>IF(AND(D152="TP", H152="TP", I152="TP"), "TP", "FN")</f>
@@ -11896,7 +12022,7 @@
       </c>
       <c r="Z152" t="str">
         <f>IF(OR(D152="TP", I152="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA152" t="str">
         <f>IF(AND(D152="TP", I152="TP"), "TP", "FN")</f>
@@ -11904,7 +12030,7 @@
       </c>
       <c r="AB152" t="str">
         <f>IF(OR(H152="TP", I152="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC152" s="5" t="str">
         <f>IF(AND(H152="TP", I152="TP"), "TP", "FN")</f>
@@ -11913,7 +12039,7 @@
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B153" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D153" t="s">
         <v>474</v>
@@ -11921,12 +12047,17 @@
       <c r="G153" t="s">
         <v>474</v>
       </c>
-      <c r="I153" s="5"/>
+      <c r="H153" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I153" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T153" s="5"/>
       <c r="U153" s="59"/>
       <c r="V153" s="14" t="str">
         <f>IF(OR(D153="TP", H153="TP", I153="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W153" t="str">
         <f>IF(AND(D153="TP", H153="TP", I153="TP"), "TP", "FN")</f>
@@ -11942,7 +12073,7 @@
       </c>
       <c r="Z153" t="str">
         <f>IF(OR(D153="TP", I153="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA153" t="str">
         <f>IF(AND(D153="TP", I153="TP"), "TP", "FN")</f>
@@ -11950,7 +12081,7 @@
       </c>
       <c r="AB153" t="str">
         <f>IF(OR(H153="TP", I153="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC153" s="5" t="str">
         <f>IF(AND(H153="TP", I153="TP"), "TP", "FN")</f>
@@ -11959,7 +12090,7 @@
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B154" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D154" t="s">
         <v>474</v>
@@ -11967,12 +12098,17 @@
       <c r="G154" t="s">
         <v>474</v>
       </c>
-      <c r="I154" s="5"/>
+      <c r="H154" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I154" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T154" s="5"/>
       <c r="U154" s="59"/>
       <c r="V154" s="14" t="str">
         <f>IF(OR(D154="TP", H154="TP", I154="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W154" t="str">
         <f>IF(AND(D154="TP", H154="TP", I154="TP"), "TP", "FN")</f>
@@ -11988,7 +12124,7 @@
       </c>
       <c r="Z154" t="str">
         <f>IF(OR(D154="TP", I154="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA154" t="str">
         <f>IF(AND(D154="TP", I154="TP"), "TP", "FN")</f>
@@ -11996,7 +12132,7 @@
       </c>
       <c r="AB154" t="str">
         <f>IF(OR(H154="TP", I154="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC154" s="5" t="str">
         <f>IF(AND(H154="TP", I154="TP"), "TP", "FN")</f>
@@ -12006,7 +12142,7 @@
     <row r="155" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2" t="s">
@@ -12017,8 +12153,12 @@
       <c r="G155" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="H155" s="2"/>
-      <c r="I155" s="6"/>
+      <c r="H155" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>474</v>
+      </c>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
@@ -13352,7 +13492,7 @@
     </row>
     <row r="176" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B176" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D176" s="47" t="s">
         <v>474</v>
@@ -13360,12 +13500,17 @@
       <c r="G176" t="s">
         <v>474</v>
       </c>
-      <c r="I176" s="5"/>
+      <c r="H176" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T176" s="5"/>
       <c r="U176" s="59"/>
       <c r="V176" s="14" t="str">
         <f>IF(OR(D176="TP", H176="TP", I176="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W176" t="str">
         <f>IF(AND(D176="TP", H176="TP", I176="TP"), "TP", "FN")</f>
@@ -13373,7 +13518,7 @@
       </c>
       <c r="X176" t="str">
         <f>IF(OR(D176="TP", H176="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y176" t="str">
         <f>IF(AND(D176="TP", H176="TP"), "TP", "FN")</f>
@@ -13389,7 +13534,7 @@
       </c>
       <c r="AB176" t="str">
         <f>IF(OR(H176="TP", I176="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC176" s="5" t="str">
         <f>IF(AND(H176="TP", I176="TP"), "TP", "FN")</f>
@@ -13398,7 +13543,7 @@
     </row>
     <row r="177" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B177" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D177" s="47" t="s">
         <v>474</v>
@@ -13406,12 +13551,17 @@
       <c r="G177" t="s">
         <v>474</v>
       </c>
-      <c r="I177" s="5"/>
+      <c r="H177" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I177" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T177" s="5"/>
       <c r="U177" s="59"/>
       <c r="V177" s="14" t="str">
         <f>IF(OR(D177="TP", H177="TP", I177="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W177" t="str">
         <f>IF(AND(D177="TP", H177="TP", I177="TP"), "TP", "FN")</f>
@@ -13419,7 +13569,7 @@
       </c>
       <c r="X177" t="str">
         <f>IF(OR(D177="TP", H177="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y177" t="str">
         <f>IF(AND(D177="TP", H177="TP"), "TP", "FN")</f>
@@ -13435,7 +13585,7 @@
       </c>
       <c r="AB177" t="str">
         <f>IF(OR(H177="TP", I177="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC177" s="5" t="str">
         <f>IF(AND(H177="TP", I177="TP"), "TP", "FN")</f>
@@ -13444,7 +13594,7 @@
     </row>
     <row r="178" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B178" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D178" s="47" t="s">
         <v>474</v>
@@ -13452,12 +13602,17 @@
       <c r="G178" t="s">
         <v>474</v>
       </c>
-      <c r="I178" s="5"/>
+      <c r="H178" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T178" s="5"/>
       <c r="U178" s="59"/>
       <c r="V178" s="14" t="str">
         <f>IF(OR(D178="TP", H178="TP", I178="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W178" t="str">
         <f>IF(AND(D178="TP", H178="TP", I178="TP"), "TP", "FN")</f>
@@ -13465,7 +13620,7 @@
       </c>
       <c r="X178" t="str">
         <f>IF(OR(D178="TP", H178="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y178" t="str">
         <f>IF(AND(D178="TP", H178="TP"), "TP", "FN")</f>
@@ -13481,7 +13636,7 @@
       </c>
       <c r="AB178" t="str">
         <f>IF(OR(H178="TP", I178="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC178" s="5" t="str">
         <f>IF(AND(H178="TP", I178="TP"), "TP", "FN")</f>
@@ -13490,7 +13645,7 @@
     </row>
     <row r="179" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B179" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D179" s="47" t="s">
         <v>474</v>
@@ -13498,12 +13653,17 @@
       <c r="G179" t="s">
         <v>474</v>
       </c>
-      <c r="I179" s="5"/>
+      <c r="H179" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I179" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T179" s="5"/>
       <c r="U179" s="59"/>
       <c r="V179" s="14" t="str">
         <f>IF(OR(D179="TP", H179="TP", I179="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W179" t="str">
         <f>IF(AND(D179="TP", H179="TP", I179="TP"), "TP", "FN")</f>
@@ -13511,7 +13671,7 @@
       </c>
       <c r="X179" t="str">
         <f>IF(OR(D179="TP", H179="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y179" t="str">
         <f>IF(AND(D179="TP", H179="TP"), "TP", "FN")</f>
@@ -13527,7 +13687,7 @@
       </c>
       <c r="AB179" t="str">
         <f>IF(OR(H179="TP", I179="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC179" s="5" t="str">
         <f>IF(AND(H179="TP", I179="TP"), "TP", "FN")</f>
@@ -13536,7 +13696,7 @@
     </row>
     <row r="180" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B180" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D180" t="s">
         <v>473</v>
@@ -13544,7 +13704,12 @@
       <c r="G180" t="s">
         <v>474</v>
       </c>
-      <c r="I180" s="5"/>
+      <c r="H180" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T180" s="5"/>
       <c r="U180" s="59"/>
       <c r="V180" s="14" t="str">
@@ -13582,7 +13747,7 @@
     </row>
     <row r="181" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B181" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D181" s="47" t="s">
         <v>474</v>
@@ -13590,7 +13755,12 @@
       <c r="G181" t="s">
         <v>474</v>
       </c>
-      <c r="I181" s="5"/>
+      <c r="H181" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I181" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T181" s="5"/>
       <c r="U181" s="59"/>
       <c r="V181" s="14" t="str">
@@ -13628,7 +13798,7 @@
     </row>
     <row r="182" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B182" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D182" s="47" t="s">
         <v>474</v>
@@ -13636,7 +13806,12 @@
       <c r="G182" t="s">
         <v>474</v>
       </c>
-      <c r="I182" s="5"/>
+      <c r="H182" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I182" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T182" s="5"/>
       <c r="U182" s="59"/>
       <c r="V182" s="14" t="str">
@@ -13674,7 +13849,7 @@
     </row>
     <row r="183" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B183" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D183" s="47" t="s">
         <v>474</v>
@@ -13682,12 +13857,17 @@
       <c r="G183" t="s">
         <v>474</v>
       </c>
-      <c r="I183" s="5"/>
+      <c r="H183" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I183" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T183" s="5"/>
       <c r="U183" s="59"/>
       <c r="V183" s="14" t="str">
         <f>IF(OR(D183="TP", H183="TP", I183="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W183" t="str">
         <f>IF(AND(D183="TP", H183="TP", I183="TP"), "TP", "FN")</f>
@@ -13695,7 +13875,7 @@
       </c>
       <c r="X183" t="str">
         <f>IF(OR(D183="TP", H183="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y183" t="str">
         <f>IF(AND(D183="TP", H183="TP"), "TP", "FN")</f>
@@ -13711,7 +13891,7 @@
       </c>
       <c r="AB183" t="str">
         <f>IF(OR(H183="TP", I183="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC183" s="5" t="str">
         <f>IF(AND(H183="TP", I183="TP"), "TP", "FN")</f>
@@ -13720,7 +13900,7 @@
     </row>
     <row r="184" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B184" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D184" s="47" t="s">
         <v>474</v>
@@ -13728,12 +13908,17 @@
       <c r="G184" t="s">
         <v>474</v>
       </c>
-      <c r="I184" s="5"/>
+      <c r="H184" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I184" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T184" s="5"/>
       <c r="U184" s="59"/>
       <c r="V184" s="14" t="str">
         <f>IF(OR(D184="TP", H184="TP", I184="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W184" t="str">
         <f>IF(AND(D184="TP", H184="TP", I184="TP"), "TP", "FN")</f>
@@ -13741,7 +13926,7 @@
       </c>
       <c r="X184" t="str">
         <f>IF(OR(D184="TP", H184="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y184" t="str">
         <f>IF(AND(D184="TP", H184="TP"), "TP", "FN")</f>
@@ -13757,7 +13942,7 @@
       </c>
       <c r="AB184" t="str">
         <f>IF(OR(H184="TP", I184="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC184" s="5" t="str">
         <f>IF(AND(H184="TP", I184="TP"), "TP", "FN")</f>
@@ -13766,7 +13951,7 @@
     </row>
     <row r="185" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B185" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D185" s="47" t="s">
         <v>474</v>
@@ -13774,12 +13959,17 @@
       <c r="G185" t="s">
         <v>474</v>
       </c>
-      <c r="I185" s="5"/>
+      <c r="H185" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I185" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T185" s="5"/>
       <c r="U185" s="59"/>
       <c r="V185" s="14" t="str">
         <f>IF(OR(D185="TP", H185="TP", I185="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W185" t="str">
         <f>IF(AND(D185="TP", H185="TP", I185="TP"), "TP", "FN")</f>
@@ -13787,7 +13977,7 @@
       </c>
       <c r="X185" t="str">
         <f>IF(OR(D185="TP", H185="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y185" t="str">
         <f>IF(AND(D185="TP", H185="TP"), "TP", "FN")</f>
@@ -13803,7 +13993,7 @@
       </c>
       <c r="AB185" t="str">
         <f>IF(OR(H185="TP", I185="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC185" s="5" t="str">
         <f>IF(AND(H185="TP", I185="TP"), "TP", "FN")</f>
@@ -13813,7 +14003,7 @@
     <row r="186" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="57" t="s">
@@ -13824,8 +14014,12 @@
       <c r="G186" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="H186" s="2"/>
-      <c r="I186" s="6"/>
+      <c r="H186" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I186" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
@@ -13840,7 +14034,7 @@
       <c r="U186" s="2"/>
       <c r="V186" s="16" t="str">
         <f>IF(OR(D186="TP", H186="TP", I186="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W186" s="2" t="str">
         <f>IF(AND(D186="TP", H186="TP", I186="TP"), "TP", "FN")</f>
@@ -13848,7 +14042,7 @@
       </c>
       <c r="X186" s="2" t="str">
         <f>IF(OR(D186="TP", H186="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y186" s="2" t="str">
         <f>IF(AND(D186="TP", H186="TP"), "TP", "FN")</f>
@@ -13864,7 +14058,7 @@
       </c>
       <c r="AB186" s="2" t="str">
         <f>IF(OR(H186="TP", I186="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC186" s="6" t="str">
         <f>IF(AND(H186="TP", I186="TP"), "TP", "FN")</f>
@@ -15184,7 +15378,7 @@
     </row>
     <row r="207" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B207" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D207" t="s">
         <v>473</v>
@@ -15192,7 +15386,12 @@
       <c r="G207" t="s">
         <v>474</v>
       </c>
-      <c r="I207" s="5"/>
+      <c r="H207" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I207" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T207" s="5"/>
       <c r="U207" s="59"/>
       <c r="V207" s="14" t="str">
@@ -15209,7 +15408,7 @@
       </c>
       <c r="Y207" t="str">
         <f>IF(AND(D207="TP", H207="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z207" t="str">
         <f>IF(OR(D207="TP", I207="TP"), "TP", "FN")</f>
@@ -15221,7 +15420,7 @@
       </c>
       <c r="AB207" t="str">
         <f>IF(OR(H207="TP", I207="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC207" s="5" t="str">
         <f>IF(AND(H207="TP", I207="TP"), "TP", "FN")</f>
@@ -15230,7 +15429,7 @@
     </row>
     <row r="208" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B208" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D208" t="s">
         <v>473</v>
@@ -15238,7 +15437,12 @@
       <c r="G208" t="s">
         <v>474</v>
       </c>
-      <c r="I208" s="5"/>
+      <c r="H208" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I208" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T208" s="5"/>
       <c r="U208" s="59"/>
       <c r="V208" s="14" t="str">
@@ -15255,7 +15459,7 @@
       </c>
       <c r="Y208" t="str">
         <f>IF(AND(D208="TP", H208="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z208" t="str">
         <f>IF(OR(D208="TP", I208="TP"), "TP", "FN")</f>
@@ -15267,7 +15471,7 @@
       </c>
       <c r="AB208" t="str">
         <f>IF(OR(H208="TP", I208="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC208" s="5" t="str">
         <f>IF(AND(H208="TP", I208="TP"), "TP", "FN")</f>
@@ -15276,7 +15480,7 @@
     </row>
     <row r="209" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B209" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D209" t="s">
         <v>473</v>
@@ -15284,7 +15488,12 @@
       <c r="G209" t="s">
         <v>474</v>
       </c>
-      <c r="I209" s="5"/>
+      <c r="H209" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I209" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T209" s="5"/>
       <c r="U209" s="59"/>
       <c r="V209" s="14" t="str">
@@ -15301,7 +15510,7 @@
       </c>
       <c r="Y209" t="str">
         <f>IF(AND(D209="TP", H209="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z209" t="str">
         <f>IF(OR(D209="TP", I209="TP"), "TP", "FN")</f>
@@ -15313,7 +15522,7 @@
       </c>
       <c r="AB209" t="str">
         <f>IF(OR(H209="TP", I209="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC209" s="5" t="str">
         <f>IF(AND(H209="TP", I209="TP"), "TP", "FN")</f>
@@ -15322,7 +15531,7 @@
     </row>
     <row r="210" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B210" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D210" t="s">
         <v>473</v>
@@ -15330,7 +15539,12 @@
       <c r="G210" t="s">
         <v>474</v>
       </c>
-      <c r="I210" s="5"/>
+      <c r="H210" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I210" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T210" s="5"/>
       <c r="U210" s="59"/>
       <c r="V210" s="14" t="str">
@@ -15347,7 +15561,7 @@
       </c>
       <c r="Y210" t="str">
         <f>IF(AND(D210="TP", H210="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z210" t="str">
         <f>IF(OR(D210="TP", I210="TP"), "TP", "FN")</f>
@@ -15359,7 +15573,7 @@
       </c>
       <c r="AB210" t="str">
         <f>IF(OR(H210="TP", I210="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC210" s="5" t="str">
         <f>IF(AND(H210="TP", I210="TP"), "TP", "FN")</f>
@@ -15368,7 +15582,7 @@
     </row>
     <row r="211" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B211" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D211" t="s">
         <v>473</v>
@@ -15376,7 +15590,12 @@
       <c r="G211" t="s">
         <v>474</v>
       </c>
-      <c r="I211" s="5"/>
+      <c r="H211" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I211" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T211" s="5"/>
       <c r="U211" s="59"/>
       <c r="V211" s="14" t="str">
@@ -15393,7 +15612,7 @@
       </c>
       <c r="Y211" t="str">
         <f>IF(AND(D211="TP", H211="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z211" t="str">
         <f>IF(OR(D211="TP", I211="TP"), "TP", "FN")</f>
@@ -15405,7 +15624,7 @@
       </c>
       <c r="AB211" t="str">
         <f>IF(OR(H211="TP", I211="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC211" s="5" t="str">
         <f>IF(AND(H211="TP", I211="TP"), "TP", "FN")</f>
@@ -15414,7 +15633,7 @@
     </row>
     <row r="212" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B212" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D212" t="s">
         <v>473</v>
@@ -15422,7 +15641,12 @@
       <c r="G212" t="s">
         <v>474</v>
       </c>
-      <c r="I212" s="5"/>
+      <c r="H212" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I212" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T212" s="5"/>
       <c r="U212" s="59"/>
       <c r="V212" s="14" t="str">
@@ -15460,7 +15684,7 @@
     </row>
     <row r="213" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B213" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D213" t="s">
         <v>473</v>
@@ -15468,7 +15692,12 @@
       <c r="G213" t="s">
         <v>474</v>
       </c>
-      <c r="I213" s="5"/>
+      <c r="H213" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I213" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T213" s="5"/>
       <c r="U213" s="59"/>
       <c r="V213" s="14" t="str">
@@ -15485,7 +15714,7 @@
       </c>
       <c r="Y213" t="str">
         <f>IF(AND(D213="TP", H213="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z213" t="str">
         <f>IF(OR(D213="TP", I213="TP"), "TP", "FN")</f>
@@ -15497,7 +15726,7 @@
       </c>
       <c r="AB213" t="str">
         <f>IF(OR(H213="TP", I213="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC213" s="5" t="str">
         <f>IF(AND(H213="TP", I213="TP"), "TP", "FN")</f>
@@ -15506,7 +15735,7 @@
     </row>
     <row r="214" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B214" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D214" t="s">
         <v>473</v>
@@ -15514,7 +15743,12 @@
       <c r="G214" t="s">
         <v>474</v>
       </c>
-      <c r="I214" s="5"/>
+      <c r="H214" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I214" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T214" s="5"/>
       <c r="U214" s="59"/>
       <c r="V214" s="14" t="str">
@@ -15531,7 +15765,7 @@
       </c>
       <c r="Y214" t="str">
         <f>IF(AND(D214="TP", H214="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z214" t="str">
         <f>IF(OR(D214="TP", I214="TP"), "TP", "FN")</f>
@@ -15543,7 +15777,7 @@
       </c>
       <c r="AB214" t="str">
         <f>IF(OR(H214="TP", I214="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC214" s="5" t="str">
         <f>IF(AND(H214="TP", I214="TP"), "TP", "FN")</f>
@@ -15552,7 +15786,7 @@
     </row>
     <row r="215" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B215" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D215" t="s">
         <v>473</v>
@@ -15560,7 +15794,12 @@
       <c r="G215" t="s">
         <v>474</v>
       </c>
-      <c r="I215" s="5"/>
+      <c r="H215" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I215" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T215" s="5"/>
       <c r="U215" s="59"/>
       <c r="V215" s="14" t="str">
@@ -15577,7 +15816,7 @@
       </c>
       <c r="Y215" t="str">
         <f>IF(AND(D215="TP", H215="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z215" t="str">
         <f>IF(OR(D215="TP", I215="TP"), "TP", "FN")</f>
@@ -15589,7 +15828,7 @@
       </c>
       <c r="AB215" t="str">
         <f>IF(OR(H215="TP", I215="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC215" s="5" t="str">
         <f>IF(AND(H215="TP", I215="TP"), "TP", "FN")</f>
@@ -15598,7 +15837,7 @@
     </row>
     <row r="216" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B216" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D216" t="s">
         <v>473</v>
@@ -15606,7 +15845,12 @@
       <c r="G216" t="s">
         <v>474</v>
       </c>
-      <c r="I216" s="5"/>
+      <c r="H216" t="s">
+        <v>474</v>
+      </c>
+      <c r="I216" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T216" s="5"/>
       <c r="U216" s="59"/>
       <c r="V216" s="14" t="str">
@@ -15644,7 +15888,7 @@
     </row>
     <row r="217" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B217" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D217" t="s">
         <v>473</v>
@@ -15652,7 +15896,12 @@
       <c r="G217" t="s">
         <v>474</v>
       </c>
-      <c r="I217" s="5"/>
+      <c r="H217" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I217" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T217" s="5"/>
       <c r="U217" s="59"/>
       <c r="V217" s="14" t="str">
@@ -15669,7 +15918,7 @@
       </c>
       <c r="Y217" t="str">
         <f>IF(AND(D217="TP", H217="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z217" t="str">
         <f>IF(OR(D217="TP", I217="TP"), "TP", "FN")</f>
@@ -15681,7 +15930,7 @@
       </c>
       <c r="AB217" t="str">
         <f>IF(OR(H217="TP", I217="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC217" s="5" t="str">
         <f>IF(AND(H217="TP", I217="TP"), "TP", "FN")</f>
@@ -15690,7 +15939,7 @@
     </row>
     <row r="218" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B218" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D218" t="s">
         <v>473</v>
@@ -15698,7 +15947,12 @@
       <c r="G218" t="s">
         <v>474</v>
       </c>
-      <c r="I218" s="5"/>
+      <c r="H218" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I218" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T218" s="5"/>
       <c r="U218" s="59"/>
       <c r="V218" s="14" t="str">
@@ -15715,7 +15969,7 @@
       </c>
       <c r="Y218" t="str">
         <f>IF(AND(D218="TP", H218="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z218" t="str">
         <f>IF(OR(D218="TP", I218="TP"), "TP", "FN")</f>
@@ -15727,7 +15981,7 @@
       </c>
       <c r="AB218" t="str">
         <f>IF(OR(H218="TP", I218="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC218" s="5" t="str">
         <f>IF(AND(H218="TP", I218="TP"), "TP", "FN")</f>
@@ -15736,7 +15990,7 @@
     </row>
     <row r="219" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B219" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D219" t="s">
         <v>473</v>
@@ -15744,7 +15998,12 @@
       <c r="G219" t="s">
         <v>474</v>
       </c>
-      <c r="I219" s="5"/>
+      <c r="H219" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I219" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T219" s="5"/>
       <c r="U219" s="59"/>
       <c r="V219" s="14" t="str">
@@ -15761,7 +16020,7 @@
       </c>
       <c r="Y219" t="str">
         <f>IF(AND(D219="TP", H219="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z219" t="str">
         <f>IF(OR(D219="TP", I219="TP"), "TP", "FN")</f>
@@ -15773,7 +16032,7 @@
       </c>
       <c r="AB219" t="str">
         <f>IF(OR(H219="TP", I219="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC219" s="5" t="str">
         <f>IF(AND(H219="TP", I219="TP"), "TP", "FN")</f>
@@ -15782,7 +16041,7 @@
     </row>
     <row r="220" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B220" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D220" t="s">
         <v>473</v>
@@ -15790,7 +16049,12 @@
       <c r="G220" t="s">
         <v>474</v>
       </c>
-      <c r="I220" s="5"/>
+      <c r="H220" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I220" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T220" s="5"/>
       <c r="U220" s="59"/>
       <c r="V220" s="14" t="str">
@@ -15807,7 +16071,7 @@
       </c>
       <c r="Y220" t="str">
         <f>IF(AND(D220="TP", H220="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z220" t="str">
         <f>IF(OR(D220="TP", I220="TP"), "TP", "FN")</f>
@@ -15819,7 +16083,7 @@
       </c>
       <c r="AB220" t="str">
         <f>IF(OR(H220="TP", I220="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC220" s="5" t="str">
         <f>IF(AND(H220="TP", I220="TP"), "TP", "FN")</f>
@@ -15829,7 +16093,7 @@
     <row r="221" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>
       <c r="B221" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2" t="s">
@@ -15840,8 +16104,12 @@
       <c r="G221" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="H221" s="2"/>
-      <c r="I221" s="6"/>
+      <c r="H221" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="I221" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
@@ -18490,7 +18758,7 @@
     </row>
     <row r="263" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B263" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D263" t="s">
         <v>473</v>
@@ -18498,7 +18766,9 @@
       <c r="G263" t="s">
         <v>474</v>
       </c>
-      <c r="I263" s="5"/>
+      <c r="I263" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="T263" s="5"/>
       <c r="U263" s="59"/>
       <c r="V263" s="14" t="str">
@@ -18523,11 +18793,11 @@
       </c>
       <c r="AA263" t="str">
         <f>IF(AND(D263="TP", I263="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB263" t="str">
         <f>IF(OR(H263="TP", I263="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC263" s="5" t="str">
         <f>IF(AND(H263="TP", I263="TP"), "TP", "FN")</f>
@@ -18536,7 +18806,7 @@
     </row>
     <row r="264" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B264" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D264" t="s">
         <v>473</v>
@@ -18544,7 +18814,9 @@
       <c r="G264" t="s">
         <v>474</v>
       </c>
-      <c r="I264" s="5"/>
+      <c r="I264" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="T264" s="5"/>
       <c r="U264" s="59"/>
       <c r="V264" s="14" t="str">
@@ -18569,11 +18841,11 @@
       </c>
       <c r="AA264" t="str">
         <f>IF(AND(D264="TP", I264="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB264" t="str">
         <f>IF(OR(H264="TP", I264="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC264" s="5" t="str">
         <f>IF(AND(H264="TP", I264="TP"), "TP", "FN")</f>
@@ -18582,7 +18854,7 @@
     </row>
     <row r="265" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B265" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D265" t="s">
         <v>473</v>
@@ -18590,7 +18862,9 @@
       <c r="G265" t="s">
         <v>474</v>
       </c>
-      <c r="I265" s="5"/>
+      <c r="I265" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="T265" s="5"/>
       <c r="U265" s="59"/>
       <c r="V265" s="14" t="str">
@@ -18615,11 +18889,11 @@
       </c>
       <c r="AA265" t="str">
         <f>IF(AND(D265="TP", I265="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB265" t="str">
         <f>IF(OR(H265="TP", I265="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC265" s="5" t="str">
         <f>IF(AND(H265="TP", I265="TP"), "TP", "FN")</f>
@@ -18628,7 +18902,7 @@
     </row>
     <row r="266" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B266" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D266" t="s">
         <v>473</v>
@@ -18636,7 +18910,9 @@
       <c r="G266" t="s">
         <v>474</v>
       </c>
-      <c r="I266" s="5"/>
+      <c r="I266" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T266" s="5"/>
       <c r="U266" s="59"/>
       <c r="V266" s="14" t="str">
@@ -18674,7 +18950,7 @@
     </row>
     <row r="267" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B267" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D267" t="s">
         <v>473</v>
@@ -18682,7 +18958,9 @@
       <c r="G267" t="s">
         <v>474</v>
       </c>
-      <c r="I267" s="5"/>
+      <c r="I267" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="T267" s="5"/>
       <c r="U267" s="59"/>
       <c r="V267" s="14" t="str">
@@ -18707,11 +18985,11 @@
       </c>
       <c r="AA267" t="str">
         <f>IF(AND(D267="TP", I267="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB267" t="str">
         <f>IF(OR(H267="TP", I267="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC267" s="5" t="str">
         <f>IF(AND(H267="TP", I267="TP"), "TP", "FN")</f>
@@ -18720,7 +18998,7 @@
     </row>
     <row r="268" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B268" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D268" t="s">
         <v>473</v>
@@ -18728,7 +19006,9 @@
       <c r="G268" t="s">
         <v>474</v>
       </c>
-      <c r="I268" s="5"/>
+      <c r="I268" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="T268" s="5"/>
       <c r="U268" s="59"/>
       <c r="V268" s="14" t="str">
@@ -18753,11 +19033,11 @@
       </c>
       <c r="AA268" t="str">
         <f>IF(AND(D268="TP", I268="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB268" t="str">
         <f>IF(OR(H268="TP", I268="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC268" s="5" t="str">
         <f>IF(AND(H268="TP", I268="TP"), "TP", "FN")</f>
@@ -18766,7 +19046,7 @@
     </row>
     <row r="269" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B269" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D269" t="s">
         <v>473</v>
@@ -18774,7 +19054,9 @@
       <c r="G269" t="s">
         <v>474</v>
       </c>
-      <c r="I269" s="5"/>
+      <c r="I269" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="T269" s="5"/>
       <c r="U269" s="59"/>
       <c r="V269" s="14" t="str">
@@ -18799,11 +19081,11 @@
       </c>
       <c r="AA269" t="str">
         <f>IF(AND(D269="TP", I269="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB269" t="str">
         <f>IF(OR(H269="TP", I269="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC269" s="5" t="str">
         <f>IF(AND(H269="TP", I269="TP"), "TP", "FN")</f>
@@ -18813,7 +19095,7 @@
     <row r="270" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A270" s="3"/>
       <c r="B270" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="2" t="s">
@@ -18825,7 +19107,9 @@
         <v>474</v>
       </c>
       <c r="H270" s="2"/>
-      <c r="I270" s="6"/>
+      <c r="I270" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
       <c r="L270" s="2"/>
@@ -18860,11 +19144,11 @@
       </c>
       <c r="AA270" s="2" t="str">
         <f>IF(AND(D270="TP", I270="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB270" s="2" t="str">
         <f>IF(OR(H270="TP", I270="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC270" s="6" t="str">
         <f>IF(AND(H270="TP", I270="TP"), "TP", "FN")</f>
@@ -22038,7 +22322,7 @@
     </row>
     <row r="320" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B320" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D320" t="s">
         <v>474</v>
@@ -22046,12 +22330,17 @@
       <c r="G320" t="s">
         <v>474</v>
       </c>
-      <c r="I320" s="5"/>
+      <c r="H320" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I320" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T320" s="5"/>
       <c r="U320" s="59"/>
       <c r="V320" s="14" t="str">
         <f>IF(OR(D320="TP", H320="TP", I320="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W320" t="str">
         <f>IF(AND(D320="TP", H320="TP", I320="TP"), "TP", "FN")</f>
@@ -22059,7 +22348,7 @@
       </c>
       <c r="X320" t="str">
         <f>IF(OR(D320="TP", H320="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y320" t="str">
         <f>IF(AND(D320="TP", H320="TP"), "TP", "FN")</f>
@@ -22067,7 +22356,7 @@
       </c>
       <c r="Z320" t="str">
         <f>IF(OR(D320="TP", I320="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA320" t="str">
         <f>IF(AND(D320="TP", I320="TP"), "TP", "FN")</f>
@@ -22075,16 +22364,16 @@
       </c>
       <c r="AB320" t="str">
         <f>IF(OR(H320="TP", I320="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC320" s="5" t="str">
         <f>IF(AND(H320="TP", I320="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="321" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B321" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D321" t="s">
         <v>474</v>
@@ -22092,12 +22381,17 @@
       <c r="G321" t="s">
         <v>474</v>
       </c>
-      <c r="I321" s="5"/>
+      <c r="H321" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I321" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T321" s="5"/>
       <c r="U321" s="59"/>
       <c r="V321" s="14" t="str">
         <f>IF(OR(D321="TP", H321="TP", I321="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W321" t="str">
         <f>IF(AND(D321="TP", H321="TP", I321="TP"), "TP", "FN")</f>
@@ -22105,7 +22399,7 @@
       </c>
       <c r="X321" t="str">
         <f>IF(OR(D321="TP", H321="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y321" t="str">
         <f>IF(AND(D321="TP", H321="TP"), "TP", "FN")</f>
@@ -22113,7 +22407,7 @@
       </c>
       <c r="Z321" t="str">
         <f>IF(OR(D321="TP", I321="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA321" t="str">
         <f>IF(AND(D321="TP", I321="TP"), "TP", "FN")</f>
@@ -22121,17 +22415,17 @@
       </c>
       <c r="AB321" t="str">
         <f>IF(OR(H321="TP", I321="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC321" s="5" t="str">
         <f>IF(AND(H321="TP", I321="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="322" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A322" s="3"/>
       <c r="B322" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="2" t="s">
@@ -22142,8 +22436,12 @@
       <c r="G322" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="H322" s="2"/>
-      <c r="I322" s="6"/>
+      <c r="H322" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I322" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="J322" s="2"/>
       <c r="K322" s="2"/>
       <c r="L322" s="2"/>
@@ -22158,7 +22456,7 @@
       <c r="U322" s="2"/>
       <c r="V322" s="16" t="str">
         <f>IF(OR(D322="TP", H322="TP", I322="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W322" s="2" t="str">
         <f>IF(AND(D322="TP", H322="TP", I322="TP"), "TP", "FN")</f>
@@ -22166,7 +22464,7 @@
       </c>
       <c r="X322" s="2" t="str">
         <f>IF(OR(D322="TP", H322="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y322" s="2" t="str">
         <f>IF(AND(D322="TP", H322="TP"), "TP", "FN")</f>
@@ -22174,7 +22472,7 @@
       </c>
       <c r="Z322" s="2" t="str">
         <f>IF(OR(D322="TP", I322="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA322" s="2" t="str">
         <f>IF(AND(D322="TP", I322="TP"), "TP", "FN")</f>
@@ -22182,11 +22480,11 @@
       </c>
       <c r="AB322" s="2" t="str">
         <f>IF(OR(H322="TP", I322="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC322" s="6" t="str">
         <f>IF(AND(H322="TP", I322="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="323" spans="1:29" x14ac:dyDescent="0.2">
@@ -25566,7 +25864,7 @@
     </row>
     <row r="377" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B377" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D377" t="s">
         <v>474</v>
@@ -25574,7 +25872,12 @@
       <c r="G377" t="s">
         <v>474</v>
       </c>
-      <c r="I377" s="5"/>
+      <c r="H377" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I377" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T377" s="5"/>
       <c r="U377" s="59"/>
       <c r="V377" s="14" t="str">
@@ -25612,7 +25915,7 @@
     </row>
     <row r="378" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B378" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D378" t="s">
         <v>473</v>
@@ -25620,7 +25923,12 @@
       <c r="G378" t="s">
         <v>474</v>
       </c>
-      <c r="I378" s="5"/>
+      <c r="H378" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I378" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T378" s="5"/>
       <c r="U378" s="59"/>
       <c r="V378" s="14" t="str">
@@ -25629,7 +25937,7 @@
       </c>
       <c r="W378" t="str">
         <f>IF(AND(D378="TP", H378="TP", I378="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X378" t="str">
         <f>IF(OR(D378="TP", H378="TP"), "TP", "FN")</f>
@@ -25637,7 +25945,7 @@
       </c>
       <c r="Y378" t="str">
         <f>IF(AND(D378="TP", H378="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z378" t="str">
         <f>IF(OR(D378="TP", I378="TP"), "TP", "FN")</f>
@@ -25645,20 +25953,20 @@
       </c>
       <c r="AA378" t="str">
         <f>IF(AND(D378="TP", I378="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB378" t="str">
         <f>IF(OR(H378="TP", I378="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC378" s="5" t="str">
         <f>IF(AND(H378="TP", I378="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="379" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B379" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D379" t="s">
         <v>473</v>
@@ -25666,7 +25974,12 @@
       <c r="G379" t="s">
         <v>474</v>
       </c>
-      <c r="I379" s="5"/>
+      <c r="H379" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I379" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T379" s="5"/>
       <c r="U379" s="59"/>
       <c r="V379" s="14" t="str">
@@ -25675,7 +25988,7 @@
       </c>
       <c r="W379" t="str">
         <f>IF(AND(D379="TP", H379="TP", I379="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X379" t="str">
         <f>IF(OR(D379="TP", H379="TP"), "TP", "FN")</f>
@@ -25683,7 +25996,7 @@
       </c>
       <c r="Y379" t="str">
         <f>IF(AND(D379="TP", H379="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z379" t="str">
         <f>IF(OR(D379="TP", I379="TP"), "TP", "FN")</f>
@@ -25691,20 +26004,20 @@
       </c>
       <c r="AA379" t="str">
         <f>IF(AND(D379="TP", I379="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB379" t="str">
         <f>IF(OR(H379="TP", I379="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC379" s="5" t="str">
         <f>IF(AND(H379="TP", I379="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="380" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B380" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D380" t="s">
         <v>473</v>
@@ -25712,7 +26025,12 @@
       <c r="G380" t="s">
         <v>474</v>
       </c>
-      <c r="I380" s="5"/>
+      <c r="H380" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I380" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T380" s="5"/>
       <c r="U380" s="59"/>
       <c r="V380" s="14" t="str">
@@ -25721,7 +26039,7 @@
       </c>
       <c r="W380" t="str">
         <f>IF(AND(D380="TP", H380="TP", I380="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X380" t="str">
         <f>IF(OR(D380="TP", H380="TP"), "TP", "FN")</f>
@@ -25729,7 +26047,7 @@
       </c>
       <c r="Y380" t="str">
         <f>IF(AND(D380="TP", H380="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z380" t="str">
         <f>IF(OR(D380="TP", I380="TP"), "TP", "FN")</f>
@@ -25737,20 +26055,20 @@
       </c>
       <c r="AA380" t="str">
         <f>IF(AND(D380="TP", I380="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB380" t="str">
         <f>IF(OR(H380="TP", I380="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC380" s="5" t="str">
         <f>IF(AND(H380="TP", I380="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="381" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B381" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D381" t="s">
         <v>474</v>
@@ -25758,7 +26076,12 @@
       <c r="G381" t="s">
         <v>474</v>
       </c>
-      <c r="I381" s="5"/>
+      <c r="H381" t="s">
+        <v>474</v>
+      </c>
+      <c r="I381" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T381" s="5"/>
       <c r="U381" s="59"/>
       <c r="V381" s="14" t="str">
@@ -25796,7 +26119,7 @@
     </row>
     <row r="382" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B382" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D382" t="s">
         <v>473</v>
@@ -25804,7 +26127,12 @@
       <c r="G382" t="s">
         <v>474</v>
       </c>
-      <c r="I382" s="5"/>
+      <c r="H382" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="I382" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T382" s="5"/>
       <c r="U382" s="59"/>
       <c r="V382" s="14" t="str">
@@ -25842,7 +26170,7 @@
     </row>
     <row r="383" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B383" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D383" t="s">
         <v>473</v>
@@ -25850,7 +26178,12 @@
       <c r="G383" t="s">
         <v>474</v>
       </c>
-      <c r="I383" s="5"/>
+      <c r="H383" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I383" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T383" s="5"/>
       <c r="U383" s="59"/>
       <c r="V383" s="14" t="str">
@@ -25859,7 +26192,7 @@
       </c>
       <c r="W383" t="str">
         <f>IF(AND(D383="TP", H383="TP", I383="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X383" t="str">
         <f>IF(OR(D383="TP", H383="TP"), "TP", "FN")</f>
@@ -25867,7 +26200,7 @@
       </c>
       <c r="Y383" t="str">
         <f>IF(AND(D383="TP", H383="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z383" t="str">
         <f>IF(OR(D383="TP", I383="TP"), "TP", "FN")</f>
@@ -25875,20 +26208,20 @@
       </c>
       <c r="AA383" t="str">
         <f>IF(AND(D383="TP", I383="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB383" t="str">
         <f>IF(OR(H383="TP", I383="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC383" s="5" t="str">
         <f>IF(AND(H383="TP", I383="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="384" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B384" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D384" t="s">
         <v>473</v>
@@ -25896,7 +26229,12 @@
       <c r="G384" t="s">
         <v>474</v>
       </c>
-      <c r="I384" s="5"/>
+      <c r="H384" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I384" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T384" s="5"/>
       <c r="U384" s="59"/>
       <c r="V384" s="14" t="str">
@@ -25905,7 +26243,7 @@
       </c>
       <c r="W384" t="str">
         <f>IF(AND(D384="TP", H384="TP", I384="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X384" t="str">
         <f>IF(OR(D384="TP", H384="TP"), "TP", "FN")</f>
@@ -25913,7 +26251,7 @@
       </c>
       <c r="Y384" t="str">
         <f>IF(AND(D384="TP", H384="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z384" t="str">
         <f>IF(OR(D384="TP", I384="TP"), "TP", "FN")</f>
@@ -25921,20 +26259,20 @@
       </c>
       <c r="AA384" t="str">
         <f>IF(AND(D384="TP", I384="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB384" t="str">
         <f>IF(OR(H384="TP", I384="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC384" s="5" t="str">
         <f>IF(AND(H384="TP", I384="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="385" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B385" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D385" t="s">
         <v>473</v>
@@ -25942,7 +26280,12 @@
       <c r="G385" t="s">
         <v>474</v>
       </c>
-      <c r="I385" s="5"/>
+      <c r="H385" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I385" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T385" s="5"/>
       <c r="U385" s="59"/>
       <c r="V385" s="14" t="str">
@@ -25951,7 +26294,7 @@
       </c>
       <c r="W385" t="str">
         <f>IF(AND(D385="TP", H385="TP", I385="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X385" t="str">
         <f>IF(OR(D385="TP", H385="TP"), "TP", "FN")</f>
@@ -25959,7 +26302,7 @@
       </c>
       <c r="Y385" t="str">
         <f>IF(AND(D385="TP", H385="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z385" t="str">
         <f>IF(OR(D385="TP", I385="TP"), "TP", "FN")</f>
@@ -25967,21 +26310,21 @@
       </c>
       <c r="AA385" t="str">
         <f>IF(AND(D385="TP", I385="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB385" t="str">
         <f>IF(OR(H385="TP", I385="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC385" s="5" t="str">
         <f>IF(AND(H385="TP", I385="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="386" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A386" s="3"/>
       <c r="B386" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C386" s="2"/>
       <c r="D386" s="2" t="s">
@@ -25992,8 +26335,12 @@
       <c r="G386" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="H386" s="2"/>
-      <c r="I386" s="6"/>
+      <c r="H386" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="I386" s="6" t="s">
+        <v>474</v>
+      </c>
       <c r="J386" s="2"/>
       <c r="K386" s="2"/>
       <c r="L386" s="2"/>
@@ -27103,7 +27450,7 @@
     </row>
     <row r="408" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B408" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D408" t="s">
         <v>474</v>
@@ -27111,12 +27458,17 @@
       <c r="G408" t="s">
         <v>474</v>
       </c>
-      <c r="I408" s="5"/>
+      <c r="H408" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I408" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T408" s="5"/>
       <c r="U408" s="59"/>
       <c r="V408" s="14" t="str">
         <f>IF(OR(D408="TP", H408="TP", I408="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W408" t="str">
         <f>IF(AND(D408="TP", H408="TP", I408="TP"), "TP", "FN")</f>
@@ -27124,7 +27476,7 @@
       </c>
       <c r="X408" t="str">
         <f>IF(OR(D408="TP", H408="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y408" t="str">
         <f>IF(AND(D408="TP", H408="TP"), "TP", "FN")</f>
@@ -27132,7 +27484,7 @@
       </c>
       <c r="Z408" t="str">
         <f>IF(OR(D408="TP", I408="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA408" t="str">
         <f>IF(AND(D408="TP", I408="TP"), "TP", "FN")</f>
@@ -27140,11 +27492,11 @@
       </c>
       <c r="AB408" t="str">
         <f>IF(OR(H408="TP", I408="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC408" s="5" t="str">
         <f>IF(AND(H408="TP", I408="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="409" spans="1:29" x14ac:dyDescent="0.2">
@@ -27158,11 +27510,15 @@
       </c>
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
-      <c r="G409" t="s">
-        <v>474</v>
-      </c>
-      <c r="H409" s="2"/>
-      <c r="I409" s="6"/>
+      <c r="G409" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="H409" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I409" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="J409" s="2"/>
       <c r="K409" s="2"/>
       <c r="L409" s="2"/>
@@ -27177,7 +27533,7 @@
       <c r="U409" s="59"/>
       <c r="V409" s="14" t="str">
         <f>IF(OR(D409="TP", H409="TP", I409="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W409" t="str">
         <f>IF(AND(D409="TP", H409="TP", I409="TP"), "TP", "FN")</f>
@@ -27185,7 +27541,7 @@
       </c>
       <c r="X409" t="str">
         <f>IF(OR(D409="TP", H409="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y409" t="str">
         <f>IF(AND(D409="TP", H409="TP"), "TP", "FN")</f>
@@ -27193,7 +27549,7 @@
       </c>
       <c r="Z409" t="str">
         <f>IF(OR(D409="TP", I409="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA409" t="str">
         <f>IF(AND(D409="TP", I409="TP"), "TP", "FN")</f>
@@ -27201,11 +27557,11 @@
       </c>
       <c r="AB409" t="str">
         <f>IF(OR(H409="TP", I409="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC409" s="5" t="str">
         <f>IF(AND(H409="TP", I409="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="410" spans="1:29" x14ac:dyDescent="0.2">
@@ -27767,7 +28123,7 @@
     </row>
     <row r="421" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B421" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D421" t="s">
         <v>473</v>
@@ -27775,7 +28131,20 @@
       <c r="G421" t="s">
         <v>474</v>
       </c>
-      <c r="I421" s="5"/>
+      <c r="H421" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I421" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="K421" t="str">
+        <f>IF(COUNTIF(C421:I421, "TP") &gt; 0,"TP","FN")</f>
+        <v>TP</v>
+      </c>
+      <c r="L421" t="str">
+        <f>IF(COUNTIF(C421:I421, "FN") = 0,"TP","FN")</f>
+        <v>FN</v>
+      </c>
       <c r="T421" s="5"/>
       <c r="U421" s="59"/>
       <c r="V421" s="14" t="str">
@@ -27813,7 +28182,7 @@
     </row>
     <row r="422" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B422" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D422" t="s">
         <v>473</v>
@@ -27821,7 +28190,12 @@
       <c r="G422" t="s">
         <v>474</v>
       </c>
-      <c r="I422" s="5"/>
+      <c r="H422" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I422" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T422" s="5"/>
       <c r="U422" s="59"/>
       <c r="V422" s="14" t="str">
@@ -27830,7 +28204,7 @@
       </c>
       <c r="W422" t="str">
         <f>IF(AND(D422="TP", H422="TP", I422="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X422" t="str">
         <f>IF(OR(D422="TP", H422="TP"), "TP", "FN")</f>
@@ -27838,7 +28212,7 @@
       </c>
       <c r="Y422" t="str">
         <f>IF(AND(D422="TP", H422="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z422" t="str">
         <f>IF(OR(D422="TP", I422="TP"), "TP", "FN")</f>
@@ -27846,20 +28220,20 @@
       </c>
       <c r="AA422" t="str">
         <f>IF(AND(D422="TP", I422="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB422" t="str">
         <f>IF(OR(H422="TP", I422="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC422" s="5" t="str">
         <f>IF(AND(H422="TP", I422="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="423" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B423" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D423" t="s">
         <v>473</v>
@@ -27867,7 +28241,12 @@
       <c r="G423" t="s">
         <v>474</v>
       </c>
-      <c r="I423" s="5"/>
+      <c r="H423" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I423" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T423" s="5"/>
       <c r="U423" s="59"/>
       <c r="V423" s="14" t="str">
@@ -27876,7 +28255,7 @@
       </c>
       <c r="W423" t="str">
         <f>IF(AND(D423="TP", H423="TP", I423="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X423" t="str">
         <f>IF(OR(D423="TP", H423="TP"), "TP", "FN")</f>
@@ -27884,7 +28263,7 @@
       </c>
       <c r="Y423" t="str">
         <f>IF(AND(D423="TP", H423="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z423" t="str">
         <f>IF(OR(D423="TP", I423="TP"), "TP", "FN")</f>
@@ -27892,20 +28271,20 @@
       </c>
       <c r="AA423" t="str">
         <f>IF(AND(D423="TP", I423="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB423" t="str">
         <f>IF(OR(H423="TP", I423="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC423" s="5" t="str">
         <f>IF(AND(H423="TP", I423="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="424" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B424" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D424" t="s">
         <v>473</v>
@@ -27913,7 +28292,12 @@
       <c r="G424" t="s">
         <v>474</v>
       </c>
-      <c r="I424" s="5"/>
+      <c r="H424" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I424" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T424" s="5"/>
       <c r="U424" s="59"/>
       <c r="V424" s="14" t="str">
@@ -27951,7 +28335,7 @@
     </row>
     <row r="425" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B425" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D425" t="s">
         <v>473</v>
@@ -27959,7 +28343,12 @@
       <c r="G425" t="s">
         <v>474</v>
       </c>
-      <c r="I425" s="5"/>
+      <c r="H425" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I425" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T425" s="5"/>
       <c r="U425" s="59"/>
       <c r="V425" s="14" t="str">
@@ -27968,7 +28357,7 @@
       </c>
       <c r="W425" t="str">
         <f>IF(AND(D425="TP", H425="TP", I425="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X425" t="str">
         <f>IF(OR(D425="TP", H425="TP"), "TP", "FN")</f>
@@ -27976,7 +28365,7 @@
       </c>
       <c r="Y425" t="str">
         <f>IF(AND(D425="TP", H425="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z425" t="str">
         <f>IF(OR(D425="TP", I425="TP"), "TP", "FN")</f>
@@ -27984,20 +28373,20 @@
       </c>
       <c r="AA425" t="str">
         <f>IF(AND(D425="TP", I425="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB425" t="str">
         <f>IF(OR(H425="TP", I425="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC425" s="5" t="str">
         <f>IF(AND(H425="TP", I425="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="426" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B426" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D426" t="s">
         <v>473</v>
@@ -28005,7 +28394,12 @@
       <c r="G426" t="s">
         <v>474</v>
       </c>
-      <c r="I426" s="5"/>
+      <c r="H426" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="I426" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T426" s="5"/>
       <c r="U426" s="59"/>
       <c r="V426" s="14" t="str">
@@ -28044,7 +28438,7 @@
     <row r="427" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A427" s="3"/>
       <c r="B427" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C427" s="2"/>
       <c r="D427" s="2" t="s">
@@ -28055,8 +28449,12 @@
       <c r="G427" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="H427" s="2"/>
-      <c r="I427" s="6"/>
+      <c r="H427" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I427" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="J427" s="2"/>
       <c r="K427" s="2"/>
       <c r="L427" s="2"/>
@@ -28075,7 +28473,7 @@
       </c>
       <c r="W427" s="2" t="str">
         <f>IF(AND(D427="TP", H427="TP", I427="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X427" s="2" t="str">
         <f>IF(OR(D427="TP", H427="TP"), "TP", "FN")</f>
@@ -28083,7 +28481,7 @@
       </c>
       <c r="Y427" s="2" t="str">
         <f>IF(AND(D427="TP", H427="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z427" s="2" t="str">
         <f>IF(OR(D427="TP", I427="TP"), "TP", "FN")</f>
@@ -28091,15 +28489,15 @@
       </c>
       <c r="AA427" s="2" t="str">
         <f>IF(AND(D427="TP", I427="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB427" s="2" t="str">
         <f>IF(OR(H427="TP", I427="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC427" s="6" t="str">
         <f>IF(AND(H427="TP", I427="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="428" spans="1:29" x14ac:dyDescent="0.2">
@@ -30420,7 +30818,7 @@
     </row>
     <row r="465" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B465" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D465" t="s">
         <v>473</v>
@@ -30428,7 +30826,9 @@
       <c r="G465" t="s">
         <v>474</v>
       </c>
-      <c r="I465" s="5"/>
+      <c r="I465" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T465" s="5"/>
       <c r="U465" s="59"/>
       <c r="V465" s="14" t="str">
@@ -30453,11 +30853,11 @@
       </c>
       <c r="AA465" t="str">
         <f>IF(AND(D465="TP", I465="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB465" t="str">
         <f>IF(OR(H465="TP", I465="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC465" s="5" t="str">
         <f>IF(AND(H465="TP", I465="TP"), "TP", "FN")</f>
@@ -30466,7 +30866,7 @@
     </row>
     <row r="466" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B466" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D466" t="s">
         <v>473</v>
@@ -30474,7 +30874,9 @@
       <c r="G466" t="s">
         <v>474</v>
       </c>
-      <c r="I466" s="5"/>
+      <c r="I466" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T466" s="5"/>
       <c r="U466" s="59"/>
       <c r="V466" s="14" t="str">
@@ -30499,11 +30901,11 @@
       </c>
       <c r="AA466" t="str">
         <f>IF(AND(D466="TP", I466="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB466" t="str">
         <f>IF(OR(H466="TP", I466="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC466" s="5" t="str">
         <f>IF(AND(H466="TP", I466="TP"), "TP", "FN")</f>
@@ -30512,7 +30914,7 @@
     </row>
     <row r="467" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B467" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D467" t="s">
         <v>473</v>
@@ -30520,7 +30922,9 @@
       <c r="G467" t="s">
         <v>474</v>
       </c>
-      <c r="I467" s="5"/>
+      <c r="I467" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T467" s="5"/>
       <c r="U467" s="59"/>
       <c r="V467" s="14" t="str">
@@ -30545,11 +30949,11 @@
       </c>
       <c r="AA467" t="str">
         <f>IF(AND(D467="TP", I467="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB467" t="str">
         <f>IF(OR(H467="TP", I467="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC467" s="5" t="str">
         <f>IF(AND(H467="TP", I467="TP"), "TP", "FN")</f>
@@ -30558,7 +30962,7 @@
     </row>
     <row r="468" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B468" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D468" s="48" t="s">
         <v>473</v>
@@ -30566,7 +30970,9 @@
       <c r="G468" t="s">
         <v>474</v>
       </c>
-      <c r="I468" s="5"/>
+      <c r="I468" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T468" s="5"/>
       <c r="U468" s="59"/>
       <c r="V468" s="14" t="str">
@@ -30604,7 +31010,7 @@
     </row>
     <row r="469" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B469" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D469" s="48" t="s">
         <v>473</v>
@@ -30612,7 +31018,9 @@
       <c r="G469" t="s">
         <v>474</v>
       </c>
-      <c r="I469" s="5"/>
+      <c r="I469" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T469" s="5"/>
       <c r="U469" s="59"/>
       <c r="V469" s="14" t="str">
@@ -30637,11 +31045,11 @@
       </c>
       <c r="AA469" t="str">
         <f>IF(AND(D469="TP", I469="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB469" t="str">
         <f>IF(OR(H469="TP", I469="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC469" s="5" t="str">
         <f>IF(AND(H469="TP", I469="TP"), "TP", "FN")</f>
@@ -30650,7 +31058,7 @@
     </row>
     <row r="470" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B470" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D470" s="48" t="s">
         <v>473</v>
@@ -30658,7 +31066,9 @@
       <c r="G470" t="s">
         <v>474</v>
       </c>
-      <c r="I470" s="5"/>
+      <c r="I470" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T470" s="5"/>
       <c r="U470" s="59"/>
       <c r="V470" s="14" t="str">
@@ -30683,11 +31093,11 @@
       </c>
       <c r="AA470" t="str">
         <f>IF(AND(D470="TP", I470="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB470" t="str">
         <f>IF(OR(H470="TP", I470="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC470" s="5" t="str">
         <f>IF(AND(H470="TP", I470="TP"), "TP", "FN")</f>
@@ -30696,7 +31106,7 @@
     </row>
     <row r="471" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B471" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D471" s="48" t="s">
         <v>473</v>
@@ -30704,7 +31114,9 @@
       <c r="G471" t="s">
         <v>474</v>
       </c>
-      <c r="I471" s="5"/>
+      <c r="I471" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T471" s="5"/>
       <c r="U471" s="59"/>
       <c r="V471" s="14" t="str">
@@ -30729,11 +31141,11 @@
       </c>
       <c r="AA471" t="str">
         <f>IF(AND(D471="TP", I471="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB471" t="str">
         <f>IF(OR(H471="TP", I471="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC471" s="5" t="str">
         <f>IF(AND(H471="TP", I471="TP"), "TP", "FN")</f>
@@ -30743,7 +31155,7 @@
     <row r="472" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A472" s="3"/>
       <c r="B472" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C472" s="2"/>
       <c r="D472" s="56" t="s">
@@ -30755,7 +31167,9 @@
         <v>474</v>
       </c>
       <c r="H472" s="2"/>
-      <c r="I472" s="6"/>
+      <c r="I472" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="J472" s="2"/>
       <c r="K472" s="2"/>
       <c r="L472" s="2"/>
@@ -30790,11 +31204,11 @@
       </c>
       <c r="AA472" s="2" t="str">
         <f>IF(AND(D472="TP", I472="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB472" s="2" t="str">
         <f>IF(OR(H472="TP", I472="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC472" s="6" t="str">
         <f>IF(AND(H472="TP", I472="TP"), "TP", "FN")</f>
@@ -32266,7 +32680,7 @@
     </row>
     <row r="502" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B502" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D502" s="48" t="s">
         <v>473</v>
@@ -32274,7 +32688,12 @@
       <c r="G502" t="s">
         <v>474</v>
       </c>
-      <c r="I502" s="5"/>
+      <c r="H502" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I502" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T502" s="5"/>
       <c r="U502" s="59"/>
       <c r="V502" s="14" t="str">
@@ -32283,7 +32702,7 @@
       </c>
       <c r="W502" t="str">
         <f>IF(AND(D502="TP", H502="TP", I502="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X502" t="str">
         <f>IF(OR(D502="TP", H502="TP"), "TP", "FN")</f>
@@ -32291,7 +32710,7 @@
       </c>
       <c r="Y502" t="str">
         <f>IF(AND(D502="TP", H502="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z502" t="str">
         <f>IF(OR(D502="TP", I502="TP"), "TP", "FN")</f>
@@ -32299,20 +32718,20 @@
       </c>
       <c r="AA502" t="str">
         <f>IF(AND(D502="TP", I502="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB502" t="str">
         <f>IF(OR(H502="TP", I502="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC502" s="5" t="str">
         <f>IF(AND(H502="TP", I502="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="503" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B503" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D503" s="48" t="s">
         <v>473</v>
@@ -32320,7 +32739,12 @@
       <c r="G503" t="s">
         <v>474</v>
       </c>
-      <c r="I503" s="5"/>
+      <c r="H503" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I503" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T503" s="5"/>
       <c r="U503" s="59"/>
       <c r="V503" s="14" t="str">
@@ -32329,7 +32753,7 @@
       </c>
       <c r="W503" t="str">
         <f>IF(AND(D503="TP", H503="TP", I503="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X503" t="str">
         <f>IF(OR(D503="TP", H503="TP"), "TP", "FN")</f>
@@ -32337,7 +32761,7 @@
       </c>
       <c r="Y503" t="str">
         <f>IF(AND(D503="TP", H503="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z503" t="str">
         <f>IF(OR(D503="TP", I503="TP"), "TP", "FN")</f>
@@ -32345,20 +32769,20 @@
       </c>
       <c r="AA503" t="str">
         <f>IF(AND(D503="TP", I503="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB503" t="str">
         <f>IF(OR(H503="TP", I503="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC503" s="5" t="str">
         <f>IF(AND(H503="TP", I503="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="504" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B504" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D504" s="48" t="s">
         <v>473</v>
@@ -32366,7 +32790,12 @@
       <c r="G504" t="s">
         <v>474</v>
       </c>
-      <c r="I504" s="5"/>
+      <c r="H504" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I504" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T504" s="5"/>
       <c r="U504" s="59"/>
       <c r="V504" s="14" t="str">
@@ -32375,7 +32804,7 @@
       </c>
       <c r="W504" t="str">
         <f>IF(AND(D504="TP", H504="TP", I504="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X504" t="str">
         <f>IF(OR(D504="TP", H504="TP"), "TP", "FN")</f>
@@ -32383,7 +32812,7 @@
       </c>
       <c r="Y504" t="str">
         <f>IF(AND(D504="TP", H504="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z504" t="str">
         <f>IF(OR(D504="TP", I504="TP"), "TP", "FN")</f>
@@ -32391,20 +32820,20 @@
       </c>
       <c r="AA504" t="str">
         <f>IF(AND(D504="TP", I504="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB504" t="str">
         <f>IF(OR(H504="TP", I504="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC504" s="5" t="str">
         <f>IF(AND(H504="TP", I504="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="505" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B505" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D505" s="48" t="s">
         <v>473</v>
@@ -32412,7 +32841,12 @@
       <c r="G505" t="s">
         <v>474</v>
       </c>
-      <c r="I505" s="5"/>
+      <c r="H505" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I505" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T505" s="5"/>
       <c r="U505" s="59"/>
       <c r="V505" s="14" t="str">
@@ -32421,7 +32855,7 @@
       </c>
       <c r="W505" t="str">
         <f>IF(AND(D505="TP", H505="TP", I505="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X505" t="str">
         <f>IF(OR(D505="TP", H505="TP"), "TP", "FN")</f>
@@ -32429,7 +32863,7 @@
       </c>
       <c r="Y505" t="str">
         <f>IF(AND(D505="TP", H505="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z505" t="str">
         <f>IF(OR(D505="TP", I505="TP"), "TP", "FN")</f>
@@ -32437,20 +32871,20 @@
       </c>
       <c r="AA505" t="str">
         <f>IF(AND(D505="TP", I505="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB505" t="str">
         <f>IF(OR(H505="TP", I505="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC505" s="5" t="str">
         <f>IF(AND(H505="TP", I505="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="506" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B506" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D506" s="48" t="s">
         <v>473</v>
@@ -32458,7 +32892,12 @@
       <c r="G506" t="s">
         <v>474</v>
       </c>
-      <c r="I506" s="5"/>
+      <c r="H506" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I506" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T506" s="5"/>
       <c r="U506" s="59"/>
       <c r="V506" s="14" t="str">
@@ -32467,7 +32906,7 @@
       </c>
       <c r="W506" t="str">
         <f>IF(AND(D506="TP", H506="TP", I506="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X506" t="str">
         <f>IF(OR(D506="TP", H506="TP"), "TP", "FN")</f>
@@ -32475,7 +32914,7 @@
       </c>
       <c r="Y506" t="str">
         <f>IF(AND(D506="TP", H506="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z506" t="str">
         <f>IF(OR(D506="TP", I506="TP"), "TP", "FN")</f>
@@ -32483,20 +32922,20 @@
       </c>
       <c r="AA506" t="str">
         <f>IF(AND(D506="TP", I506="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB506" t="str">
         <f>IF(OR(H506="TP", I506="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC506" s="5" t="str">
         <f>IF(AND(H506="TP", I506="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="507" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B507" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D507" s="48" t="s">
         <v>473</v>
@@ -32504,7 +32943,12 @@
       <c r="G507" t="s">
         <v>474</v>
       </c>
-      <c r="I507" s="5"/>
+      <c r="H507" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I507" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T507" s="5"/>
       <c r="U507" s="59"/>
       <c r="V507" s="14" t="str">
@@ -32513,7 +32957,7 @@
       </c>
       <c r="W507" t="str">
         <f>IF(AND(D507="TP", H507="TP", I507="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X507" t="str">
         <f>IF(OR(D507="TP", H507="TP"), "TP", "FN")</f>
@@ -32521,7 +32965,7 @@
       </c>
       <c r="Y507" t="str">
         <f>IF(AND(D507="TP", H507="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z507" t="str">
         <f>IF(OR(D507="TP", I507="TP"), "TP", "FN")</f>
@@ -32529,20 +32973,20 @@
       </c>
       <c r="AA507" t="str">
         <f>IF(AND(D507="TP", I507="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB507" t="str">
         <f>IF(OR(H507="TP", I507="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC507" s="5" t="str">
         <f>IF(AND(H507="TP", I507="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="508" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B508" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D508" s="48" t="s">
         <v>474</v>
@@ -32550,7 +32994,12 @@
       <c r="G508" t="s">
         <v>474</v>
       </c>
-      <c r="I508" s="5"/>
+      <c r="H508" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="I508" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T508" s="5"/>
       <c r="U508" s="59"/>
       <c r="V508" s="14" t="str">
@@ -32596,7 +33045,12 @@
       <c r="G509" t="s">
         <v>474</v>
       </c>
-      <c r="I509" s="5"/>
+      <c r="H509" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="I509" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T509" s="5"/>
       <c r="U509" s="59"/>
       <c r="V509" s="14" t="str">
@@ -32634,7 +33088,7 @@
     </row>
     <row r="510" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B510" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D510" s="48" t="s">
         <v>473</v>
@@ -32642,7 +33096,12 @@
       <c r="G510" t="s">
         <v>474</v>
       </c>
-      <c r="I510" s="5"/>
+      <c r="H510" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I510" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T510" s="5"/>
       <c r="U510" s="59"/>
       <c r="V510" s="14" t="str">
@@ -32651,7 +33110,7 @@
       </c>
       <c r="W510" t="str">
         <f>IF(AND(D510="TP", H510="TP", I510="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X510" t="str">
         <f>IF(OR(D510="TP", H510="TP"), "TP", "FN")</f>
@@ -32659,7 +33118,7 @@
       </c>
       <c r="Y510" t="str">
         <f>IF(AND(D510="TP", H510="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z510" t="str">
         <f>IF(OR(D510="TP", I510="TP"), "TP", "FN")</f>
@@ -32667,20 +33126,20 @@
       </c>
       <c r="AA510" t="str">
         <f>IF(AND(D510="TP", I510="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB510" t="str">
         <f>IF(OR(H510="TP", I510="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC510" s="5" t="str">
         <f>IF(AND(H510="TP", I510="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="511" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B511" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D511" s="48" t="s">
         <v>473</v>
@@ -32688,7 +33147,12 @@
       <c r="G511" t="s">
         <v>474</v>
       </c>
-      <c r="I511" s="5"/>
+      <c r="H511" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I511" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T511" s="5"/>
       <c r="U511" s="59"/>
       <c r="V511" s="14" t="str">
@@ -32697,7 +33161,7 @@
       </c>
       <c r="W511" t="str">
         <f>IF(AND(D511="TP", H511="TP", I511="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X511" t="str">
         <f>IF(OR(D511="TP", H511="TP"), "TP", "FN")</f>
@@ -32705,7 +33169,7 @@
       </c>
       <c r="Y511" t="str">
         <f>IF(AND(D511="TP", H511="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z511" t="str">
         <f>IF(OR(D511="TP", I511="TP"), "TP", "FN")</f>
@@ -32713,20 +33177,20 @@
       </c>
       <c r="AA511" t="str">
         <f>IF(AND(D511="TP", I511="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB511" t="str">
         <f>IF(OR(H511="TP", I511="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC511" s="5" t="str">
         <f>IF(AND(H511="TP", I511="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="512" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B512" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D512" s="48" t="s">
         <v>473</v>
@@ -32734,7 +33198,12 @@
       <c r="G512" t="s">
         <v>474</v>
       </c>
-      <c r="I512" s="5"/>
+      <c r="H512" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I512" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T512" s="5"/>
       <c r="U512" s="59"/>
       <c r="V512" s="14" t="str">
@@ -32743,7 +33212,7 @@
       </c>
       <c r="W512" t="str">
         <f>IF(AND(D512="TP", H512="TP", I512="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X512" t="str">
         <f>IF(OR(D512="TP", H512="TP"), "TP", "FN")</f>
@@ -32751,7 +33220,7 @@
       </c>
       <c r="Y512" t="str">
         <f>IF(AND(D512="TP", H512="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z512" t="str">
         <f>IF(OR(D512="TP", I512="TP"), "TP", "FN")</f>
@@ -32759,20 +33228,20 @@
       </c>
       <c r="AA512" t="str">
         <f>IF(AND(D512="TP", I512="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB512" t="str">
         <f>IF(OR(H512="TP", I512="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC512" s="5" t="str">
         <f>IF(AND(H512="TP", I512="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="513" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B513" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D513" s="48" t="s">
         <v>473</v>
@@ -32780,7 +33249,12 @@
       <c r="G513" t="s">
         <v>474</v>
       </c>
-      <c r="I513" s="5"/>
+      <c r="H513" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I513" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T513" s="5"/>
       <c r="U513" s="59"/>
       <c r="V513" s="14" t="str">
@@ -32789,7 +33263,7 @@
       </c>
       <c r="W513" t="str">
         <f>IF(AND(D513="TP", H513="TP", I513="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X513" t="str">
         <f>IF(OR(D513="TP", H513="TP"), "TP", "FN")</f>
@@ -32797,7 +33271,7 @@
       </c>
       <c r="Y513" t="str">
         <f>IF(AND(D513="TP", H513="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z513" t="str">
         <f>IF(OR(D513="TP", I513="TP"), "TP", "FN")</f>
@@ -32805,20 +33279,20 @@
       </c>
       <c r="AA513" t="str">
         <f>IF(AND(D513="TP", I513="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB513" t="str">
         <f>IF(OR(H513="TP", I513="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC513" s="5" t="str">
         <f>IF(AND(H513="TP", I513="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="514" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B514" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D514" s="48" t="s">
         <v>473</v>
@@ -32826,7 +33300,12 @@
       <c r="G514" t="s">
         <v>474</v>
       </c>
-      <c r="I514" s="5"/>
+      <c r="H514" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I514" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T514" s="5"/>
       <c r="U514" s="59"/>
       <c r="V514" s="14" t="str">
@@ -32835,7 +33314,7 @@
       </c>
       <c r="W514" t="str">
         <f>IF(AND(D514="TP", H514="TP", I514="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X514" t="str">
         <f>IF(OR(D514="TP", H514="TP"), "TP", "FN")</f>
@@ -32843,7 +33322,7 @@
       </c>
       <c r="Y514" t="str">
         <f>IF(AND(D514="TP", H514="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z514" t="str">
         <f>IF(OR(D514="TP", I514="TP"), "TP", "FN")</f>
@@ -32851,20 +33330,20 @@
       </c>
       <c r="AA514" t="str">
         <f>IF(AND(D514="TP", I514="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB514" t="str">
         <f>IF(OR(H514="TP", I514="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC514" s="5" t="str">
         <f>IF(AND(H514="TP", I514="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="515" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B515" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D515" s="48" t="s">
         <v>473</v>
@@ -32872,7 +33351,12 @@
       <c r="G515" t="s">
         <v>474</v>
       </c>
-      <c r="I515" s="5"/>
+      <c r="H515" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I515" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T515" s="5"/>
       <c r="U515" s="59"/>
       <c r="V515" s="14" t="str">
@@ -32881,7 +33365,7 @@
       </c>
       <c r="W515" t="str">
         <f>IF(AND(D515="TP", H515="TP", I515="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X515" t="str">
         <f>IF(OR(D515="TP", H515="TP"), "TP", "FN")</f>
@@ -32889,7 +33373,7 @@
       </c>
       <c r="Y515" t="str">
         <f>IF(AND(D515="TP", H515="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z515" t="str">
         <f>IF(OR(D515="TP", I515="TP"), "TP", "FN")</f>
@@ -32897,20 +33381,20 @@
       </c>
       <c r="AA515" t="str">
         <f>IF(AND(D515="TP", I515="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB515" t="str">
         <f>IF(OR(H515="TP", I515="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC515" s="5" t="str">
         <f>IF(AND(H515="TP", I515="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="516" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B516" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D516" s="48" t="s">
         <v>473</v>
@@ -32918,7 +33402,12 @@
       <c r="G516" t="s">
         <v>474</v>
       </c>
-      <c r="I516" s="5"/>
+      <c r="H516" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="I516" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T516" s="5"/>
       <c r="U516" s="59"/>
       <c r="V516" s="14" t="str">
@@ -32956,7 +33445,7 @@
     </row>
     <row r="517" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B517" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D517" s="48" t="s">
         <v>473</v>
@@ -32964,7 +33453,12 @@
       <c r="G517" t="s">
         <v>474</v>
       </c>
-      <c r="I517" s="5"/>
+      <c r="H517" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I517" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T517" s="5"/>
       <c r="U517" s="59"/>
       <c r="V517" s="14" t="str">
@@ -32973,7 +33467,7 @@
       </c>
       <c r="W517" t="str">
         <f>IF(AND(D517="TP", H517="TP", I517="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X517" t="str">
         <f>IF(OR(D517="TP", H517="TP"), "TP", "FN")</f>
@@ -32981,7 +33475,7 @@
       </c>
       <c r="Y517" t="str">
         <f>IF(AND(D517="TP", H517="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z517" t="str">
         <f>IF(OR(D517="TP", I517="TP"), "TP", "FN")</f>
@@ -32989,21 +33483,21 @@
       </c>
       <c r="AA517" t="str">
         <f>IF(AND(D517="TP", I517="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB517" t="str">
         <f>IF(OR(H517="TP", I517="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC517" s="5" t="str">
         <f>IF(AND(H517="TP", I517="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="518" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A518" s="3"/>
       <c r="B518" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C518" s="2"/>
       <c r="D518" s="56" t="s">
@@ -33014,8 +33508,12 @@
       <c r="G518" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="H518" s="2"/>
-      <c r="I518" s="6"/>
+      <c r="H518" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I518" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="J518" s="2"/>
       <c r="K518" s="2"/>
       <c r="L518" s="2"/>
@@ -33034,7 +33532,7 @@
       </c>
       <c r="W518" s="2" t="str">
         <f>IF(AND(D518="TP", H518="TP", I518="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X518" s="2" t="str">
         <f>IF(OR(D518="TP", H518="TP"), "TP", "FN")</f>
@@ -33042,7 +33540,7 @@
       </c>
       <c r="Y518" s="2" t="str">
         <f>IF(AND(D518="TP", H518="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z518" s="2" t="str">
         <f>IF(OR(D518="TP", I518="TP"), "TP", "FN")</f>
@@ -33050,15 +33548,15 @@
       </c>
       <c r="AA518" s="2" t="str">
         <f>IF(AND(D518="TP", I518="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB518" s="2" t="str">
         <f>IF(OR(H518="TP", I518="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC518" s="6" t="str">
         <f>IF(AND(H518="TP", I518="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="519" spans="1:29" x14ac:dyDescent="0.2">
@@ -35507,7 +36005,7 @@
     </row>
     <row r="558" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B558" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D558" t="s">
         <v>474</v>
@@ -35515,12 +36013,14 @@
       <c r="G558" t="s">
         <v>474</v>
       </c>
-      <c r="I558" s="5"/>
+      <c r="I558" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T558" s="5"/>
       <c r="U558" s="59"/>
       <c r="V558" s="14" t="str">
         <f>IF(OR(D558="TP", H558="TP", I558="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W558" t="str">
         <f>IF(AND(D558="TP", H558="TP", I558="TP"), "TP", "FN")</f>
@@ -35536,7 +36036,7 @@
       </c>
       <c r="Z558" t="str">
         <f>IF(OR(D558="TP", I558="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA558" t="str">
         <f>IF(AND(D558="TP", I558="TP"), "TP", "FN")</f>
@@ -35544,7 +36044,7 @@
       </c>
       <c r="AB558" t="str">
         <f>IF(OR(H558="TP", I558="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC558" s="5" t="str">
         <f>IF(AND(H558="TP", I558="TP"), "TP", "FN")</f>
@@ -35554,7 +36054,7 @@
     <row r="559" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A559" s="3"/>
       <c r="B559" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C559" s="2"/>
       <c r="D559" s="2" t="s">
@@ -35566,7 +36066,9 @@
         <v>474</v>
       </c>
       <c r="H559" s="2"/>
-      <c r="I559" s="6"/>
+      <c r="I559" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="J559" s="2"/>
       <c r="K559" s="2"/>
       <c r="L559" s="2"/>
@@ -35581,7 +36083,7 @@
       <c r="U559" s="2"/>
       <c r="V559" s="16" t="str">
         <f>IF(OR(D559="TP", H559="TP", I559="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W559" s="2" t="str">
         <f>IF(AND(D559="TP", H559="TP", I559="TP"), "TP", "FN")</f>
@@ -35597,7 +36099,7 @@
       </c>
       <c r="Z559" s="2" t="str">
         <f>IF(OR(D559="TP", I559="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA559" s="2" t="str">
         <f>IF(AND(D559="TP", I559="TP"), "TP", "FN")</f>
@@ -35605,7 +36107,7 @@
       </c>
       <c r="AB559" s="2" t="str">
         <f>IF(OR(H559="TP", I559="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC559" s="6" t="str">
         <f>IF(AND(H559="TP", I559="TP"), "TP", "FN")</f>
@@ -37875,7 +38377,7 @@
     </row>
     <row r="595" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B595" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D595" t="s">
         <v>474</v>
@@ -37883,7 +38385,12 @@
       <c r="G595" t="s">
         <v>474</v>
       </c>
-      <c r="I595" s="5"/>
+      <c r="H595" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I595" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T595" s="5"/>
       <c r="U595" s="59"/>
       <c r="V595" s="14" t="str">
@@ -37921,7 +38428,7 @@
     </row>
     <row r="596" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B596" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D596" t="s">
         <v>474</v>
@@ -37929,12 +38436,17 @@
       <c r="G596" t="s">
         <v>474</v>
       </c>
-      <c r="I596" s="5"/>
+      <c r="H596" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I596" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T596" s="5"/>
       <c r="U596" s="59"/>
       <c r="V596" s="14" t="str">
         <f>IF(OR(D596="TP", H596="TP", I596="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W596" t="str">
         <f>IF(AND(D596="TP", H596="TP", I596="TP"), "TP", "FN")</f>
@@ -37942,7 +38454,7 @@
       </c>
       <c r="X596" t="str">
         <f>IF(OR(D596="TP", H596="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y596" t="str">
         <f>IF(AND(D596="TP", H596="TP"), "TP", "FN")</f>
@@ -37950,7 +38462,7 @@
       </c>
       <c r="Z596" t="str">
         <f>IF(OR(D596="TP", I596="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA596" t="str">
         <f>IF(AND(D596="TP", I596="TP"), "TP", "FN")</f>
@@ -37958,16 +38470,16 @@
       </c>
       <c r="AB596" t="str">
         <f>IF(OR(H596="TP", I596="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC596" s="5" t="str">
         <f>IF(AND(H596="TP", I596="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="597" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B597" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D597" s="47" t="s">
         <v>474</v>
@@ -37975,12 +38487,17 @@
       <c r="G597" t="s">
         <v>474</v>
       </c>
-      <c r="I597" s="5"/>
+      <c r="H597" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I597" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T597" s="5"/>
       <c r="U597" s="59"/>
       <c r="V597" s="14" t="str">
         <f>IF(OR(D597="TP", H597="TP", I597="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W597" t="str">
         <f>IF(AND(D597="TP", H597="TP", I597="TP"), "TP", "FN")</f>
@@ -37988,7 +38505,7 @@
       </c>
       <c r="X597" t="str">
         <f>IF(OR(D597="TP", H597="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y597" t="str">
         <f>IF(AND(D597="TP", H597="TP"), "TP", "FN")</f>
@@ -37996,7 +38513,7 @@
       </c>
       <c r="Z597" t="str">
         <f>IF(OR(D597="TP", I597="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA597" t="str">
         <f>IF(AND(D597="TP", I597="TP"), "TP", "FN")</f>
@@ -38004,16 +38521,16 @@
       </c>
       <c r="AB597" t="str">
         <f>IF(OR(H597="TP", I597="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC597" s="5" t="str">
         <f>IF(AND(H597="TP", I597="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="598" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B598" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D598" s="47" t="s">
         <v>474</v>
@@ -38021,12 +38538,17 @@
       <c r="G598" t="s">
         <v>474</v>
       </c>
-      <c r="I598" s="5"/>
+      <c r="H598" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I598" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T598" s="5"/>
       <c r="U598" s="59"/>
       <c r="V598" s="14" t="str">
         <f>IF(OR(D598="TP", H598="TP", I598="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W598" t="str">
         <f>IF(AND(D598="TP", H598="TP", I598="TP"), "TP", "FN")</f>
@@ -38034,7 +38556,7 @@
       </c>
       <c r="X598" t="str">
         <f>IF(OR(D598="TP", H598="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y598" t="str">
         <f>IF(AND(D598="TP", H598="TP"), "TP", "FN")</f>
@@ -38042,7 +38564,7 @@
       </c>
       <c r="Z598" t="str">
         <f>IF(OR(D598="TP", I598="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA598" t="str">
         <f>IF(AND(D598="TP", I598="TP"), "TP", "FN")</f>
@@ -38050,16 +38572,16 @@
       </c>
       <c r="AB598" t="str">
         <f>IF(OR(H598="TP", I598="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC598" s="5" t="str">
         <f>IF(AND(H598="TP", I598="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="599" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B599" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D599" s="47" t="s">
         <v>474</v>
@@ -38067,7 +38589,12 @@
       <c r="G599" t="s">
         <v>474</v>
       </c>
-      <c r="I599" s="5"/>
+      <c r="H599" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="I599" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T599" s="5"/>
       <c r="U599" s="59"/>
       <c r="V599" s="14" t="str">
@@ -38105,7 +38632,7 @@
     </row>
     <row r="600" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B600" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D600" s="47" t="s">
         <v>474</v>
@@ -38113,12 +38640,17 @@
       <c r="G600" t="s">
         <v>474</v>
       </c>
-      <c r="I600" s="5"/>
+      <c r="H600" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I600" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T600" s="5"/>
       <c r="U600" s="59"/>
       <c r="V600" s="14" t="str">
         <f>IF(OR(D600="TP", H600="TP", I600="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W600" t="str">
         <f>IF(AND(D600="TP", H600="TP", I600="TP"), "TP", "FN")</f>
@@ -38126,7 +38658,7 @@
       </c>
       <c r="X600" t="str">
         <f>IF(OR(D600="TP", H600="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y600" t="str">
         <f>IF(AND(D600="TP", H600="TP"), "TP", "FN")</f>
@@ -38134,7 +38666,7 @@
       </c>
       <c r="Z600" t="str">
         <f>IF(OR(D600="TP", I600="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA600" t="str">
         <f>IF(AND(D600="TP", I600="TP"), "TP", "FN")</f>
@@ -38142,16 +38674,16 @@
       </c>
       <c r="AB600" t="str">
         <f>IF(OR(H600="TP", I600="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC600" s="5" t="str">
         <f>IF(AND(H600="TP", I600="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="601" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B601" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D601" s="47" t="s">
         <v>474</v>
@@ -38159,12 +38691,17 @@
       <c r="G601" t="s">
         <v>474</v>
       </c>
-      <c r="I601" s="5"/>
+      <c r="H601" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I601" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T601" s="5"/>
       <c r="U601" s="59"/>
       <c r="V601" s="14" t="str">
         <f>IF(OR(D601="TP", H601="TP", I601="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W601" t="str">
         <f>IF(AND(D601="TP", H601="TP", I601="TP"), "TP", "FN")</f>
@@ -38172,7 +38709,7 @@
       </c>
       <c r="X601" t="str">
         <f>IF(OR(D601="TP", H601="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y601" t="str">
         <f>IF(AND(D601="TP", H601="TP"), "TP", "FN")</f>
@@ -38180,7 +38717,7 @@
       </c>
       <c r="Z601" t="str">
         <f>IF(OR(D601="TP", I601="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA601" t="str">
         <f>IF(AND(D601="TP", I601="TP"), "TP", "FN")</f>
@@ -38188,16 +38725,16 @@
       </c>
       <c r="AB601" t="str">
         <f>IF(OR(H601="TP", I601="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC601" s="5" t="str">
         <f>IF(AND(H601="TP", I601="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="602" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B602" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D602" s="47" t="s">
         <v>474</v>
@@ -38205,12 +38742,17 @@
       <c r="G602" t="s">
         <v>474</v>
       </c>
-      <c r="I602" s="5"/>
+      <c r="H602" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I602" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T602" s="5"/>
       <c r="U602" s="59"/>
       <c r="V602" s="14" t="str">
         <f>IF(OR(D602="TP", H602="TP", I602="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W602" t="str">
         <f>IF(AND(D602="TP", H602="TP", I602="TP"), "TP", "FN")</f>
@@ -38218,7 +38760,7 @@
       </c>
       <c r="X602" t="str">
         <f>IF(OR(D602="TP", H602="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y602" t="str">
         <f>IF(AND(D602="TP", H602="TP"), "TP", "FN")</f>
@@ -38226,7 +38768,7 @@
       </c>
       <c r="Z602" t="str">
         <f>IF(OR(D602="TP", I602="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA602" t="str">
         <f>IF(AND(D602="TP", I602="TP"), "TP", "FN")</f>
@@ -38234,16 +38776,16 @@
       </c>
       <c r="AB602" t="str">
         <f>IF(OR(H602="TP", I602="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC602" s="5" t="str">
         <f>IF(AND(H602="TP", I602="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="603" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B603" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D603" s="47" t="s">
         <v>474</v>
@@ -38251,7 +38793,12 @@
       <c r="G603" t="s">
         <v>474</v>
       </c>
-      <c r="I603" s="5"/>
+      <c r="H603" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="I603" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T603" s="5"/>
       <c r="U603" s="59"/>
       <c r="V603" s="14" t="str">
@@ -38289,7 +38836,7 @@
     </row>
     <row r="604" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B604" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D604" s="47" t="s">
         <v>474</v>
@@ -38297,7 +38844,12 @@
       <c r="G604" t="s">
         <v>474</v>
       </c>
-      <c r="I604" s="5"/>
+      <c r="H604" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="I604" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T604" s="5"/>
       <c r="U604" s="59"/>
       <c r="V604" s="14" t="str">
@@ -38335,7 +38887,7 @@
     </row>
     <row r="605" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B605" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D605" s="47" t="s">
         <v>474</v>
@@ -38343,7 +38895,12 @@
       <c r="G605" t="s">
         <v>474</v>
       </c>
-      <c r="I605" s="5"/>
+      <c r="H605" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="I605" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T605" s="5"/>
       <c r="U605" s="59"/>
       <c r="V605" s="14" t="str">
@@ -38381,7 +38938,7 @@
     </row>
     <row r="606" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B606" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D606" s="47" t="s">
         <v>474</v>
@@ -38389,7 +38946,12 @@
       <c r="G606" t="s">
         <v>474</v>
       </c>
-      <c r="I606" s="5"/>
+      <c r="H606" t="s">
+        <v>474</v>
+      </c>
+      <c r="I606" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T606" s="5"/>
       <c r="U606" s="59"/>
       <c r="V606" s="14" t="str">
@@ -38427,7 +38989,7 @@
     </row>
     <row r="607" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B607" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D607" s="47" t="s">
         <v>474</v>
@@ -38435,12 +38997,17 @@
       <c r="G607" t="s">
         <v>474</v>
       </c>
-      <c r="I607" s="5"/>
+      <c r="H607" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I607" s="63" t="s">
+        <v>473</v>
+      </c>
       <c r="T607" s="5"/>
       <c r="U607" s="59"/>
       <c r="V607" s="14" t="str">
         <f>IF(OR(D607="TP", H607="TP", I607="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W607" t="str">
         <f>IF(AND(D607="TP", H607="TP", I607="TP"), "TP", "FN")</f>
@@ -38448,7 +39015,7 @@
       </c>
       <c r="X607" t="str">
         <f>IF(OR(D607="TP", H607="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y607" t="str">
         <f>IF(AND(D607="TP", H607="TP"), "TP", "FN")</f>
@@ -38456,7 +39023,7 @@
       </c>
       <c r="Z607" t="str">
         <f>IF(OR(D607="TP", I607="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA607" t="str">
         <f>IF(AND(D607="TP", I607="TP"), "TP", "FN")</f>
@@ -38464,16 +39031,16 @@
       </c>
       <c r="AB607" t="str">
         <f>IF(OR(H607="TP", I607="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC607" s="5" t="str">
         <f>IF(AND(H607="TP", I607="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="608" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B608" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D608" s="47" t="s">
         <v>474</v>
@@ -38481,7 +39048,12 @@
       <c r="G608" t="s">
         <v>474</v>
       </c>
-      <c r="I608" s="5"/>
+      <c r="H608" t="s">
+        <v>474</v>
+      </c>
+      <c r="I608" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T608" s="5"/>
       <c r="U608" s="59"/>
       <c r="V608" s="14" t="str">
@@ -38519,7 +39091,7 @@
     </row>
     <row r="609" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B609" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D609" s="47" t="s">
         <v>474</v>
@@ -38527,7 +39099,12 @@
       <c r="G609" t="s">
         <v>474</v>
       </c>
-      <c r="I609" s="5"/>
+      <c r="H609" t="s">
+        <v>474</v>
+      </c>
+      <c r="I609" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T609" s="5"/>
       <c r="U609" s="59"/>
       <c r="V609" s="14" t="str">
@@ -38565,7 +39142,7 @@
     </row>
     <row r="610" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B610" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D610" s="47" t="s">
         <v>474</v>
@@ -38573,7 +39150,12 @@
       <c r="G610" t="s">
         <v>474</v>
       </c>
-      <c r="I610" s="5"/>
+      <c r="H610" t="s">
+        <v>474</v>
+      </c>
+      <c r="I610" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T610" s="5"/>
       <c r="U610" s="59"/>
       <c r="V610" s="14" t="str">
@@ -38623,8 +39205,12 @@
       <c r="G611" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="H611" s="2"/>
-      <c r="I611" s="6"/>
+      <c r="H611" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I611" s="6" t="s">
+        <v>474</v>
+      </c>
       <c r="J611" s="2"/>
       <c r="K611" s="2"/>
       <c r="L611" s="2"/>
@@ -38639,7 +39225,7 @@
       <c r="U611" s="2"/>
       <c r="V611" s="16" t="str">
         <f>IF(OR(D611="TP", H611="TP", I611="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W611" s="2" t="str">
         <f>IF(AND(D611="TP", H611="TP", I611="TP"), "TP", "FN")</f>
@@ -38647,7 +39233,7 @@
       </c>
       <c r="X611" s="2" t="str">
         <f>IF(OR(D611="TP", H611="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y611" s="2" t="str">
         <f>IF(AND(D611="TP", H611="TP"), "TP", "FN")</f>
@@ -38663,7 +39249,7 @@
       </c>
       <c r="AB611" s="2" t="str">
         <f>IF(OR(H611="TP", I611="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC611" s="6" t="str">
         <f>IF(AND(H611="TP", I611="TP"), "TP", "FN")</f>
@@ -41293,7 +41879,7 @@
     </row>
     <row r="652" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B652" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D652" t="s">
         <v>473</v>
@@ -41301,7 +41887,12 @@
       <c r="G652" t="s">
         <v>474</v>
       </c>
-      <c r="I652" s="5"/>
+      <c r="H652" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I652" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T652" s="5"/>
       <c r="U652" s="59"/>
       <c r="V652" s="14" t="str">
@@ -41318,7 +41909,7 @@
       </c>
       <c r="Y652" t="str">
         <f>IF(AND(D652="TP", H652="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z652" t="str">
         <f>IF(OR(D652="TP", I652="TP"), "TP", "FN")</f>
@@ -41330,7 +41921,7 @@
       </c>
       <c r="AB652" t="str">
         <f>IF(OR(H652="TP", I652="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC652" s="5" t="str">
         <f>IF(AND(H652="TP", I652="TP"), "TP", "FN")</f>
@@ -41339,7 +41930,7 @@
     </row>
     <row r="653" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B653" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D653" t="s">
         <v>473</v>
@@ -41347,7 +41938,12 @@
       <c r="G653" t="s">
         <v>474</v>
       </c>
-      <c r="I653" s="5"/>
+      <c r="H653" t="s">
+        <v>474</v>
+      </c>
+      <c r="I653" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T653" s="5"/>
       <c r="U653" s="59"/>
       <c r="V653" s="14" t="str">
@@ -41385,7 +41981,7 @@
     </row>
     <row r="654" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B654" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D654" t="s">
         <v>474</v>
@@ -41393,12 +41989,17 @@
       <c r="G654" t="s">
         <v>474</v>
       </c>
-      <c r="I654" s="5"/>
+      <c r="H654" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I654" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T654" s="5"/>
       <c r="U654" s="59"/>
       <c r="V654" s="14" t="str">
         <f>IF(OR(D654="TP", H654="TP", I654="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W654" t="str">
         <f>IF(AND(D654="TP", H654="TP", I654="TP"), "TP", "FN")</f>
@@ -41406,7 +42007,7 @@
       </c>
       <c r="X654" t="str">
         <f>IF(OR(D654="TP", H654="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y654" t="str">
         <f>IF(AND(D654="TP", H654="TP"), "TP", "FN")</f>
@@ -41422,7 +42023,7 @@
       </c>
       <c r="AB654" t="str">
         <f>IF(OR(H654="TP", I654="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC654" s="5" t="str">
         <f>IF(AND(H654="TP", I654="TP"), "TP", "FN")</f>
@@ -41431,7 +42032,7 @@
     </row>
     <row r="655" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B655" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D655" t="s">
         <v>474</v>
@@ -41439,12 +42040,17 @@
       <c r="G655" t="s">
         <v>474</v>
       </c>
-      <c r="I655" s="5"/>
+      <c r="H655" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I655" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T655" s="5"/>
       <c r="U655" s="59"/>
       <c r="V655" s="14" t="str">
         <f>IF(OR(D655="TP", H655="TP", I655="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W655" t="str">
         <f>IF(AND(D655="TP", H655="TP", I655="TP"), "TP", "FN")</f>
@@ -41452,7 +42058,7 @@
       </c>
       <c r="X655" t="str">
         <f>IF(OR(D655="TP", H655="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y655" t="str">
         <f>IF(AND(D655="TP", H655="TP"), "TP", "FN")</f>
@@ -41468,7 +42074,7 @@
       </c>
       <c r="AB655" t="str">
         <f>IF(OR(H655="TP", I655="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC655" s="5" t="str">
         <f>IF(AND(H655="TP", I655="TP"), "TP", "FN")</f>
@@ -41477,7 +42083,7 @@
     </row>
     <row r="656" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B656" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D656" t="s">
         <v>474</v>
@@ -41485,12 +42091,17 @@
       <c r="G656" t="s">
         <v>474</v>
       </c>
-      <c r="I656" s="5"/>
+      <c r="H656" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I656" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T656" s="5"/>
       <c r="U656" s="59"/>
       <c r="V656" s="14" t="str">
         <f>IF(OR(D656="TP", H656="TP", I656="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W656" t="str">
         <f>IF(AND(D656="TP", H656="TP", I656="TP"), "TP", "FN")</f>
@@ -41498,7 +42109,7 @@
       </c>
       <c r="X656" t="str">
         <f>IF(OR(D656="TP", H656="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y656" t="str">
         <f>IF(AND(D656="TP", H656="TP"), "TP", "FN")</f>
@@ -41514,7 +42125,7 @@
       </c>
       <c r="AB656" t="str">
         <f>IF(OR(H656="TP", I656="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC656" s="5" t="str">
         <f>IF(AND(H656="TP", I656="TP"), "TP", "FN")</f>
@@ -41523,7 +42134,7 @@
     </row>
     <row r="657" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B657" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D657" t="s">
         <v>473</v>
@@ -41531,7 +42142,12 @@
       <c r="G657" t="s">
         <v>474</v>
       </c>
-      <c r="I657" s="5"/>
+      <c r="H657" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I657" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T657" s="5"/>
       <c r="U657" s="59"/>
       <c r="V657" s="14" t="str">
@@ -41548,7 +42164,7 @@
       </c>
       <c r="Y657" t="str">
         <f>IF(AND(D657="TP", H657="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z657" t="str">
         <f>IF(OR(D657="TP", I657="TP"), "TP", "FN")</f>
@@ -41560,7 +42176,7 @@
       </c>
       <c r="AB657" t="str">
         <f>IF(OR(H657="TP", I657="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC657" s="5" t="str">
         <f>IF(AND(H657="TP", I657="TP"), "TP", "FN")</f>
@@ -41569,7 +42185,7 @@
     </row>
     <row r="658" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B658" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D658" t="s">
         <v>473</v>
@@ -41577,7 +42193,12 @@
       <c r="G658" t="s">
         <v>474</v>
       </c>
-      <c r="I658" s="5"/>
+      <c r="H658" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I658" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T658" s="5"/>
       <c r="U658" s="59"/>
       <c r="V658" s="14" t="str">
@@ -41594,7 +42215,7 @@
       </c>
       <c r="Y658" t="str">
         <f>IF(AND(D658="TP", H658="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z658" t="str">
         <f>IF(OR(D658="TP", I658="TP"), "TP", "FN")</f>
@@ -41606,7 +42227,7 @@
       </c>
       <c r="AB658" t="str">
         <f>IF(OR(H658="TP", I658="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC658" s="5" t="str">
         <f>IF(AND(H658="TP", I658="TP"), "TP", "FN")</f>
@@ -41615,7 +42236,7 @@
     </row>
     <row r="659" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B659" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D659" t="s">
         <v>474</v>
@@ -41623,12 +42244,17 @@
       <c r="G659" t="s">
         <v>474</v>
       </c>
-      <c r="I659" s="5"/>
+      <c r="H659" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I659" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T659" s="5"/>
       <c r="U659" s="59"/>
       <c r="V659" s="14" t="str">
         <f>IF(OR(D659="TP", H659="TP", I659="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W659" t="str">
         <f>IF(AND(D659="TP", H659="TP", I659="TP"), "TP", "FN")</f>
@@ -41636,7 +42262,7 @@
       </c>
       <c r="X659" t="str">
         <f>IF(OR(D659="TP", H659="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y659" t="str">
         <f>IF(AND(D659="TP", H659="TP"), "TP", "FN")</f>
@@ -41652,7 +42278,7 @@
       </c>
       <c r="AB659" t="str">
         <f>IF(OR(H659="TP", I659="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC659" s="5" t="str">
         <f>IF(AND(H659="TP", I659="TP"), "TP", "FN")</f>
@@ -41661,7 +42287,7 @@
     </row>
     <row r="660" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B660" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D660" t="s">
         <v>474</v>
@@ -41669,12 +42295,17 @@
       <c r="G660" t="s">
         <v>474</v>
       </c>
-      <c r="I660" s="5"/>
+      <c r="H660" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I660" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="T660" s="5"/>
       <c r="U660" s="59"/>
       <c r="V660" s="14" t="str">
         <f>IF(OR(D660="TP", H660="TP", I660="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W660" t="str">
         <f>IF(AND(D660="TP", H660="TP", I660="TP"), "TP", "FN")</f>
@@ -41682,7 +42313,7 @@
       </c>
       <c r="X660" t="str">
         <f>IF(OR(D660="TP", H660="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y660" t="str">
         <f>IF(AND(D660="TP", H660="TP"), "TP", "FN")</f>
@@ -41698,7 +42329,7 @@
       </c>
       <c r="AB660" t="str">
         <f>IF(OR(H660="TP", I660="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC660" s="5" t="str">
         <f>IF(AND(H660="TP", I660="TP"), "TP", "FN")</f>
@@ -41708,7 +42339,7 @@
     <row r="661" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A661" s="3"/>
       <c r="B661" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C661" s="2"/>
       <c r="D661" s="2" t="s">
@@ -41719,8 +42350,12 @@
       <c r="G661" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="H661" s="2"/>
-      <c r="I661" s="6"/>
+      <c r="H661" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I661" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="J661" s="2"/>
       <c r="K661" s="2"/>
       <c r="L661" s="2"/>
@@ -41747,7 +42382,7 @@
       </c>
       <c r="Y661" s="2" t="str">
         <f>IF(AND(D661="TP", H661="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z661" s="2" t="str">
         <f>IF(OR(D661="TP", I661="TP"), "TP", "FN")</f>
@@ -41759,7 +42394,7 @@
       </c>
       <c r="AB661" s="2" t="str">
         <f>IF(OR(H661="TP", I661="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC661" s="6" t="str">
         <f>IF(AND(H661="TP", I661="TP"), "TP", "FN")</f>
@@ -43171,7 +43806,7 @@
     </row>
     <row r="689" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B689" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D689" t="s">
         <v>473</v>
@@ -43179,7 +43814,20 @@
       <c r="G689" t="s">
         <v>474</v>
       </c>
-      <c r="I689" s="5"/>
+      <c r="H689" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I689" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="K689" t="str">
+        <f>IF(COUNTIF(C689:I689, "TP") &gt; 0,"TP","FN")</f>
+        <v>TP</v>
+      </c>
+      <c r="L689" t="str">
+        <f>IF(COUNTIF(C689:I689, "FN") = 0,"TP","FN")</f>
+        <v>FN</v>
+      </c>
       <c r="T689" s="5"/>
       <c r="U689" s="59"/>
       <c r="V689" s="14" t="str">
@@ -43188,7 +43836,7 @@
       </c>
       <c r="W689" t="str">
         <f>IF(AND(D689="TP", H689="TP", I689="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X689" t="str">
         <f>IF(OR(D689="TP", H689="TP"), "TP", "FN")</f>
@@ -43196,7 +43844,7 @@
       </c>
       <c r="Y689" t="str">
         <f>IF(AND(D689="TP", H689="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z689" t="str">
         <f>IF(OR(D689="TP", I689="TP"), "TP", "FN")</f>
@@ -43204,20 +43852,20 @@
       </c>
       <c r="AA689" t="str">
         <f>IF(AND(D689="TP", I689="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB689" t="str">
         <f>IF(OR(H689="TP", I689="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC689" s="5" t="str">
         <f>IF(AND(H689="TP", I689="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="690" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B690" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D690" t="s">
         <v>473</v>
@@ -43225,7 +43873,12 @@
       <c r="G690" t="s">
         <v>474</v>
       </c>
-      <c r="I690" s="5"/>
+      <c r="H690" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I690" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="T690" s="5"/>
       <c r="U690" s="59"/>
       <c r="V690" s="14" t="str">
@@ -43234,7 +43887,7 @@
       </c>
       <c r="W690" t="str">
         <f>IF(AND(D690="TP", H690="TP", I690="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X690" t="str">
         <f>IF(OR(D690="TP", H690="TP"), "TP", "FN")</f>
@@ -43242,7 +43895,7 @@
       </c>
       <c r="Y690" t="str">
         <f>IF(AND(D690="TP", H690="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z690" t="str">
         <f>IF(OR(D690="TP", I690="TP"), "TP", "FN")</f>
@@ -43250,20 +43903,20 @@
       </c>
       <c r="AA690" t="str">
         <f>IF(AND(D690="TP", I690="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB690" t="str">
         <f>IF(OR(H690="TP", I690="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC690" s="5" t="str">
         <f>IF(AND(H690="TP", I690="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="691" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B691" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D691" t="s">
         <v>473</v>
@@ -43271,7 +43924,12 @@
       <c r="G691" t="s">
         <v>474</v>
       </c>
-      <c r="I691" s="5"/>
+      <c r="H691" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I691" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="T691" s="5"/>
       <c r="U691" s="59"/>
       <c r="V691" s="14" t="str">
@@ -43280,7 +43938,7 @@
       </c>
       <c r="W691" t="str">
         <f>IF(AND(D691="TP", H691="TP", I691="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X691" t="str">
         <f>IF(OR(D691="TP", H691="TP"), "TP", "FN")</f>
@@ -43288,7 +43946,7 @@
       </c>
       <c r="Y691" t="str">
         <f>IF(AND(D691="TP", H691="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z691" t="str">
         <f>IF(OR(D691="TP", I691="TP"), "TP", "FN")</f>
@@ -43296,20 +43954,20 @@
       </c>
       <c r="AA691" t="str">
         <f>IF(AND(D691="TP", I691="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB691" t="str">
         <f>IF(OR(H691="TP", I691="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC691" s="5" t="str">
         <f>IF(AND(H691="TP", I691="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="692" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B692" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D692" t="s">
         <v>473</v>
@@ -43317,7 +43975,12 @@
       <c r="G692" t="s">
         <v>474</v>
       </c>
-      <c r="I692" s="5"/>
+      <c r="H692" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I692" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="T692" s="5"/>
       <c r="U692" s="59"/>
       <c r="V692" s="14" t="str">
@@ -43326,7 +43989,7 @@
       </c>
       <c r="W692" t="str">
         <f>IF(AND(D692="TP", H692="TP", I692="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="X692" t="str">
         <f>IF(OR(D692="TP", H692="TP"), "TP", "FN")</f>
@@ -43334,7 +43997,7 @@
       </c>
       <c r="Y692" t="str">
         <f>IF(AND(D692="TP", H692="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Z692" t="str">
         <f>IF(OR(D692="TP", I692="TP"), "TP", "FN")</f>
@@ -43342,20 +44005,20 @@
       </c>
       <c r="AA692" t="str">
         <f>IF(AND(D692="TP", I692="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AB692" t="str">
         <f>IF(OR(H692="TP", I692="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC692" s="5" t="str">
         <f>IF(AND(H692="TP", I692="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="693" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B693" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D693" t="s">
         <v>474</v>
@@ -43363,12 +44026,17 @@
       <c r="G693" t="s">
         <v>474</v>
       </c>
-      <c r="I693" s="5"/>
+      <c r="H693" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I693" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="T693" s="5"/>
       <c r="U693" s="59"/>
       <c r="V693" s="14" t="str">
         <f>IF(OR(D693="TP", H693="TP", I693="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W693" t="str">
         <f>IF(AND(D693="TP", H693="TP", I693="TP"), "TP", "FN")</f>
@@ -43376,7 +44044,7 @@
       </c>
       <c r="X693" t="str">
         <f>IF(OR(D693="TP", H693="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y693" t="str">
         <f>IF(AND(D693="TP", H693="TP"), "TP", "FN")</f>
@@ -43384,7 +44052,7 @@
       </c>
       <c r="Z693" t="str">
         <f>IF(OR(D693="TP", I693="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA693" t="str">
         <f>IF(AND(D693="TP", I693="TP"), "TP", "FN")</f>
@@ -43392,17 +44060,17 @@
       </c>
       <c r="AB693" t="str">
         <f>IF(OR(H693="TP", I693="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC693" s="5" t="str">
         <f>IF(AND(H693="TP", I693="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="694" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A694" s="3"/>
       <c r="B694" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C694" s="2"/>
       <c r="D694" s="2" t="s">
@@ -43413,8 +44081,12 @@
       <c r="G694" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="H694" s="2"/>
-      <c r="I694" s="6"/>
+      <c r="H694" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I694" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="J694" s="2"/>
       <c r="K694" s="2"/>
       <c r="L694" s="2"/>
@@ -43429,7 +44101,7 @@
       <c r="U694" s="2"/>
       <c r="V694" s="16" t="str">
         <f>IF(OR(D694="TP", H694="TP", I694="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W694" s="2" t="str">
         <f>IF(AND(D694="TP", H694="TP", I694="TP"), "TP", "FN")</f>
@@ -43437,7 +44109,7 @@
       </c>
       <c r="X694" s="2" t="str">
         <f>IF(OR(D694="TP", H694="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y694" s="2" t="str">
         <f>IF(AND(D694="TP", H694="TP"), "TP", "FN")</f>
@@ -43445,7 +44117,7 @@
       </c>
       <c r="Z694" s="2" t="str">
         <f>IF(OR(D694="TP", I694="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA694" s="2" t="str">
         <f>IF(AND(D694="TP", I694="TP"), "TP", "FN")</f>
@@ -43453,11 +44125,11 @@
       </c>
       <c r="AB694" s="2" t="str">
         <f>IF(OR(H694="TP", I694="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC694" s="6" t="str">
         <f>IF(AND(H694="TP", I694="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="695" spans="1:29" x14ac:dyDescent="0.2">
@@ -45073,12 +45745,18 @@
     </row>
     <row r="720" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B720" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D720" t="s">
         <v>474</v>
       </c>
       <c r="G720" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="H720" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I720" s="5" t="s">
         <v>474</v>
       </c>
       <c r="T720" s="5"/>
@@ -45118,12 +45796,18 @@
     </row>
     <row r="721" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B721" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D721" t="s">
         <v>473</v>
       </c>
       <c r="G721" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="H721" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I721" s="5" t="s">
         <v>474</v>
       </c>
       <c r="T721" s="5"/>
@@ -45163,12 +45847,18 @@
     </row>
     <row r="722" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B722" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D722" t="s">
         <v>474</v>
       </c>
       <c r="G722" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="H722" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I722" s="5" t="s">
         <v>474</v>
       </c>
       <c r="T722" s="5"/>
@@ -45208,12 +45898,18 @@
     </row>
     <row r="723" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B723" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D723" t="s">
         <v>473</v>
       </c>
       <c r="G723" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="H723" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I723" s="5" t="s">
         <v>474</v>
       </c>
       <c r="T723" s="5"/>
@@ -45253,19 +45949,25 @@
     </row>
     <row r="724" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B724" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D724" t="s">
         <v>474</v>
       </c>
       <c r="G724" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="H724" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I724" s="5" t="s">
         <v>474</v>
       </c>
       <c r="T724" s="5"/>
       <c r="U724" s="59"/>
       <c r="V724" s="14" t="str">
         <f>IF(OR(D724="TP", H724="TP", I724="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W724" t="str">
         <f>IF(AND(D724="TP", H724="TP", I724="TP"), "TP", "FN")</f>
@@ -45273,7 +45975,7 @@
       </c>
       <c r="X724" t="str">
         <f>IF(OR(D724="TP", H724="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y724" t="str">
         <f>IF(AND(D724="TP", H724="TP"), "TP", "FN")</f>
@@ -45289,7 +45991,7 @@
       </c>
       <c r="AB724" t="str">
         <f>IF(OR(H724="TP", I724="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC724" s="5" t="str">
         <f>IF(AND(H724="TP", I724="TP"), "TP", "FN")</f>
@@ -45298,19 +46000,25 @@
     </row>
     <row r="725" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B725" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D725" t="s">
         <v>474</v>
       </c>
       <c r="G725" s="47" t="s">
         <v>474</v>
+      </c>
+      <c r="H725" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I725" s="64" t="s">
+        <v>473</v>
       </c>
       <c r="T725" s="5"/>
       <c r="U725" s="59"/>
       <c r="V725" s="14" t="str">
         <f>IF(OR(D725="TP", H725="TP", I725="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W725" t="str">
         <f>IF(AND(D725="TP", H725="TP", I725="TP"), "TP", "FN")</f>
@@ -45318,7 +46026,7 @@
       </c>
       <c r="X725" t="str">
         <f>IF(OR(D725="TP", H725="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y725" t="str">
         <f>IF(AND(D725="TP", H725="TP"), "TP", "FN")</f>
@@ -45326,7 +46034,7 @@
       </c>
       <c r="Z725" t="str">
         <f>IF(OR(D725="TP", I725="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA725" t="str">
         <f>IF(AND(D725="TP", I725="TP"), "TP", "FN")</f>
@@ -45334,28 +46042,34 @@
       </c>
       <c r="AB725" t="str">
         <f>IF(OR(H725="TP", I725="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC725" s="5" t="str">
         <f>IF(AND(H725="TP", I725="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="726" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B726" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D726" t="s">
         <v>474</v>
       </c>
       <c r="G726" s="47" t="s">
         <v>474</v>
+      </c>
+      <c r="H726" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I726" s="64" t="s">
+        <v>473</v>
       </c>
       <c r="T726" s="5"/>
       <c r="U726" s="59"/>
       <c r="V726" s="14" t="str">
         <f>IF(OR(D726="TP", H726="TP", I726="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W726" t="str">
         <f>IF(AND(D726="TP", H726="TP", I726="TP"), "TP", "FN")</f>
@@ -45363,7 +46077,7 @@
       </c>
       <c r="X726" t="str">
         <f>IF(OR(D726="TP", H726="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y726" t="str">
         <f>IF(AND(D726="TP", H726="TP"), "TP", "FN")</f>
@@ -45371,7 +46085,7 @@
       </c>
       <c r="Z726" t="str">
         <f>IF(OR(D726="TP", I726="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA726" t="str">
         <f>IF(AND(D726="TP", I726="TP"), "TP", "FN")</f>
@@ -45379,28 +46093,34 @@
       </c>
       <c r="AB726" t="str">
         <f>IF(OR(H726="TP", I726="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC726" s="5" t="str">
         <f>IF(AND(H726="TP", I726="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="727" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B727" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D727" t="s">
         <v>474</v>
       </c>
       <c r="G727" s="47" t="s">
         <v>474</v>
+      </c>
+      <c r="H727" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I727" s="64" t="s">
+        <v>473</v>
       </c>
       <c r="T727" s="5"/>
       <c r="U727" s="59"/>
       <c r="V727" s="14" t="str">
         <f>IF(OR(D727="TP", H727="TP", I727="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="W727" t="str">
         <f>IF(AND(D727="TP", H727="TP", I727="TP"), "TP", "FN")</f>
@@ -45408,7 +46128,7 @@
       </c>
       <c r="X727" t="str">
         <f>IF(OR(D727="TP", H727="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="Y727" t="str">
         <f>IF(AND(D727="TP", H727="TP"), "TP", "FN")</f>
@@ -45416,7 +46136,7 @@
       </c>
       <c r="Z727" t="str">
         <f>IF(OR(D727="TP", I727="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AA727" t="str">
         <f>IF(AND(D727="TP", I727="TP"), "TP", "FN")</f>
@@ -45424,21 +46144,27 @@
       </c>
       <c r="AB727" t="str">
         <f>IF(OR(H727="TP", I727="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
       <c r="AC727" s="5" t="str">
         <f>IF(AND(H727="TP", I727="TP"), "TP", "FN")</f>
-        <v>FN</v>
+        <v>TP</v>
       </c>
     </row>
     <row r="728" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B728" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D728" t="s">
         <v>473</v>
       </c>
       <c r="G728" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="H728" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="I728" s="65" t="s">
         <v>474</v>
       </c>
       <c r="T728" s="5"/>
@@ -45478,12 +46204,18 @@
     </row>
     <row r="729" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B729" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D729" t="s">
         <v>473</v>
       </c>
       <c r="G729" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="H729" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="I729" s="65" t="s">
         <v>474</v>
       </c>
       <c r="T729" s="5"/>
@@ -45524,7 +46256,7 @@
     <row r="730" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A730" s="3"/>
       <c r="B730" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C730" s="16"/>
       <c r="D730" s="2" t="s">
@@ -45535,8 +46267,12 @@
       <c r="G730" s="57" t="s">
         <v>474</v>
       </c>
-      <c r="H730" s="2"/>
-      <c r="I730" s="2"/>
+      <c r="H730" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="I730" s="65" t="s">
+        <v>474</v>
+      </c>
       <c r="J730" s="2"/>
       <c r="K730" s="2"/>
       <c r="L730" s="2"/>
@@ -45607,16 +46343,16 @@
         <v>31</v>
       </c>
       <c r="H734" s="9">
-        <f>COUNTIF(H4:H719, "TP")</f>
-        <v>0</v>
+        <f>COUNTIF(H4:H730, "TP")</f>
+        <v>90</v>
       </c>
       <c r="I734" s="17">
-        <f>COUNTIF(I4:I719, "TP")</f>
-        <v>7</v>
+        <f>COUNTIF(I4:I730, "TP")</f>
+        <v>93</v>
       </c>
       <c r="K734" s="13">
         <f>COUNTIF(K4:K719, "TP") + K764</f>
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="L734" s="9">
         <f>COUNTIF(L4:L719, "TP") + L764</f>
@@ -45657,35 +46393,35 @@
       <c r="U734" s="61"/>
       <c r="V734" s="13">
         <f>COUNTIF(V4:V730, "TP")</f>
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="W734" s="9">
         <f t="shared" ref="W734:AC734" si="1">COUNTIF(W4:W730, "TP")</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="X734" s="9">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="Y734" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Z734" s="9">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="AA734" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AB734" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="AC734" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="735" spans="1:29" x14ac:dyDescent="0.2">
@@ -45713,12 +46449,12 @@
         <v>685</v>
       </c>
       <c r="H735">
-        <f>COUNTIF(H4:H719, "FN")</f>
-        <v>259</v>
+        <f>COUNTIF(H4:H730, "FN")</f>
+        <v>301</v>
       </c>
       <c r="I735" s="5">
-        <f>COUNTIF(I4:I719, "FN")</f>
-        <v>378</v>
+        <f>COUNTIF(I4:I730, "FN")</f>
+        <v>452</v>
       </c>
       <c r="K735" s="14">
         <f>COUNTIF(K4:K719, "FN") + K765</f>
@@ -45726,7 +46462,7 @@
       </c>
       <c r="L735">
         <f>COUNTIF(L4:L719, "FN") + L765</f>
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="M735" s="37">
         <f t="shared" ref="M735:T735" si="2">COUNTIF(M4:M719, "FN")</f>
@@ -45763,35 +46499,35 @@
       <c r="U735" s="61"/>
       <c r="V735" s="14">
         <f>COUNTIF(V4:V730, "FN")</f>
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="W735" s="59">
         <f t="shared" ref="W735:AC735" si="3">COUNTIF(W4:W730, "FN")</f>
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="X735" s="59">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="Y735" s="59">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="Z735" s="59">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AA735" s="59">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="AB735" s="59">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="AC735" s="5">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>107</v>
       </c>
     </row>
     <row r="736" spans="1:29" x14ac:dyDescent="0.2">
@@ -45914,16 +46650,16 @@
       </c>
       <c r="H737" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.9375</v>
       </c>
       <c r="I737" s="19">
         <f t="shared" si="5"/>
-        <v>0.35</v>
+        <v>0.87735849056603776</v>
       </c>
       <c r="J737" s="18"/>
       <c r="K737" s="30">
         <f>K734/(K734+K736)</f>
-        <v>0.5761865112406328</v>
+        <v>0.57899090157154676</v>
       </c>
       <c r="L737" s="18">
         <f t="shared" ref="K737:V737" si="6">L734/(L734+L736)</f>
@@ -45964,35 +46700,35 @@
       <c r="U737" s="62"/>
       <c r="V737" s="30">
         <f>V734/(V734+V736)</f>
-        <v>0.7678571428571429</v>
+        <v>0.84431137724550898</v>
       </c>
       <c r="W737" s="60">
         <f t="shared" ref="W737:AC737" si="7">W734/(W734+W736)</f>
-        <v>0</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="X737" s="60">
         <f t="shared" si="7"/>
-        <v>0.83495145631067957</v>
+        <v>0.88590604026845643</v>
       </c>
       <c r="Y737" s="60">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.93617021276595747</v>
       </c>
       <c r="Z737" s="60">
         <f t="shared" si="7"/>
-        <v>0.78899082568807344</v>
+        <v>0.83916083916083917</v>
       </c>
       <c r="AA737" s="60">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="AB737" s="60">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.8978102189781022</v>
       </c>
       <c r="AC737" s="20">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.9464285714285714</v>
       </c>
     </row>
     <row r="738" spans="2:29" x14ac:dyDescent="0.2">
@@ -46021,20 +46757,20 @@
       </c>
       <c r="H738" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.23017902813299232</v>
       </c>
       <c r="I738" s="20">
         <f t="shared" si="8"/>
-        <v>1.8181818181818181E-2</v>
+        <v>0.17064220183486239</v>
       </c>
       <c r="J738" s="18"/>
       <c r="K738" s="30">
         <f>K734/(K734+K735)</f>
-        <v>0.95316804407713496</v>
+        <v>0.9536784741144414</v>
       </c>
       <c r="L738" s="18">
         <f t="shared" ref="L738:T738" si="9">L734/(L734+L735)</f>
-        <v>0.10614525139664804</v>
+        <v>0.10497237569060773</v>
       </c>
       <c r="M738" s="41">
         <f t="shared" si="9"/>
@@ -46071,35 +46807,35 @@
       <c r="U738" s="62"/>
       <c r="V738" s="30">
         <f>V734/(V734+V735)</f>
-        <v>0.53749999999999998</v>
+        <v>0.88124999999999998</v>
       </c>
       <c r="W738" s="60">
         <f t="shared" ref="W738:AC738" si="10">W734/(W734+W735)</f>
-        <v>0</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="X738" s="60">
         <f t="shared" si="10"/>
-        <v>0.53749999999999998</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="Y738" s="60">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="Z738" s="60">
         <f t="shared" si="10"/>
-        <v>0.53749999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="AA738" s="60">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="AB738" s="60">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.76875000000000004</v>
       </c>
       <c r="AC738" s="20">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.33124999999999999</v>
       </c>
     </row>
     <row r="739" spans="2:29" x14ac:dyDescent="0.2">
@@ -46128,20 +46864,20 @@
       </c>
       <c r="H739" s="21">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.36960985626283366</v>
       </c>
       <c r="I739" s="22">
         <f t="shared" si="11"/>
-        <v>3.4567901234567898E-2</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J739" s="18"/>
       <c r="K739" s="31">
         <f t="shared" ref="K739:T739" si="12">(2*K734)/((2*K734)+K736+K735)</f>
-        <v>0.7182148417228853</v>
+        <v>0.72053525476067937</v>
       </c>
       <c r="L739" s="21">
         <f t="shared" si="12"/>
-        <v>0.19143576826196473</v>
+        <v>0.18952618453865336</v>
       </c>
       <c r="M739" s="43">
         <f t="shared" si="12"/>
@@ -46178,35 +46914,35 @@
       <c r="U739" s="62"/>
       <c r="V739" s="31">
         <f t="shared" ref="V739:AC739" si="13">(2*V734)/((2*V734)+V736+V735)</f>
-        <v>0.63235294117647056</v>
+        <v>0.86238532110091748</v>
       </c>
       <c r="W739" s="21">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.29473684210526313</v>
       </c>
       <c r="X739" s="21">
         <f t="shared" si="13"/>
-        <v>0.6539923954372624</v>
+        <v>0.85436893203883491</v>
       </c>
       <c r="Y739" s="21">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.4251207729468599</v>
       </c>
       <c r="Z739" s="21">
         <f t="shared" si="13"/>
-        <v>0.63940520446096649</v>
+        <v>0.79207920792079212</v>
       </c>
       <c r="AA739" s="21">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.48598130841121495</v>
       </c>
       <c r="AB739" s="21">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.82828282828282829</v>
       </c>
       <c r="AC739" s="22">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.49074074074074076</v>
       </c>
     </row>
     <row r="740" spans="2:29" x14ac:dyDescent="0.2">
@@ -46859,7 +47595,7 @@
         <f>H748/(H748+H750)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I751" s="18">
+      <c r="I751" s="19">
         <f>I748/(I748+I750)</f>
         <v>0.77777777777777779</v>
       </c>
@@ -46932,7 +47668,7 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="I752" s="18">
+      <c r="I752" s="20">
         <f t="shared" si="23"/>
         <v>1.8181818181818181E-2</v>
       </c>
@@ -47005,7 +47741,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I753" s="21">
+      <c r="I753" s="22">
         <f t="shared" si="25"/>
         <v>3.553299492385787E-2</v>
       </c>
@@ -47075,11 +47811,11 @@
       </c>
       <c r="H755">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I755">
+        <v>90</v>
+      </c>
+      <c r="I755" s="17">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="756" spans="1:21" x14ac:dyDescent="0.2">
@@ -47096,11 +47832,11 @@
       </c>
       <c r="H756">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I756">
+        <v>42</v>
+      </c>
+      <c r="I756" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="757" spans="1:21" x14ac:dyDescent="0.2">
@@ -47119,7 +47855,7 @@
       <c r="H757" s="10">
         <v>6</v>
       </c>
-      <c r="I757" s="10">
+      <c r="I757" s="11">
         <v>11</v>
       </c>
     </row>
@@ -47140,11 +47876,11 @@
       </c>
       <c r="H758" s="18">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="I758" s="18">
+        <v>0.9375</v>
+      </c>
+      <c r="I758" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.88659793814432986</v>
       </c>
     </row>
     <row r="759" spans="1:21" x14ac:dyDescent="0.2">
@@ -47162,13 +47898,13 @@
         <f t="shared" ref="E759:I759" si="30">G755/(G755+G756)</f>
         <v>0</v>
       </c>
-      <c r="H759" s="18" t="e">
+      <c r="H759" s="18">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I759" s="18" t="e">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="I759" s="20">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>0.53749999999999998</v>
       </c>
     </row>
     <row r="760" spans="1:21" x14ac:dyDescent="0.2">
@@ -47188,11 +47924,11 @@
       </c>
       <c r="H760" s="21">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="I760" s="21">
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="I760" s="22">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.66926070038910501</v>
       </c>
     </row>
     <row r="761" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -47900,12 +48636,12 @@
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C4:I175 C176:C179 E176:I179 C180:I180 C181:C186 E181:I186 C187:I467 C468:C472 E468:I472 C473:I501 C502:C507 E502:I507 C508:I508 C509:C518 E509:I518 C519:I596 C597:C611 E597:I611 C612:I719 C720:F730 H720:I730 C731:I731">
+  <conditionalFormatting sqref="C176:C179 C181:C186 C468:C472 E468:I468 C473:I501 C502:C507 C508:I508 C509:C518 E509:I509 C519:I557 C597:C611 E599:I599 C612:I651 C720:F730 C731:I731 C4:I80 C217:G220 C216:I216 C213:G215 C323:I377 C320:G322 C381:I382 C378:G380 C386:I407 C383:G385 C410:I421 C408:G409 C424:I424 C422:G423 C426:I426 C425:G425 C428:I464 C427:G427 E502:G507 E516:I516 E510:G515 E517:G518 C596:G596 E597:G598 E603:I606 E600:G602 E608:I610 E607:G607 E611:G611 I611 C653:I653 C652:G652 C662:I688 C654:G661 C695:I719 C689:G694 C90:I138 C81:H89 C150:I150 C139:H149 C155:I175 C151:H154 E176:I179 C180:I180 E181:I186 C187:I212 I213:I221 C221:I319 C465:H467 E469:H472 C560:I595 C558:H559 I652:I661 I689:I694 H720:I723 I724:I727 H728:H730">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="FP">
       <formula>NOT(ISERROR(SEARCH("FP",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:AC730">
+  <conditionalFormatting sqref="C4:AC80 C217:G220 C213:G215 C323:AC377 C320:G322 C381:AC382 C378:G380 C386:AC407 C383:G385 C410:AC421 C408:G409 C424:AC424 C422:G423 C426:AC426 C425:G425 J425:AC425 C428:AC464 C427:G427 J427:AC427 C508:AC509 C502:G507 C516:AC516 C510:G515 C519:AC557 C517:G518 C599:AC599 C596:G598 C603:AC606 C600:G602 C608:AC610 C607:G607 J607:AC607 C612:AC651 C611:G611 I611:AC611 C652:G652 C662:AC688 C654:G661 C689:G694 C724:G727 C90:AC138 C81:H89 J81:AC89 C150:AC150 C139:H149 J139:AC149 C151:H154 J151:AC154 C155:AC212 I213:AC215 C216:AC216 I217:AC220 C221:AC319 J320:AC322 J378:AC380 J383:AC385 J408:AC409 J422:AC423 C468:AC468 C465:H467 J465:AC467 C473:AC501 C469:H472 J469:AC472 J502:AC507 J510:AC515 J517:AC518 C560:AC595 C558:H559 J558:AC559 J596:AC598 J600:AC602 I652:AC652 C653:AC653 I654:AC661 I689:AC694 C695:AC723 I724:AC727 C728:H730 J728:AC730">
     <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" operator="containsText" text="FN">
       <formula>NOT(ISERROR(SEARCH("FN",C4)))</formula>
     </cfRule>
